--- a/util/AI-RiskDiagnoseTool.xlsx
+++ b/util/AI-RiskDiagnoseTool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyajima\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749CF6F5-F5B2-4C80-BD02-BD1EA2D12F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4883C14D-DD23-4EFF-81A0-D6E88F253DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9375" yWindow="855" windowWidth="21135" windowHeight="13710" xr2:uid="{7FFC3D60-456E-4EF0-A58D-4DA55A3AFCD4}"/>
+    <workbookView xWindow="1560" yWindow="1320" windowWidth="25005" windowHeight="14130" xr2:uid="{7FFC3D60-456E-4EF0-A58D-4DA55A3AFCD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Ⅰ. AIの定義" sheetId="10" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="503">
   <si>
     <t>本分析の利用方法</t>
     <rPh sb="0" eb="1">
@@ -526,15 +526,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Yesの例）推薦システム
-　　想定攻撃者：システムの利用者
-　　利用者の操作ログをそのまま訓練する場合</t>
-    <rPh sb="26" eb="29">
-      <t>リヨウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>条件1-1</t>
     <rPh sb="0" eb="2">
       <t>ジョウケン</t>
@@ -580,62 +571,6 @@
     <t>質問2</t>
     <rPh sb="0" eb="2">
       <t>シツモン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>推論処理可能なデータの個数に関する質問</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-分析対象のAIシステムが、
-想定攻撃者の意思で推論処理を行える場合は【2-1A】を、
-自動で推論処理を行うシステムの場合は質問【2-1B】をお答えください。</t>
-    </r>
-    <rPh sb="4" eb="6">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>コスウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ブンセキ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="34" eb="39">
-      <t>ソウテイコウゲキシャ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="91" eb="92">
-      <t>コタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1248,18 +1183,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">AIシステムの仕様として想定される入力データと類似のデータ（ほぼ同じ用途、ほぼ同じ種類・ジャンルのデータ）を、想定攻撃者が1個以上、何らかの手段で準備・入手できますか？
-①類似データ1個とはAIが処理する最小単位のデータの集まりです。テーブルデータなら1行、画像なら1枚です。
-</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>ルイジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>条件7-1</t>
     <rPh sb="0" eb="2">
       <t>ジョウケン</t>
@@ -1388,40 +1311,6 @@
     <t>第三者</t>
     <rPh sb="0" eb="3">
       <t>ダイサンシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>推薦システム</t>
-    <rPh sb="0" eb="2">
-      <t>スイセン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>利用者が随時自分の意志で訓練を行えないのでNo</t>
-    <rPh sb="0" eb="3">
-      <t>リヨウシャ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ズイジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イシ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>推薦システム
-（利用者の操作ログをそのまま訓練する場合）</t>
-    <rPh sb="0" eb="2">
-      <t>スイセン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5848,20 +5737,214 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>推論処理可能なデータの個数に関する質問</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+分析対象のAIシステムが、
+想定攻撃者の意思で推論処理を行える場合は【2-1A】から、
+自動で推論処理を行うシステムの場合は質問【2-1B】からお答えください。
+どちらにも当てはまる場合には、両方お答えください。</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コスウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="34" eb="39">
+      <t>ソウテイコウゲキシャ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>コタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t xml:space="preserve">【7-1】がYesであった場合、
-AIシステムの仕様として想定するデータと類似のデータを、想定攻撃者が1,000個程度以上、何らかの手段で準備・入手できますか？
+AIシステムの仕様として想定するデータと類似のデータセットを、想定攻撃者が1,000個程度以上、何らかの手段で準備・入手できますか？
 </t>
     <rPh sb="13" eb="15">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="45" eb="50">
+    <rPh sb="48" eb="53">
       <t>ソウテイコウゲキシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>【7-2】がYesであった場合、
-AIシステムの仕様として想定するデータと類似のデータを、想定攻撃者が10,000個程度以上、何らかの手段で準備・入手できますか？</t>
+AIシステムの仕様として想定するデータと類似のデータセットを、想定攻撃者が10,000個程度以上、何らかの手段で準備・入手できますか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>推薦システム
+（利用者の操作ログを定期的に自動で訓練する場合）</t>
+    <rPh sb="0" eb="2">
+      <t>スイセン</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>テイキテキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AIシステムの仕様として想定される入力データと類似のデータセット（ほぼ同じ用途、ほぼ同じ種類・ジャンルのデータ。ラベルも含みます（想定攻撃者が正しいラベルを付与できる場合も含みます））を、想定攻撃者が1個以上、何らかの手段で準備・入手できますか？
+①類似データ1個とはAIが処理する最小単位のデータの集まりです。テーブルデータなら1行、画像なら1枚です。
+</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="65" eb="70">
+      <t>ソウテイコウゲキシャ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ルイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yesの例）推薦システム
+　　想定攻撃者：システムの利用者
+　　利用者の操作によって訓練処理が実行される推薦システムの場合</t>
+    <rPh sb="26" eb="29">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>スイセン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yesの例）推薦システム
+　　想定攻撃者：システムの利用者
+　　利用者の操作ログを定期的に自動で訓練する推薦システムの場合</t>
+    <rPh sb="26" eb="29">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>スイセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>推薦システム
+（利用者の操作によって訓練処理が実行されるとき）</t>
+    <rPh sb="0" eb="2">
+      <t>スイセン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>クンレン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用者は操作を行うことで随時自分の意思で訓練を行えるのでYes</t>
+    <rPh sb="0" eb="3">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ズイジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イシ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オコナ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6727,6 +6810,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6745,9 +6831,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6757,8 +6840,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -6766,29 +6867,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6808,17 +6891,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6842,7 +6925,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="154">
+  <dxfs count="155">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7340,6 +7423,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -28467,9 +28557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D867B39-5CFD-4744-A275-60A730B12AF4}">
   <dimension ref="B2:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -28699,28 +28787,28 @@
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G1" t="s">
+        <v>394</v>
+      </c>
+      <c r="H1" t="s">
         <v>395</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>396</v>
-      </c>
-      <c r="D1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E1" t="s">
-        <v>398</v>
-      </c>
-      <c r="F1" t="s">
-        <v>399</v>
-      </c>
-      <c r="G1" t="s">
-        <v>400</v>
-      </c>
-      <c r="H1" t="s">
-        <v>401</v>
-      </c>
-      <c r="I1" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.4">
@@ -28759,10 +28847,10 @@
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.4">
       <c r="O3" s="14" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
@@ -28774,7 +28862,7 @@
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F4" s="132" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="G4" s="132"/>
       <c r="H4" s="132" t="str">
@@ -28783,10 +28871,10 @@
       </c>
       <c r="I4" s="1"/>
       <c r="O4" s="15" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="S4" s="7"/>
       <c r="T4" s="15" t="str">
@@ -28800,10 +28888,10 @@
       <c r="H5" s="132"/>
       <c r="I5" s="1"/>
       <c r="O5" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="S5" s="7"/>
       <c r="T5" s="15" t="str">
@@ -28816,10 +28904,10 @@
       <c r="G6" s="6"/>
       <c r="H6" s="5"/>
       <c r="O6" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="S6" s="7"/>
       <c r="T6" s="15" t="str">
@@ -28832,10 +28920,10 @@
       <c r="G7" s="19"/>
       <c r="H7" s="20"/>
       <c r="O7" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="S7" s="7"/>
       <c r="T7" s="15" t="str">
@@ -28847,10 +28935,10 @@
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
       <c r="O8" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="S8" s="7"/>
       <c r="T8" s="15" t="str">
@@ -28865,10 +28953,10 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
       <c r="O9" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="S9" s="7"/>
       <c r="T9" s="15" t="str">
@@ -28889,10 +28977,10 @@
       <c r="K10" s="4"/>
       <c r="L10" s="8"/>
       <c r="O10" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="S10" s="7"/>
       <c r="T10" s="15" t="str">
@@ -28910,10 +28998,10 @@
       <c r="K11" s="7"/>
       <c r="L11" s="8"/>
       <c r="O11" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="S11" s="7"/>
       <c r="T11" s="15" t="str">
@@ -28923,38 +29011,38 @@
     </row>
     <row r="12" spans="2:20" ht="131.25" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C12" s="3" t="str">
         <f>T6</f>
         <v>FALSE</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>T8</f>
         <v>FALSE</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="I12" s="3" t="str">
         <f>T10</f>
         <v>FALSE</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="L12" s="3" t="str">
         <f>IF(OR(G18="TRUE",J18="TRUE",M18="TRUE"),"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="S12" s="7"/>
       <c r="T12" s="15" t="str">
@@ -28966,10 +29054,10 @@
       <c r="K13" s="7"/>
       <c r="L13" s="8"/>
       <c r="O13" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="S13" s="7"/>
       <c r="T13" s="15" t="str">
@@ -28981,10 +29069,10 @@
       <c r="K14" s="7"/>
       <c r="L14" s="8"/>
       <c r="O14" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="S14" s="7"/>
       <c r="T14" s="15" t="str">
@@ -28996,10 +29084,10 @@
       <c r="K15" s="7"/>
       <c r="L15" s="8"/>
       <c r="O15" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="S15" s="7"/>
       <c r="T15" s="15" t="str">
@@ -29014,10 +29102,10 @@
       <c r="K16" s="11"/>
       <c r="L16" s="12"/>
       <c r="O16" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="S16" s="7"/>
       <c r="T16" s="15" t="str">
@@ -29035,10 +29123,10 @@
       <c r="L17" s="18"/>
       <c r="M17" s="12"/>
       <c r="O17" s="15" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="S17" s="7"/>
       <c r="T17" s="15" t="str">
@@ -29048,31 +29136,31 @@
     </row>
     <row r="18" spans="3:20" ht="37.5" x14ac:dyDescent="0.4">
       <c r="F18" s="2" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="G18" s="3" t="str">
         <f>T11</f>
         <v>FALSE</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="J18" s="3" t="str">
         <f>T14</f>
         <v>FALSE</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="M18" s="3" t="str">
         <f>T23</f>
         <v>FALSE</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="S18" s="7"/>
       <c r="T18" s="15" t="str">
@@ -29082,10 +29170,10 @@
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.4">
       <c r="O19" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="S19" s="7"/>
       <c r="T19" s="15" t="str">
@@ -29095,10 +29183,10 @@
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.4">
       <c r="O20" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="S20" s="7"/>
       <c r="T20" s="15" t="str">
@@ -29108,10 +29196,10 @@
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.4">
       <c r="O21" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="15" t="str">
@@ -29121,7 +29209,7 @@
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.4">
       <c r="F22" s="132" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G22" s="132"/>
       <c r="H22" s="132" t="str">
@@ -29130,10 +29218,10 @@
       </c>
       <c r="I22" s="1"/>
       <c r="O22" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="S22" s="7"/>
       <c r="T22" s="15" t="str">
@@ -29147,10 +29235,10 @@
       <c r="H23" s="132"/>
       <c r="I23" s="1"/>
       <c r="O23" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="S23" s="7"/>
       <c r="T23" s="15" t="str">
@@ -29163,10 +29251,10 @@
       <c r="G24" s="6"/>
       <c r="H24" s="5"/>
       <c r="O24" s="16" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
@@ -29204,21 +29292,21 @@
     </row>
     <row r="29" spans="3:20" ht="131.25" x14ac:dyDescent="0.4">
       <c r="C29" s="2" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D29" s="3" t="str">
         <f>T7</f>
         <v>FALSE</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="H29" s="3" t="str">
         <f>T9</f>
         <v>FALSE</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="L29" s="3" t="str">
         <f>IF(OR(J34="TRUE",M34="TRUE"),"TRUE","FALSE")</f>
@@ -29253,14 +29341,14 @@
       <c r="B34" s="1"/>
       <c r="E34" s="1"/>
       <c r="I34" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="J34" s="3" t="str">
         <f>T10</f>
         <v>FALSE</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="M34" s="3" t="str">
         <f>T12</f>
@@ -29269,7 +29357,7 @@
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.4">
       <c r="F38" s="132" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="G38" s="132"/>
       <c r="H38" s="132" t="str">
@@ -29330,28 +29418,28 @@
     </row>
     <row r="46" spans="2:13" ht="131.25" x14ac:dyDescent="0.4">
       <c r="B46" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C46" s="3" t="str">
         <f>T4</f>
         <v>FALSE</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F46" s="3" t="str">
         <f>T9</f>
         <v>FALSE</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="I46" s="3" t="str">
         <f>IF('Ⅳ. 総合判定結果'!E4="攻撃可能","TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="L46" s="3" t="str">
         <f>IF(OR(J52="TRUE",M52="TRUE"),"TRUE","FALSE")</f>
@@ -29383,14 +29471,14 @@
     </row>
     <row r="52" spans="2:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="I52" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="J52" s="3" t="str">
         <f>T10</f>
         <v>FALSE</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="M52" s="3" t="str">
         <f>T12</f>
@@ -29399,7 +29487,7 @@
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.4">
       <c r="F56" s="132" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G56" s="132"/>
       <c r="H56" s="132" t="str">
@@ -29460,28 +29548,28 @@
     </row>
     <row r="64" spans="2:13" ht="131.25" x14ac:dyDescent="0.4">
       <c r="B64" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C64" s="3" t="str">
         <f>T4</f>
         <v>FALSE</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F64" s="3" t="str">
         <f>T8</f>
         <v>FALSE</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="I64" s="3" t="str">
         <f>T16</f>
         <v>FALSE</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="L64" s="3" t="str">
         <f>IF(OR(J70="TRUE",M70="TRUE"),"TRUE","FALSE")</f>
@@ -29513,14 +29601,14 @@
     </row>
     <row r="70" spans="3:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="I70" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="J70" s="3" t="str">
         <f>T10</f>
         <v>FALSE</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="M70" s="3" t="str">
         <f>T12</f>
@@ -29529,7 +29617,7 @@
     </row>
     <row r="74" spans="3:13" x14ac:dyDescent="0.4">
       <c r="F74" s="132" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="G74" s="132"/>
       <c r="H74" s="132" t="str">
@@ -29577,21 +29665,21 @@
     </row>
     <row r="81" spans="2:15" ht="131.25" x14ac:dyDescent="0.4">
       <c r="C81" s="2" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D81" s="3" t="str">
         <f>T5</f>
         <v>FALSE</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="H81" s="3" t="str">
         <f>T9</f>
         <v>FALSE</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="L81" s="3" t="str">
         <f>IF(OR(J86="TRUE",M86="TRUE"),"TRUE","FALSE")</f>
@@ -29626,14 +29714,14 @@
       <c r="B86" s="1"/>
       <c r="E86" s="1"/>
       <c r="I86" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="J86" s="3" t="str">
         <f>T10</f>
         <v>FALSE</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="M86" s="3" t="str">
         <f>T12</f>
@@ -29642,7 +29730,7 @@
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.4">
       <c r="F90" s="132" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G90" s="132"/>
       <c r="H90" s="132" t="str">
@@ -29711,35 +29799,35 @@
     </row>
     <row r="98" spans="2:15" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B98" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C98" s="3" t="str">
         <f>T4</f>
         <v>FALSE</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F98" s="3" t="str">
         <f>T8</f>
         <v>FALSE</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="I98" s="3" t="str">
         <f>IF(OR(G103="TRUE",J103="TRUE"),"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="L98" s="3" t="str">
         <f>T19</f>
         <v>FALSE</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="O98" s="3" t="str">
         <f>T23</f>
@@ -29769,14 +29857,14 @@
     </row>
     <row r="103" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="F103" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G103" s="3" t="str">
         <f>T10</f>
         <v>FALSE</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="J103" s="3" t="str">
         <f>T12</f>
@@ -29785,7 +29873,7 @@
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.4">
       <c r="F107" s="132" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="G107" s="132"/>
       <c r="H107" s="132" t="str">
@@ -29854,35 +29942,35 @@
     </row>
     <row r="115" spans="2:15" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B115" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C115" s="3" t="str">
         <f>T4</f>
         <v>FALSE</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F115" s="3" t="str">
         <f>T8</f>
         <v>FALSE</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="I115" s="3" t="str">
         <f>IF(OR(G120="TRUE",J120="TRUE"),"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="L115" s="3" t="str">
         <f>T16</f>
         <v>FALSE</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="O115" s="3" t="str">
         <f>T19</f>
@@ -29912,14 +30000,14 @@
     </row>
     <row r="120" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="F120" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G120" s="3" t="str">
         <f>T10</f>
         <v>FALSE</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="J120" s="3" t="str">
         <f>T12</f>
@@ -29928,7 +30016,7 @@
     </row>
     <row r="124" spans="2:15" x14ac:dyDescent="0.4">
       <c r="F124" s="137" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G124" s="138"/>
       <c r="H124" s="141" t="str">
@@ -29952,7 +30040,7 @@
     </row>
     <row r="128" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="G128" s="2" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="H128" s="3" t="str">
         <f>T15</f>
@@ -29961,6 +30049,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="F22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="F38:G39"/>
+    <mergeCell ref="H38:H39"/>
     <mergeCell ref="F107:G108"/>
     <mergeCell ref="H107:H108"/>
     <mergeCell ref="F124:G125"/>
@@ -29971,12 +30065,6 @@
     <mergeCell ref="H74:H75"/>
     <mergeCell ref="F90:G91"/>
     <mergeCell ref="H90:H91"/>
-    <mergeCell ref="F4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="F22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="F38:G39"/>
-    <mergeCell ref="H38:H39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29989,9 +30077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD9C5DD-27D5-43CC-B03F-1770E07F8AF5}">
   <dimension ref="A2:J55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -30037,14 +30123,14 @@
         <v>42</v>
       </c>
       <c r="D4" s="77"/>
-      <c r="E4" s="112" t="s">
+      <c r="E4" s="106" t="s">
+        <v>499</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="106" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="108" t="str">
+      <c r="H4" s="109" t="str">
         <f>IF(OR(D4="Yes",D5="Yes"),"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
@@ -30052,41 +30138,43 @@
     </row>
     <row r="5" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="93" t="s">
-        <v>46</v>
-      </c>
       <c r="D5" s="77"/>
-      <c r="E5" s="112"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="108"/>
+      <c r="E5" s="106" t="s">
+        <v>500</v>
+      </c>
+      <c r="G5" s="108"/>
+      <c r="H5" s="109"/>
       <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="E6" s="37"/>
     </row>
-    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>48</v>
+        <v>494</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="166.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="93" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" s="77"/>
       <c r="E8" s="113" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H8" s="3" t="str">
         <f>IF(OR(D8="Yes",D14="Yes"),"TRUE","FALSE")</f>
@@ -30096,15 +30184,15 @@
     </row>
     <row r="9" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="93" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D9" s="77"/>
       <c r="E9" s="114"/>
       <c r="G9" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H9" s="3" t="str">
         <f>IF(OR(D9="Yes",D15="Yes"),"TRUE","FALSE")</f>
@@ -30114,15 +30202,15 @@
     </row>
     <row r="10" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" s="93" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D10" s="77"/>
       <c r="E10" s="114"/>
       <c r="G10" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H10" s="3" t="str">
         <f>IF(OR(D10="Yes",D16="Yes"),"TRUE","FALSE")</f>
@@ -30132,15 +30220,15 @@
     </row>
     <row r="11" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D11" s="78"/>
       <c r="E11" s="114"/>
       <c r="G11" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H11" s="3" t="str">
         <f>IF(OR(D11="Yes",D17="Yes"),"TRUE","FALSE")</f>
@@ -30151,7 +30239,7 @@
     <row r="12" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B12" s="36"/>
       <c r="C12" s="93" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="40"/>
@@ -30166,7 +30254,7 @@
       <c r="C13" s="43"/>
       <c r="D13" s="13"/>
       <c r="E13" s="44" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
@@ -30176,17 +30264,17 @@
     </row>
     <row r="14" spans="1:10" ht="137.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="46" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" s="92" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D14" s="76"/>
       <c r="E14" s="114" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H14" s="16" t="str">
         <f>IF(OR(D8="Yes",D14="Yes"),"TRUE","FALSE")</f>
@@ -30196,15 +30284,15 @@
     </row>
     <row r="15" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C15" s="93" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="D15" s="77"/>
       <c r="E15" s="114"/>
       <c r="G15" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H15" s="16" t="str">
         <f>IF(OR(D9="Yes",D15="Yes"),"TRUE","FALSE")</f>
@@ -30214,15 +30302,15 @@
     </row>
     <row r="16" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C16" s="93" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D16" s="77"/>
       <c r="E16" s="114"/>
       <c r="G16" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H16" s="3" t="str">
         <f>IF(OR(D10="Yes",D16="Yes"),"TRUE","FALSE")</f>
@@ -30232,15 +30320,15 @@
     </row>
     <row r="17" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C17" s="93" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D17" s="77"/>
       <c r="E17" s="115"/>
       <c r="G17" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H17" s="3" t="str">
         <f>IF(OR(D11="Yes",D17="Yes"),"TRUE","FALSE")</f>
@@ -30254,27 +30342,27 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="45"/>
     </row>
     <row r="20" spans="1:10" ht="225" x14ac:dyDescent="0.4">
       <c r="B20" s="36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C20" s="93" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D20" s="77"/>
       <c r="E20" s="94" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H20" s="3" t="str">
         <f>IF(OR(D20="Yes",D21="Yes"),"TRUE","FALSE")</f>
@@ -30284,17 +30372,17 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B21" s="36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C21" s="93" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D21" s="77"/>
       <c r="E21" s="94" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H21" s="3" t="str">
         <f>IF(OR(D21="Yes"),"TRUE","FALSE")</f>
@@ -30304,26 +30392,26 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="150" x14ac:dyDescent="0.4">
       <c r="B24" s="36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C24" s="93" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D24" s="77"/>
       <c r="E24" s="94" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" ref="H24:H30" si="0">IF(D24="Yes","TRUE","FALSE")</f>
@@ -30333,17 +30421,17 @@
     </row>
     <row r="25" spans="1:10" ht="131.25" x14ac:dyDescent="0.4">
       <c r="B25" s="36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C25" s="93" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="77"/>
       <c r="E25" s="94" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" si="0"/>
@@ -30353,17 +30441,17 @@
     </row>
     <row r="26" spans="1:10" ht="168.75" x14ac:dyDescent="0.4">
       <c r="B26" s="36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C26" s="93" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D26" s="77"/>
-      <c r="E26" s="109" t="s">
-        <v>436</v>
+      <c r="E26" s="110" t="s">
+        <v>430</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H26" s="3" t="str">
         <f t="shared" si="0"/>
@@ -30373,15 +30461,15 @@
     </row>
     <row r="27" spans="1:10" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B27" s="36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C27" s="93" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D27" s="77"/>
-      <c r="E27" s="110"/>
+      <c r="E27" s="111"/>
       <c r="G27" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H27" s="3" t="str">
         <f t="shared" si="0"/>
@@ -30391,15 +30479,15 @@
     </row>
     <row r="28" spans="1:10" ht="75" x14ac:dyDescent="0.4">
       <c r="B28" s="36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C28" s="93" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D28" s="77"/>
-      <c r="E28" s="111"/>
+      <c r="E28" s="112"/>
       <c r="G28" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H28" s="3" t="str">
         <f t="shared" si="0"/>
@@ -30409,17 +30497,17 @@
     </row>
     <row r="29" spans="1:10" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B29" s="36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C29" s="93" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D29" s="77"/>
       <c r="E29" s="94" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H29" s="3" t="str">
         <f t="shared" si="0"/>
@@ -30429,17 +30517,17 @@
     </row>
     <row r="30" spans="1:10" ht="75" x14ac:dyDescent="0.4">
       <c r="B30" s="36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C30" s="93" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D30" s="77"/>
       <c r="E30" s="94" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H30" s="3" t="str">
         <f t="shared" si="0"/>
@@ -30449,26 +30537,26 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:10" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B33" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C33" s="93" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="D33" s="77"/>
       <c r="E33" s="94" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H33" s="3" t="str">
         <f>IF(D33="Yes","TRUE","FALSE")</f>
@@ -30478,26 +30566,26 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:10" ht="112.5" x14ac:dyDescent="0.4">
       <c r="B36" s="36" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C36" s="93" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D36" s="77"/>
       <c r="E36" s="94" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H36" s="3" t="str">
         <f>IF(D36="Yes","TRUE","FALSE")</f>
@@ -30507,17 +30595,17 @@
     </row>
     <row r="37" spans="1:10" ht="112.5" x14ac:dyDescent="0.4">
       <c r="B37" s="36" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C37" s="93" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D37" s="77"/>
       <c r="E37" s="94" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H37" s="3" t="str">
         <f>IF(D37="Yes","TRUE","FALSE")</f>
@@ -30527,17 +30615,17 @@
     </row>
     <row r="38" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B38" s="36" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C38" s="93" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D38" s="77"/>
       <c r="E38" s="94" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H38" s="3" t="str">
         <f>IF(D38="Yes","TRUE","FALSE")</f>
@@ -30547,26 +30635,26 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" ht="131.25" x14ac:dyDescent="0.4">
+      <c r="B41" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="47" t="s">
+      <c r="C41" s="93" t="s">
+        <v>498</v>
+      </c>
+      <c r="D41" s="77"/>
+      <c r="E41" s="110" t="s">
+        <v>484</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" ht="112.5" x14ac:dyDescent="0.4">
-      <c r="B41" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="D41" s="77"/>
-      <c r="E41" s="109" t="s">
-        <v>490</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="H41" s="3" t="str">
         <f>IF(D41="Yes","TRUE","FALSE")</f>
@@ -30576,15 +30664,15 @@
     </row>
     <row r="42" spans="1:10" ht="75" x14ac:dyDescent="0.4">
       <c r="B42" s="36" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C42" s="93" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D42" s="77"/>
-      <c r="E42" s="110"/>
+      <c r="E42" s="111"/>
       <c r="G42" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H42" s="3" t="str">
         <f>IF(D42="Yes","TRUE","FALSE")</f>
@@ -30594,15 +30682,15 @@
     </row>
     <row r="43" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B43" s="36" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C43" s="93" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D43" s="77"/>
-      <c r="E43" s="111"/>
+      <c r="E43" s="112"/>
       <c r="G43" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H43" s="3" t="str">
         <f>IF(D43="Yes","TRUE","FALSE")</f>
@@ -30612,26 +30700,26 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:10" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B46" s="36" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C46" s="93" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D46" s="77"/>
       <c r="E46" s="94" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H46" s="3" t="str">
         <f>IF(D46="Yes","TRUE","FALSE")</f>
@@ -30641,21 +30729,20 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="E41:E43"/>
     <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E4:E5"/>
     <mergeCell ref="E8:E11"/>
     <mergeCell ref="E14:E17"/>
   </mergeCells>
@@ -30674,9 +30761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79664C2F-71DD-4439-8626-8322FEA45395}">
   <dimension ref="A2:G62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -30696,7 +30781,7 @@
         <v>36</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
@@ -30707,56 +30792,56 @@
         <v>39</v>
       </c>
       <c r="D3" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="54" t="s">
-        <v>126</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="G3" s="55" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="56" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>129</v>
+        <v>501</v>
       </c>
       <c r="D4" s="102" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="E4" s="102" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="F4" s="102" t="s">
-        <v>130</v>
+        <v>502</v>
       </c>
       <c r="G4" s="102" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="38.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B5" s="96" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="95" t="s">
-        <v>131</v>
+        <v>497</v>
       </c>
       <c r="D5" s="99" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E5" s="99" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F5" s="99" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G5" s="99" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -30767,109 +30852,109 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="60"/>
     </row>
     <row r="8" spans="1:7" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="119" t="s">
-        <v>135</v>
+      <c r="B8" s="116" t="s">
+        <v>129</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D8" s="102" t="s">
+        <v>434</v>
+      </c>
+      <c r="E8" s="102" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="102" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="102" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="121"/>
+      <c r="C9" s="98" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>436</v>
+      </c>
+      <c r="E9" s="67" t="s">
+        <v>437</v>
+      </c>
+      <c r="F9" s="67" t="s">
+        <v>437</v>
+      </c>
+      <c r="G9" s="67" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="122"/>
+      <c r="C10" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>438</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>439</v>
+      </c>
+      <c r="F10" s="62" t="s">
         <v>440</v>
       </c>
-      <c r="E8" s="102" t="s">
-        <v>137</v>
-      </c>
-      <c r="F8" s="102" t="s">
-        <v>137</v>
-      </c>
-      <c r="G8" s="102" t="s">
+      <c r="G10" s="62" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="120"/>
-      <c r="C9" s="98" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="67" t="s">
+    <row r="11" spans="1:7" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="122"/>
+      <c r="C11" s="97" t="s">
         <v>442</v>
       </c>
-      <c r="E9" s="67" t="s">
+      <c r="D11" s="62" t="s">
+        <v>438</v>
+      </c>
+      <c r="E11" s="100" t="s">
         <v>443</v>
       </c>
-      <c r="F9" s="67" t="s">
-        <v>443</v>
-      </c>
-      <c r="G9" s="67" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="121"/>
-      <c r="C10" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" s="62" t="s">
+      <c r="F11" s="100" t="s">
         <v>444</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="G11" s="62" t="s">
         <v>445</v>
       </c>
-      <c r="F10" s="62" t="s">
-        <v>446</v>
-      </c>
-      <c r="G10" s="62" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121"/>
-      <c r="C11" s="97" t="s">
-        <v>448</v>
-      </c>
-      <c r="D11" s="62" t="s">
-        <v>444</v>
-      </c>
-      <c r="E11" s="100" t="s">
-        <v>449</v>
-      </c>
-      <c r="F11" s="100" t="s">
-        <v>450</v>
-      </c>
-      <c r="G11" s="62" t="s">
-        <v>451</v>
-      </c>
     </row>
     <row r="12" spans="1:7" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="121"/>
-      <c r="C12" s="123" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12" s="118" t="s">
-        <v>444</v>
-      </c>
-      <c r="E12" s="116" t="s">
-        <v>140</v>
-      </c>
-      <c r="F12" s="116" t="s">
-        <v>140</v>
-      </c>
-      <c r="G12" s="118" t="s">
-        <v>441</v>
+      <c r="B12" s="122"/>
+      <c r="C12" s="125" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="124" t="s">
+        <v>438</v>
+      </c>
+      <c r="E12" s="118" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="118" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="124" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="122"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B14" s="63"/>
@@ -30884,103 +30969,103 @@
       <c r="E15" s="65"/>
     </row>
     <row r="16" spans="1:7" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="119" t="s">
-        <v>141</v>
+      <c r="B16" s="116" t="s">
+        <v>135</v>
       </c>
       <c r="C16" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="104" t="s">
+        <v>446</v>
+      </c>
+      <c r="E16" s="104" t="s">
+        <v>447</v>
+      </c>
+      <c r="F16" s="104" t="s">
+        <v>448</v>
+      </c>
+      <c r="G16" s="104" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="121"/>
+      <c r="C17" s="125" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="118" t="s">
+        <v>446</v>
+      </c>
+      <c r="E17" s="118" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="118" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="118" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="122"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+    </row>
+    <row r="19" spans="1:7" ht="132.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="122"/>
+      <c r="C19" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="104" t="s">
+        <v>446</v>
+      </c>
+      <c r="E19" s="62" t="s">
+        <v>450</v>
+      </c>
+      <c r="F19" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="62" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="170.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="122"/>
+      <c r="C20" s="98" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="104" t="s">
+      <c r="D20" s="104" t="s">
         <v>452</v>
       </c>
-      <c r="E16" s="104" t="s">
+      <c r="E20" s="67" t="s">
         <v>453</v>
       </c>
-      <c r="F16" s="104" t="s">
+      <c r="F20" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="67" t="s">
         <v>454</v>
       </c>
-      <c r="G16" s="104" t="s">
+    </row>
+    <row r="21" spans="1:7" ht="75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="117"/>
+      <c r="C21" s="95" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="120"/>
-      <c r="C17" s="123" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17" s="116" t="s">
-        <v>452</v>
-      </c>
-      <c r="E17" s="116" t="s">
-        <v>145</v>
-      </c>
-      <c r="F17" s="116" t="s">
-        <v>145</v>
-      </c>
-      <c r="G17" s="116" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="121"/>
-      <c r="C18" s="124"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-    </row>
-    <row r="19" spans="1:7" ht="132.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="121"/>
-      <c r="C19" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="D19" s="104" t="s">
-        <v>452</v>
-      </c>
-      <c r="E19" s="62" t="s">
+      <c r="D21" s="105" t="s">
+        <v>446</v>
+      </c>
+      <c r="E21" s="103" t="s">
         <v>456</v>
       </c>
-      <c r="F19" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="G19" s="62" t="s">
+      <c r="F21" s="103" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="170.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="121"/>
-      <c r="C20" s="98" t="s">
-        <v>142</v>
-      </c>
-      <c r="D20" s="104" t="s">
+      <c r="G21" s="103" t="s">
         <v>458</v>
-      </c>
-      <c r="E20" s="67" t="s">
-        <v>459</v>
-      </c>
-      <c r="F20" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="G20" s="67" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="122"/>
-      <c r="C21" s="95" t="s">
-        <v>461</v>
-      </c>
-      <c r="D21" s="105" t="s">
-        <v>452</v>
-      </c>
-      <c r="E21" s="103" t="s">
-        <v>462</v>
-      </c>
-      <c r="F21" s="103" t="s">
-        <v>463</v>
-      </c>
-      <c r="G21" s="103" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
@@ -30988,68 +31073,68 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C23" s="44"/>
       <c r="D23" s="43"/>
       <c r="E23" s="65"/>
     </row>
     <row r="24" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="126" t="s">
-        <v>66</v>
+      <c r="B24" s="120" t="s">
+        <v>64</v>
       </c>
       <c r="C24" s="57" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D24" s="102" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="E24" s="102" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F24" s="102" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G24" s="104" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="122"/>
+      <c r="B25" s="117"/>
       <c r="C25" s="61" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D25" s="62" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="E25" s="62" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F25" s="62" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G25" s="62" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B26" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="95" t="s">
-        <v>71</v>
-      </c>
       <c r="D26" s="99" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E26" s="99" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F26" s="99" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G26" s="99" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
@@ -31057,169 +31142,169 @@
     </row>
     <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D28" s="65" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E28" s="65"/>
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="126" t="s">
-        <v>75</v>
+      <c r="B29" s="120" t="s">
+        <v>73</v>
       </c>
       <c r="C29" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="102" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" s="102" t="s">
+        <v>149</v>
+      </c>
+      <c r="G29" s="102" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="117"/>
+      <c r="C30" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D29" s="102" t="s">
+      <c r="E30" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="F30" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="E29" s="102" t="s">
+      <c r="G30" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="F29" s="102" t="s">
+    </row>
+    <row r="31" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="120" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="G29" s="102" t="s">
+      <c r="D31" s="102" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="122"/>
-      <c r="C30" s="61" t="s">
+      <c r="E31" s="102" t="s">
+        <v>156</v>
+      </c>
+      <c r="F31" s="102" t="s">
+        <v>156</v>
+      </c>
+      <c r="G31" s="102" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="117"/>
+      <c r="C32" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="D30" s="62" t="s">
+      <c r="D32" s="102" t="s">
         <v>158</v>
       </c>
-      <c r="E30" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="F30" s="62" t="s">
+      <c r="E32" s="102" t="s">
+        <v>158</v>
+      </c>
+      <c r="F32" s="102" t="s">
+        <v>158</v>
+      </c>
+      <c r="G32" s="102" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="116" t="s">
         <v>159</v>
       </c>
-      <c r="G30" s="62" t="s">
+      <c r="C33" s="98" t="s">
+        <v>460</v>
+      </c>
+      <c r="D33" s="67" t="s">
+        <v>475</v>
+      </c>
+      <c r="E33" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="F33" s="67" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="126" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="57" t="s">
+      <c r="G33" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="D31" s="102" t="s">
+    </row>
+    <row r="34" spans="1:7" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="122"/>
+      <c r="C34" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="E31" s="102" t="s">
-        <v>162</v>
-      </c>
-      <c r="F31" s="102" t="s">
-        <v>162</v>
-      </c>
-      <c r="G31" s="102" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="122"/>
-      <c r="C32" s="57" t="s">
+      <c r="D34" s="62" t="s">
+        <v>476</v>
+      </c>
+      <c r="E34" s="62" t="s">
+        <v>477</v>
+      </c>
+      <c r="F34" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D32" s="102" t="s">
+      <c r="G34" s="69" t="s">
         <v>164</v>
-      </c>
-      <c r="E32" s="102" t="s">
-        <v>164</v>
-      </c>
-      <c r="F32" s="102" t="s">
-        <v>164</v>
-      </c>
-      <c r="G32" s="102" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="119" t="s">
-        <v>165</v>
-      </c>
-      <c r="C33" s="98" t="s">
-        <v>466</v>
-      </c>
-      <c r="D33" s="67" t="s">
-        <v>481</v>
-      </c>
-      <c r="E33" s="67" t="s">
-        <v>480</v>
-      </c>
-      <c r="F33" s="67" t="s">
-        <v>166</v>
-      </c>
-      <c r="G33" s="68" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="121"/>
-      <c r="C34" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="D34" s="62" t="s">
-        <v>482</v>
-      </c>
-      <c r="E34" s="62" t="s">
-        <v>483</v>
-      </c>
-      <c r="F34" s="62" t="s">
-        <v>169</v>
-      </c>
-      <c r="G34" s="69" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B35" s="66" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C35" s="95" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D35" s="103" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E35" s="103" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F35" s="103" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G35" s="103" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B36" s="66" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C36" s="95" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D36" s="103" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E36" s="103" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F36" s="103" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G36" s="103" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
@@ -31227,7 +31312,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C38" s="37"/>
       <c r="D38" s="43"/>
@@ -31235,22 +31320,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B39" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C39" s="70" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D39" s="71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E39" s="71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F39" s="71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G39" s="71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
@@ -31259,106 +31344,106 @@
     </row>
     <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C41" s="37"/>
       <c r="D41" s="43"/>
       <c r="E41" s="65"/>
     </row>
     <row r="42" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="126" t="s">
-        <v>99</v>
+      <c r="B42" s="120" t="s">
+        <v>97</v>
       </c>
       <c r="C42" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" s="102" t="s">
+        <v>471</v>
+      </c>
+      <c r="E42" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="F42" s="102" t="s">
+        <v>169</v>
+      </c>
+      <c r="G42" s="102" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="117"/>
+      <c r="C43" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="D43" s="62" t="s">
+        <v>472</v>
+      </c>
+      <c r="E43" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="F43" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="G43" s="62" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="120" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="D42" s="102" t="s">
-        <v>477</v>
-      </c>
-      <c r="E42" s="102" t="s">
+      <c r="D44" s="102" t="s">
+        <v>473</v>
+      </c>
+      <c r="E44" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="F44" s="102" t="s">
         <v>174</v>
       </c>
-      <c r="F42" s="102" t="s">
+      <c r="G44" s="102" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="117"/>
+      <c r="C45" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="D45" s="62" t="s">
+        <v>472</v>
+      </c>
+      <c r="E45" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="G42" s="102" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="122"/>
-      <c r="C43" s="61" t="s">
-        <v>176</v>
-      </c>
-      <c r="D43" s="62" t="s">
-        <v>478</v>
-      </c>
-      <c r="E43" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="F43" s="62" t="s">
-        <v>178</v>
-      </c>
-      <c r="G43" s="62" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="126" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="57" t="s">
-        <v>179</v>
-      </c>
-      <c r="D44" s="102" t="s">
-        <v>479</v>
-      </c>
-      <c r="E44" s="102" t="s">
-        <v>174</v>
-      </c>
-      <c r="F44" s="102" t="s">
-        <v>180</v>
-      </c>
-      <c r="G44" s="102" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="122"/>
-      <c r="C45" s="61" t="s">
-        <v>176</v>
-      </c>
-      <c r="D45" s="62" t="s">
-        <v>478</v>
-      </c>
-      <c r="E45" s="62" t="s">
-        <v>181</v>
-      </c>
       <c r="F45" s="62" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G45" s="62" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B46" s="66" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C46" s="95" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D46" s="99" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E46" s="99" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F46" s="99" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G46" s="99" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
@@ -31366,7 +31451,7 @@
     </row>
     <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C48" s="37"/>
       <c r="D48" s="43"/>
@@ -31374,41 +31459,41 @@
       <c r="G48" s="60"/>
     </row>
     <row r="49" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="119" t="s">
-        <v>183</v>
+      <c r="B49" s="116" t="s">
+        <v>177</v>
       </c>
       <c r="C49" s="57" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D49" s="102" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="E49" s="102" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F49" s="102" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="G49" s="102" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="38.25" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="122"/>
+      <c r="B50" s="117"/>
       <c r="C50" s="95" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D50" s="72" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="E50" s="99" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F50" s="99" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="G50" s="99" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
@@ -31416,7 +31501,7 @@
     </row>
     <row r="52" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C52" s="37"/>
       <c r="D52" s="43"/>
@@ -31424,27 +31509,27 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B53" s="66" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C53" s="70" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D53" s="101" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E53" s="101" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F53" s="101" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G53" s="101" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B61" s="53"/>
       <c r="C61" s="49"/>
@@ -31455,7 +31540,7 @@
     </row>
     <row r="62" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B62" s="53"/>
       <c r="C62" s="49"/>
@@ -31466,6 +31551,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:E18"/>
@@ -31478,13 +31570,6 @@
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="B44:B45"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31496,9 +31581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F475A5F5-D44D-4B5E-A814-9E5FAFFD7429}">
   <dimension ref="B1:AM64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -31515,41 +31598,41 @@
     <row r="1" spans="2:39" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:39" ht="24" x14ac:dyDescent="0.4">
       <c r="B2" s="84" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C2" s="127" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D2" s="128"/>
       <c r="E2" s="129" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F2" s="130"/>
       <c r="G2" s="131"/>
     </row>
     <row r="3" spans="2:39" ht="96" x14ac:dyDescent="0.4">
       <c r="B3" s="85" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C3" s="89" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D3" s="89" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E3" s="90" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F3" s="90" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G3" s="91" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="2:39" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="86" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C4" s="87" t="str">
         <f>H9</f>
@@ -31576,81 +31659,81 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="R6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T6" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="U6" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="X6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="Y6" s="3" t="s">
+      <c r="Z6" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="AA6" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AA6" s="3" t="s">
+      <c r="AB6" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AB6" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="AC6" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AI6" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AJ6" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AL6" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AM6" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="2:39" x14ac:dyDescent="0.4">
       <c r="N7" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="O7" s="3" t="str">
         <f>'回避攻撃（敵対的サンプル）'!B2</f>
@@ -31698,7 +31781,7 @@
     </row>
     <row r="8" spans="2:39" x14ac:dyDescent="0.4">
       <c r="N8" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="O8" s="3" t="str">
         <f>'回避攻撃（敵対的サンプル）'!C2</f>
@@ -31728,11 +31811,11 @@
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
-      <c r="AE8" s="3" t="str">
-        <f>'回避攻撃（敵対的サンプル）'!T18</f>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3" t="str">
+        <f>'回避攻撃（敵対的サンプル）'!T19</f>
         <v>FALSE</v>
       </c>
-      <c r="AF8" s="3"/>
       <c r="AG8" s="3" t="str">
         <f>'回避攻撃（敵対的サンプル）'!T20</f>
         <v>FALSE</v>
@@ -31748,7 +31831,7 @@
     </row>
     <row r="9" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F9" s="132" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G9" s="132"/>
       <c r="H9" s="132" t="str">
@@ -31757,7 +31840,7 @@
       </c>
       <c r="I9" s="1"/>
       <c r="N9" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="O9" s="3" t="str">
         <f>'回避攻撃（敵対的サンプル）'!D2</f>
@@ -31803,7 +31886,7 @@
       <c r="H10" s="132"/>
       <c r="I10" s="1"/>
       <c r="N10" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="O10" s="3" t="str">
         <f>'回避攻撃（敵対的サンプル）'!E2</f>
@@ -31882,7 +31965,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="N12" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="O12" s="3" t="str">
         <f>ポイズニング攻撃!B2</f>
@@ -31933,7 +32016,7 @@
     </row>
     <row r="13" spans="2:39" x14ac:dyDescent="0.4">
       <c r="N13" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="O13" s="3" t="str">
         <f>ポイズニング攻撃!C2</f>
@@ -31971,7 +32054,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
       <c r="N14" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="O14" s="3" t="str">
         <f>ポイズニング攻撃!D2</f>
@@ -32066,7 +32149,7 @@
       <c r="K16" s="11"/>
       <c r="L16" s="12"/>
       <c r="N16" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="O16" s="3" t="str">
         <f>モデル抽出攻撃!B2</f>
@@ -32108,35 +32191,35 @@
     </row>
     <row r="17" spans="2:39" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C17" s="3" t="str">
         <f>'回避攻撃（敵対的サンプル）'!B2</f>
         <v>攻撃困難</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F17" s="3" t="str">
         <f>'回避攻撃（敵対的サンプル）'!C2</f>
         <v>攻撃困難</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="I17" s="3" t="str">
         <f>'回避攻撃（敵対的サンプル）'!D2</f>
         <v>攻撃困難</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="L17" s="3" t="str">
         <f>'回避攻撃（敵対的サンプル）'!E2</f>
         <v>攻撃困難</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="O17" s="3" t="str">
         <f>モデル抽出攻撃!C2</f>
@@ -32178,7 +32261,7 @@
     </row>
     <row r="18" spans="2:39" x14ac:dyDescent="0.4">
       <c r="N18" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="O18" s="3" t="str">
         <f>モデル抽出攻撃!D2</f>
@@ -32226,7 +32309,7 @@
     </row>
     <row r="19" spans="2:39" x14ac:dyDescent="0.4">
       <c r="N19" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="O19" s="3" t="str">
         <f>モデル抽出攻撃!E2</f>
@@ -32271,7 +32354,7 @@
     </row>
     <row r="20" spans="2:39" x14ac:dyDescent="0.4">
       <c r="F20" s="132" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G20" s="132"/>
       <c r="H20" s="132" t="str">
@@ -32280,7 +32363,7 @@
       </c>
       <c r="I20" s="1"/>
       <c r="N20" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="O20" s="3" t="str">
         <f>モデル抽出攻撃!F2</f>
@@ -32329,7 +32412,7 @@
       <c r="H21" s="132"/>
       <c r="I21" s="1"/>
       <c r="N21" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="O21" s="3" t="str">
         <f>モデル抽出攻撃!G2</f>
@@ -32399,7 +32482,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="N23" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="O23" s="3" t="str">
         <f>モデルインバージョン攻撃!B2</f>
@@ -32477,7 +32560,7 @@
       <c r="G25" s="7"/>
       <c r="H25" s="8"/>
       <c r="N25" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="O25" s="3" t="str">
         <f>メンバシップ推測攻撃!B2</f>
@@ -32536,7 +32619,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="8"/>
       <c r="N26" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="O26" s="3" t="str">
         <f>メンバシップ推測攻撃!C2</f>
@@ -32587,7 +32670,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="12"/>
       <c r="N27" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="O27" s="3" t="str">
         <f>メンバシップ推測攻撃!D2</f>
@@ -32635,21 +32718,21 @@
     </row>
     <row r="28" spans="2:39" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B28" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C28" s="3" t="str">
         <f>ポイズニング攻撃!B2</f>
         <v>攻撃困難</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F28" s="3" t="str">
         <f>ポイズニング攻撃!C2</f>
         <v>攻撃困難</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I28" s="3" t="str">
         <f>ポイズニング攻撃!D2</f>
@@ -32657,7 +32740,7 @@
       </c>
       <c r="K28" s="1"/>
       <c r="N28" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="O28" s="3" t="str">
         <f>メンバシップ推測攻撃!E2</f>
@@ -32705,7 +32788,7 @@
     </row>
     <row r="29" spans="2:39" x14ac:dyDescent="0.4">
       <c r="N29" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="O29" s="3" t="str">
         <f>メンバシップ推測攻撃!F2</f>
@@ -32750,7 +32833,7 @@
     </row>
     <row r="30" spans="2:39" x14ac:dyDescent="0.4">
       <c r="N30" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="O30" s="3" t="str">
         <f>メンバシップ推測攻撃!G2</f>
@@ -32801,7 +32884,7 @@
     </row>
     <row r="31" spans="2:39" x14ac:dyDescent="0.4">
       <c r="F31" s="132" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G31" s="132"/>
       <c r="H31" s="132" t="str">
@@ -32810,7 +32893,7 @@
       </c>
       <c r="I31" s="1"/>
       <c r="N31" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="O31" s="3" t="str">
         <f>メンバシップ推測攻撃!H2</f>
@@ -32865,7 +32948,7 @@
       <c r="H32" s="132"/>
       <c r="I32" s="1"/>
       <c r="N32" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="O32" s="3" t="str">
         <f>メンバシップ推測攻撃!I2</f>
@@ -32906,76 +32989,76 @@
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="R33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S33" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="S33" s="3" t="s">
+      <c r="T33" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="U33" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="X33" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y33" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="Y33" s="3" t="s">
+      <c r="Z33" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="Z33" s="3" t="s">
+      <c r="AA33" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AA33" s="3" t="s">
+      <c r="AB33" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AB33" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="AC33" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AD33" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AE33" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AF33" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AG33" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AH33" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AI33" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AJ33" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AK33" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AL33" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AM33" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="2:39" x14ac:dyDescent="0.4">
@@ -33027,42 +33110,42 @@
     </row>
     <row r="39" spans="2:39" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B39" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C39" s="3" t="str">
         <f>モデル抽出攻撃!B2</f>
         <v>攻撃困難</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F39" s="3" t="str">
         <f>モデル抽出攻撃!C2</f>
         <v>攻撃困難</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="I39" s="3" t="str">
         <f>モデル抽出攻撃!D2</f>
         <v>攻撃困難</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L39" s="3" t="str">
         <f>モデル抽出攻撃!E2</f>
         <v>攻撃困難</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="O39" s="3" t="str">
         <f>モデル抽出攻撃!F2</f>
         <v>攻撃困難</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="R39" s="3" t="str">
         <f>モデル抽出攻撃!G2</f>
@@ -33071,7 +33154,7 @@
     </row>
     <row r="42" spans="2:39" x14ac:dyDescent="0.4">
       <c r="F42" s="132" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G42" s="132"/>
       <c r="H42" s="132" t="str">
@@ -33086,10 +33169,10 @@
       <c r="H43" s="132"/>
       <c r="I43" s="1"/>
       <c r="Z43" s="14" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="AA43" s="10" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="AB43" s="9"/>
       <c r="AC43" s="9"/>
@@ -33104,10 +33187,10 @@
       <c r="G44" s="6"/>
       <c r="H44" s="5"/>
       <c r="Z44" s="15" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AA44" s="8" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="AD44" s="7"/>
       <c r="AE44" s="15" t="str">
@@ -33120,10 +33203,10 @@
       <c r="G45" s="19"/>
       <c r="H45" s="20"/>
       <c r="Z45" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AA45" s="8" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="AD45" s="7"/>
       <c r="AE45" s="15" t="str">
@@ -33135,10 +33218,10 @@
       <c r="G46" s="7"/>
       <c r="H46" s="8"/>
       <c r="Z46" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AA46" s="8" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="AD46" s="7"/>
       <c r="AE46" s="15" t="str">
@@ -33150,10 +33233,10 @@
       <c r="G47" s="7"/>
       <c r="H47" s="8"/>
       <c r="Z47" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AA47" s="8" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AD47" s="7"/>
       <c r="AE47" s="15" t="str">
@@ -33165,10 +33248,10 @@
       <c r="G48" s="7"/>
       <c r="H48" s="8"/>
       <c r="Z48" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AA48" s="8" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="AD48" s="7"/>
       <c r="AE48" s="15" t="str">
@@ -33180,10 +33263,10 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
       <c r="Z49" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AA49" s="8" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AD49" s="7"/>
       <c r="AE49" s="15" t="str">
@@ -33194,17 +33277,17 @@
     <row r="50" spans="2:31" ht="56.25" x14ac:dyDescent="0.4">
       <c r="E50" s="1"/>
       <c r="G50" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H50" s="3" t="str">
         <f>モデルインバージョン攻撃!B2</f>
         <v>攻撃困難</v>
       </c>
       <c r="Z50" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AA50" s="8" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AD50" s="7"/>
       <c r="AE50" s="15" t="str">
@@ -33214,10 +33297,10 @@
     </row>
     <row r="51" spans="2:31" x14ac:dyDescent="0.4">
       <c r="Z51" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AA51" s="8" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="AD51" s="7"/>
       <c r="AE51" s="15" t="str">
@@ -33227,10 +33310,10 @@
     </row>
     <row r="52" spans="2:31" x14ac:dyDescent="0.4">
       <c r="Z52" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AA52" s="8" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="AD52" s="7"/>
       <c r="AE52" s="15" t="str">
@@ -33240,7 +33323,7 @@
     </row>
     <row r="53" spans="2:31" x14ac:dyDescent="0.4">
       <c r="F53" s="132" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G53" s="132"/>
       <c r="H53" s="132" t="str">
@@ -33249,10 +33332,10 @@
       </c>
       <c r="I53" s="1"/>
       <c r="Z53" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AA53" s="8" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="AD53" s="7"/>
       <c r="AE53" s="15" t="str">
@@ -33266,10 +33349,10 @@
       <c r="H54" s="132"/>
       <c r="I54" s="1"/>
       <c r="Z54" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA54" s="8" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="AD54" s="7"/>
       <c r="AE54" s="15" t="str">
@@ -33282,10 +33365,10 @@
       <c r="G55" s="6"/>
       <c r="H55" s="5"/>
       <c r="Z55" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA55" s="8" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="AD55" s="7"/>
       <c r="AE55" s="15" t="str">
@@ -33298,10 +33381,10 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="Z56" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA56" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AD56" s="7"/>
       <c r="AE56" s="15" t="str">
@@ -33311,10 +33394,10 @@
     </row>
     <row r="57" spans="2:31" x14ac:dyDescent="0.4">
       <c r="Z57" s="15" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AA57" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AD57" s="7"/>
       <c r="AE57" s="15" t="str">
@@ -33337,10 +33420,10 @@
       <c r="V58" s="13"/>
       <c r="W58" s="13"/>
       <c r="Z58" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AA58" s="8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AD58" s="7"/>
       <c r="AE58" s="15" t="str">
@@ -33373,10 +33456,10 @@
       <c r="W59" s="4"/>
       <c r="X59" s="8"/>
       <c r="Z59" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AA59" s="8" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AD59" s="7"/>
       <c r="AE59" s="15" t="str">
@@ -33402,10 +33485,10 @@
       <c r="W60" s="11"/>
       <c r="X60" s="12"/>
       <c r="Z60" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AA60" s="8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AD60" s="7"/>
       <c r="AE60" s="15" t="str">
@@ -33415,66 +33498,66 @@
     </row>
     <row r="61" spans="2:31" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B61" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C61" s="3" t="str">
         <f>メンバシップ推測攻撃!B2</f>
         <v>攻撃困難</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F61" s="3" t="str">
         <f>メンバシップ推測攻撃!C2</f>
         <v>攻撃困難</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="I61" s="3" t="str">
         <f>メンバシップ推測攻撃!D2</f>
         <v>攻撃困難</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="L61" s="3" t="str">
         <f>メンバシップ推測攻撃!E2</f>
         <v>攻撃困難</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="O61" s="3" t="str">
         <f>メンバシップ推測攻撃!F2</f>
         <v>攻撃困難</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="R61" s="3" t="str">
         <f>メンバシップ推測攻撃!G2</f>
         <v>攻撃困難</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="U61" s="3" t="str">
         <f>メンバシップ推測攻撃!H2</f>
         <v>攻撃困難</v>
       </c>
       <c r="W61" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="X61" s="3" t="str">
         <f>メンバシップ推測攻撃!I2</f>
         <v>攻撃困難</v>
       </c>
       <c r="Z61" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AA61" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AD61" s="7"/>
       <c r="AE61" s="15" t="str">
@@ -33484,10 +33567,10 @@
     </row>
     <row r="62" spans="2:31" x14ac:dyDescent="0.4">
       <c r="Z62" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AA62" s="8" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AD62" s="7"/>
       <c r="AE62" s="15" t="str">
@@ -33497,10 +33580,10 @@
     </row>
     <row r="63" spans="2:31" x14ac:dyDescent="0.4">
       <c r="Z63" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AA63" s="8" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AD63" s="7"/>
       <c r="AE63" s="15" t="str">
@@ -33510,10 +33593,10 @@
     </row>
     <row r="64" spans="2:31" x14ac:dyDescent="0.4">
       <c r="Z64" s="16" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AA64" s="12" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AB64" s="13"/>
       <c r="AC64" s="13"/>
@@ -33540,511 +33623,516 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="P12">
-    <cfRule type="expression" dxfId="153" priority="450">
+    <cfRule type="expression" dxfId="154" priority="451">
       <formula>AND(P12="TRUE",OR(AND(R12="TRUE",U12="TRUE"),AG12="TRUE"),OR(Y12="TRUE",AH12="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12">
-    <cfRule type="expression" dxfId="152" priority="452">
+    <cfRule type="expression" dxfId="153" priority="453">
       <formula>AND(P12="TRUE",OR(AND(R12="TRUE",U12="TRUE"),AG12="TRUE"),OR(Y12="TRUE",AH12="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U16">
-    <cfRule type="expression" dxfId="151" priority="458">
+    <cfRule type="expression" dxfId="152" priority="459">
       <formula>AND(T16="TRUE",U16="TRUE",W16="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U17">
-    <cfRule type="expression" dxfId="150" priority="461">
+    <cfRule type="expression" dxfId="151" priority="462">
       <formula>AND(S17="TRUE",U17="TRUE",AB17="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18">
-    <cfRule type="expression" dxfId="149" priority="464">
+    <cfRule type="expression" dxfId="150" priority="465">
       <formula>AND(S18="TRUE",U18="TRUE",W18="TRUE",OR(Z18="TRUE",AI18="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U19">
-    <cfRule type="expression" dxfId="148" priority="468">
+    <cfRule type="expression" dxfId="149" priority="469">
       <formula>AND(R19="TRUE",U19="TRUE",W19="TRUE",AK19="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="expression" dxfId="147" priority="489">
+    <cfRule type="expression" dxfId="148" priority="490">
       <formula>AND(P14="TRUE",U14="TRUE",OR(Y14="TRUE",AH14="TRUE"),AL14="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U14">
-    <cfRule type="expression" dxfId="146" priority="490">
+    <cfRule type="expression" dxfId="147" priority="491">
       <formula>AND(P14="TRUE",U14="TRUE",OR(W14="TRUE",AC14="TRUE"),AG14="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U20">
-    <cfRule type="expression" dxfId="145" priority="311">
+    <cfRule type="expression" dxfId="146" priority="312">
       <formula>AND(T20="TRUE",U20="TRUE",W20="TRUE",AK20="FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17">
-    <cfRule type="expression" dxfId="144" priority="310">
+    <cfRule type="expression" dxfId="145" priority="311">
       <formula>AND(S17="TRUE",U17="TRUE",AB17="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16">
-    <cfRule type="expression" dxfId="143" priority="309">
+    <cfRule type="expression" dxfId="144" priority="310">
       <formula>AND(T16="TRUE",U16="TRUE",W16="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18">
-    <cfRule type="expression" dxfId="142" priority="308">
+    <cfRule type="expression" dxfId="143" priority="309">
       <formula>AND(S18="TRUE",U18="TRUE",W18="TRUE",OR(Z18="TRUE",AI18="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T20">
-    <cfRule type="expression" dxfId="141" priority="306">
+    <cfRule type="expression" dxfId="142" priority="307">
       <formula>AND(T20="TRUE",U20="TRUE",W20="TRUE",AK20="FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R23">
-    <cfRule type="expression" dxfId="140" priority="281">
+    <cfRule type="expression" dxfId="141" priority="282">
       <formula>AND(OR(AND(R23="TRUE",U23="TRUE"),AG23="TRUE"),OR(Z23="TRUE",AI23="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U23">
-    <cfRule type="expression" dxfId="139" priority="282">
+    <cfRule type="expression" dxfId="140" priority="283">
       <formula>AND(OR(AND(R23="TRUE",U23="TRUE"),AB23="TRUE"),OR(X23="TRUE",AD23="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG12">
+    <cfRule type="expression" dxfId="139" priority="103">
+      <formula>AND(P12="TRUE",OR(AND(R12="TRUE",U12="TRUE"),AG12="TRUE"),OR(Y12="TRUE",AH12="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y12">
     <cfRule type="expression" dxfId="138" priority="102">
       <formula>AND(P12="TRUE",OR(AND(R12="TRUE",U12="TRUE"),AG12="TRUE"),OR(Y12="TRUE",AH12="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y12">
+  <conditionalFormatting sqref="AH12">
     <cfRule type="expression" dxfId="137" priority="101">
       <formula>AND(P12="TRUE",OR(AND(R12="TRUE",U12="TRUE"),AG12="TRUE"),OR(Y12="TRUE",AH12="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH12">
+  <conditionalFormatting sqref="AD13">
     <cfRule type="expression" dxfId="136" priority="100">
-      <formula>AND(P12="TRUE",OR(AND(R12="TRUE",U12="TRUE"),AG12="TRUE"),OR(Y12="TRUE",AH12="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD13">
-    <cfRule type="expression" dxfId="135" priority="99">
       <formula>(AD13="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y14">
-    <cfRule type="expression" dxfId="134" priority="98">
+    <cfRule type="expression" dxfId="135" priority="99">
       <formula>AND(T14="TRUE",Y14="TRUE",OR(AA14="TRUE",AG14="TRUE"),AK14="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH14">
-    <cfRule type="expression" dxfId="133" priority="97">
+    <cfRule type="expression" dxfId="134" priority="98">
       <formula>AND(AC14="TRUE",AH14="TRUE",OR(AJ14="TRUE",AP14="TRUE"),AT14="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL14">
-    <cfRule type="expression" dxfId="132" priority="96">
+    <cfRule type="expression" dxfId="133" priority="97">
       <formula>AND(AG14="TRUE",AL14="TRUE",OR(AN14="TRUE",AT14="TRUE"),AX14="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W16">
-    <cfRule type="expression" dxfId="131" priority="95">
+    <cfRule type="expression" dxfId="132" priority="96">
       <formula>AND(T16="TRUE",U16="TRUE",W16="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB17">
-    <cfRule type="expression" dxfId="130" priority="94">
+    <cfRule type="expression" dxfId="131" priority="95">
       <formula>AND(S17="TRUE",U17="TRUE",AB17="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W18">
+    <cfRule type="expression" dxfId="130" priority="94">
+      <formula>AND(S18="TRUE",U18="TRUE",W18="TRUE",OR(Z18="TRUE",AI18="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z18">
     <cfRule type="expression" dxfId="129" priority="93">
       <formula>AND(S18="TRUE",U18="TRUE",W18="TRUE",OR(Z18="TRUE",AI18="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z18">
+  <conditionalFormatting sqref="AI18">
     <cfRule type="expression" dxfId="128" priority="92">
       <formula>AND(S18="TRUE",U18="TRUE",W18="TRUE",OR(Z18="TRUE",AI18="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI18">
+  <conditionalFormatting sqref="W19">
     <cfRule type="expression" dxfId="127" priority="91">
-      <formula>AND(S18="TRUE",U18="TRUE",W18="TRUE",OR(Z18="TRUE",AI18="TRUE"))</formula>
+      <formula>AND(R19="TRUE",U19="TRUE",W19="TRUE",AK19="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W19">
+  <conditionalFormatting sqref="AK19">
     <cfRule type="expression" dxfId="126" priority="90">
       <formula>AND(R19="TRUE",U19="TRUE",W19="TRUE",AK19="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK19">
+  <conditionalFormatting sqref="R19">
     <cfRule type="expression" dxfId="125" priority="89">
       <formula>AND(R19="TRUE",U19="TRUE",W19="TRUE",AK19="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R19">
+  <conditionalFormatting sqref="W20">
     <cfRule type="expression" dxfId="124" priority="88">
-      <formula>AND(R19="TRUE",U19="TRUE",W19="TRUE",AK19="TRUE")</formula>
+      <formula>AND(T20="TRUE",U20="TRUE",W20="TRUE",AK20="FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W20">
+  <conditionalFormatting sqref="AK20">
     <cfRule type="expression" dxfId="123" priority="87">
       <formula>AND(T20="TRUE",U20="TRUE",W20="TRUE",AK20="FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK20">
+  <conditionalFormatting sqref="AG21">
     <cfRule type="expression" dxfId="122" priority="86">
-      <formula>AND(T20="TRUE",U20="TRUE",W20="TRUE",AK20="FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG21">
-    <cfRule type="expression" dxfId="121" priority="85">
       <formula>(AG21="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG23">
-    <cfRule type="expression" dxfId="120" priority="84">
+    <cfRule type="expression" dxfId="121" priority="85">
       <formula>AND(OR(AND(AD23="TRUE",AG23="TRUE"),AN23="TRUE"),OR(AJ23="TRUE",AP23="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z23">
-    <cfRule type="expression" dxfId="119" priority="83">
+    <cfRule type="expression" dxfId="120" priority="84">
       <formula>AND(OR(AND(W23="TRUE",Z23="TRUE"),AG23="TRUE"),OR(AC23="TRUE",AI23="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI23">
-    <cfRule type="expression" dxfId="118" priority="82">
+    <cfRule type="expression" dxfId="119" priority="83">
       <formula>AND(OR(AND(AF23="TRUE",AI23="TRUE"),AP23="TRUE"),OR(AL23="TRUE",AR23="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7:O32">
-    <cfRule type="cellIs" dxfId="117" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="72" operator="equal">
       <formula>"攻撃可能"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="73" operator="equal">
       <formula>"攻撃困難"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7">
+    <cfRule type="expression" dxfId="116" priority="68">
+      <formula>AND(OR(AND(R7="TRUE",U7="TRUE"),AG7="TRUE"),OR(Y7="TRUE",AH7="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U7">
     <cfRule type="expression" dxfId="115" priority="67">
       <formula>AND(OR(AND(R7="TRUE",U7="TRUE"),AG7="TRUE"),OR(Y7="TRUE",AH7="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U7">
+  <conditionalFormatting sqref="Y7">
     <cfRule type="expression" dxfId="114" priority="66">
       <formula>AND(OR(AND(R7="TRUE",U7="TRUE"),AG7="TRUE"),OR(Y7="TRUE",AH7="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y7">
+  <conditionalFormatting sqref="AG7">
     <cfRule type="expression" dxfId="113" priority="65">
       <formula>AND(OR(AND(R7="TRUE",U7="TRUE"),AG7="TRUE"),OR(Y7="TRUE",AH7="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG7">
+  <conditionalFormatting sqref="AH7">
     <cfRule type="expression" dxfId="112" priority="64">
       <formula>AND(OR(AND(R7="TRUE",U7="TRUE"),AG7="TRUE"),OR(Y7="TRUE",AH7="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH7">
+  <conditionalFormatting sqref="Q8">
     <cfRule type="expression" dxfId="111" priority="63">
-      <formula>AND(OR(AND(R7="TRUE",U7="TRUE"),AG7="TRUE"),OR(Y7="TRUE",AH7="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q8">
-    <cfRule type="expression" dxfId="110" priority="62">
-      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AE8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
+      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U8">
-    <cfRule type="expression" dxfId="109" priority="61">
-      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AE8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
+    <cfRule type="expression" dxfId="110" priority="62">
+      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8">
+    <cfRule type="expression" dxfId="109" priority="61">
+      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE8">
     <cfRule type="expression" dxfId="108" priority="60">
       <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AE8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE8">
+  <conditionalFormatting sqref="AG8">
     <cfRule type="expression" dxfId="107" priority="59">
-      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AE8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG8">
-    <cfRule type="expression" dxfId="106" priority="58">
-      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AE8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
+      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI8">
-    <cfRule type="expression" dxfId="105" priority="57">
-      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AE8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
+    <cfRule type="expression" dxfId="106" priority="58">
+      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9">
+    <cfRule type="expression" dxfId="105" priority="57">
+      <formula>AND(Q9="TRUE",U9="TRUE",AL9="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U9">
     <cfRule type="expression" dxfId="104" priority="56">
       <formula>AND(Q9="TRUE",U9="TRUE",AL9="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U9">
+  <conditionalFormatting sqref="AL9">
     <cfRule type="expression" dxfId="103" priority="55">
       <formula>AND(Q9="TRUE",U9="TRUE",AL9="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL9">
+  <conditionalFormatting sqref="Q10">
     <cfRule type="expression" dxfId="102" priority="54">
-      <formula>AND(Q9="TRUE",U9="TRUE",AL9="TRUE")</formula>
+      <formula>AND(OR(AND(Q10="TRUE",U10="TRUE"),AG10="TRUE"),AM10="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q10">
+  <conditionalFormatting sqref="U10">
     <cfRule type="expression" dxfId="101" priority="53">
       <formula>AND(OR(AND(Q10="TRUE",U10="TRUE"),AG10="TRUE"),AM10="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U10">
+  <conditionalFormatting sqref="AG10">
     <cfRule type="expression" dxfId="100" priority="52">
       <formula>AND(OR(AND(Q10="TRUE",U10="TRUE"),AG10="TRUE"),AM10="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG10">
+  <conditionalFormatting sqref="AM10">
     <cfRule type="expression" dxfId="99" priority="51">
       <formula>AND(OR(AND(Q10="TRUE",U10="TRUE"),AG10="TRUE"),AM10="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM10">
+  <conditionalFormatting sqref="R12">
     <cfRule type="expression" dxfId="98" priority="50">
-      <formula>AND(OR(AND(Q10="TRUE",U10="TRUE"),AG10="TRUE"),AM10="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R12">
-    <cfRule type="expression" dxfId="97" priority="49">
       <formula>AND(P12="TRUE",OR(AND(R12="TRUE",U12="TRUE"),AG12="TRUE"),OR(Y12="TRUE",AH12="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S25">
+    <cfRule type="expression" dxfId="97" priority="48">
+      <formula>AND(S25="TRUE",U25="TRUE",W25="TRUE",OR(X25="TRUE",AA25="TRUE",AJ25="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U25">
     <cfRule type="expression" dxfId="96" priority="47">
       <formula>AND(S25="TRUE",U25="TRUE",W25="TRUE",OR(X25="TRUE",AA25="TRUE",AJ25="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U25">
+  <conditionalFormatting sqref="W25">
     <cfRule type="expression" dxfId="95" priority="46">
       <formula>AND(S25="TRUE",U25="TRUE",W25="TRUE",OR(X25="TRUE",AA25="TRUE",AJ25="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W25">
+  <conditionalFormatting sqref="X25">
     <cfRule type="expression" dxfId="94" priority="45">
       <formula>AND(S25="TRUE",U25="TRUE",W25="TRUE",OR(X25="TRUE",AA25="TRUE",AJ25="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X25">
+  <conditionalFormatting sqref="AA25">
     <cfRule type="expression" dxfId="93" priority="44">
       <formula>AND(S25="TRUE",U25="TRUE",W25="TRUE",OR(X25="TRUE",AA25="TRUE",AJ25="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA25">
+  <conditionalFormatting sqref="AJ25">
     <cfRule type="expression" dxfId="92" priority="43">
       <formula>AND(S25="TRUE",U25="TRUE",W25="TRUE",OR(X25="TRUE",AA25="TRUE",AJ25="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ25">
+  <conditionalFormatting sqref="T26">
     <cfRule type="expression" dxfId="91" priority="42">
-      <formula>AND(S25="TRUE",U25="TRUE",W25="TRUE",OR(X25="TRUE",AA25="TRUE",AJ25="TRUE"))</formula>
+      <formula>AND(T26="TRUE",V26="TRUE",OR(W26="TRUE",Y26="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T26">
+  <conditionalFormatting sqref="V26">
     <cfRule type="expression" dxfId="90" priority="41">
       <formula>AND(T26="TRUE",V26="TRUE",OR(W26="TRUE",Y26="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V26">
+  <conditionalFormatting sqref="W26">
     <cfRule type="expression" dxfId="89" priority="40">
       <formula>AND(T26="TRUE",V26="TRUE",OR(W26="TRUE",Y26="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W26">
+  <conditionalFormatting sqref="Y26">
     <cfRule type="expression" dxfId="88" priority="39">
       <formula>AND(T26="TRUE",V26="TRUE",OR(W26="TRUE",Y26="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y26">
+  <conditionalFormatting sqref="Q27">
     <cfRule type="expression" dxfId="87" priority="38">
-      <formula>AND(T26="TRUE",V26="TRUE",OR(W26="TRUE",Y26="TRUE"))</formula>
+      <formula>AND(Q27="TRUE",V27="TRUE",AL27="TRUE",OR(W27="TRUE",Y27="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q27">
+  <conditionalFormatting sqref="V27">
     <cfRule type="expression" dxfId="86" priority="37">
       <formula>AND(Q27="TRUE",V27="TRUE",AL27="TRUE",OR(W27="TRUE",Y27="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V27">
+  <conditionalFormatting sqref="W27">
     <cfRule type="expression" dxfId="85" priority="36">
       <formula>AND(Q27="TRUE",V27="TRUE",AL27="TRUE",OR(W27="TRUE",Y27="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W27">
+  <conditionalFormatting sqref="Y27">
     <cfRule type="expression" dxfId="84" priority="35">
       <formula>AND(Q27="TRUE",V27="TRUE",AL27="TRUE",OR(W27="TRUE",Y27="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y27">
+  <conditionalFormatting sqref="AL27">
     <cfRule type="expression" dxfId="83" priority="34">
       <formula>AND(Q27="TRUE",V27="TRUE",AL27="TRUE",OR(W27="TRUE",Y27="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL27">
+  <conditionalFormatting sqref="Q28">
     <cfRule type="expression" dxfId="82" priority="33">
-      <formula>AND(Q27="TRUE",V27="TRUE",AL27="TRUE",OR(W27="TRUE",Y27="TRUE"))</formula>
+      <formula>AND(Q28="TRUE",U28="TRUE",AC28="TRUE",OR(W28="TRUE",Y28="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q28">
+  <conditionalFormatting sqref="U28">
     <cfRule type="expression" dxfId="81" priority="32">
       <formula>AND(Q28="TRUE",U28="TRUE",AC28="TRUE",OR(W28="TRUE",Y28="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U28">
+  <conditionalFormatting sqref="W28">
     <cfRule type="expression" dxfId="80" priority="31">
       <formula>AND(Q28="TRUE",U28="TRUE",AC28="TRUE",OR(W28="TRUE",Y28="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W28">
+  <conditionalFormatting sqref="Y28">
     <cfRule type="expression" dxfId="79" priority="30">
       <formula>AND(Q28="TRUE",U28="TRUE",AC28="TRUE",OR(W28="TRUE",Y28="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y28">
+  <conditionalFormatting sqref="AC28">
     <cfRule type="expression" dxfId="78" priority="29">
       <formula>AND(Q28="TRUE",U28="TRUE",AC28="TRUE",OR(W28="TRUE",Y28="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC28">
+  <conditionalFormatting sqref="R29">
     <cfRule type="expression" dxfId="77" priority="28">
-      <formula>AND(Q28="TRUE",U28="TRUE",AC28="TRUE",OR(W28="TRUE",Y28="TRUE"))</formula>
+      <formula>AND(R29="TRUE",V29="TRUE",OR(W29="TRUE",Y29="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R29">
+  <conditionalFormatting sqref="V29">
     <cfRule type="expression" dxfId="76" priority="27">
       <formula>AND(R29="TRUE",V29="TRUE",OR(W29="TRUE",Y29="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V29">
+  <conditionalFormatting sqref="W29">
     <cfRule type="expression" dxfId="75" priority="26">
       <formula>AND(R29="TRUE",V29="TRUE",OR(W29="TRUE",Y29="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W29">
+  <conditionalFormatting sqref="Y29">
     <cfRule type="expression" dxfId="74" priority="25">
       <formula>AND(R29="TRUE",V29="TRUE",OR(W29="TRUE",Y29="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y29">
+  <conditionalFormatting sqref="Q30">
     <cfRule type="expression" dxfId="73" priority="24">
-      <formula>AND(R29="TRUE",V29="TRUE",OR(W29="TRUE",Y29="TRUE"))</formula>
+      <formula>AND(Q30="TRUE",U30="TRUE",OR(W30="TRUE",Y30="TRUE"),AF30="TRUE",AJ30="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q30">
+  <conditionalFormatting sqref="U30">
     <cfRule type="expression" dxfId="72" priority="23">
       <formula>AND(Q30="TRUE",U30="TRUE",OR(W30="TRUE",Y30="TRUE"),AF30="TRUE",AJ30="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U30">
+  <conditionalFormatting sqref="W30">
     <cfRule type="expression" dxfId="71" priority="22">
       <formula>AND(Q30="TRUE",U30="TRUE",OR(W30="TRUE",Y30="TRUE"),AF30="TRUE",AJ30="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W30">
+  <conditionalFormatting sqref="Y30">
     <cfRule type="expression" dxfId="70" priority="21">
       <formula>AND(Q30="TRUE",U30="TRUE",OR(W30="TRUE",Y30="TRUE"),AF30="TRUE",AJ30="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y30">
+  <conditionalFormatting sqref="AF30">
     <cfRule type="expression" dxfId="69" priority="20">
       <formula>AND(Q30="TRUE",U30="TRUE",OR(W30="TRUE",Y30="TRUE"),AF30="TRUE",AJ30="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF30">
+  <conditionalFormatting sqref="AJ30">
     <cfRule type="expression" dxfId="68" priority="19">
       <formula>AND(Q30="TRUE",U30="TRUE",OR(W30="TRUE",Y30="TRUE"),AF30="TRUE",AJ30="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ30">
+  <conditionalFormatting sqref="Q31">
     <cfRule type="expression" dxfId="67" priority="18">
-      <formula>AND(Q30="TRUE",U30="TRUE",OR(W30="TRUE",Y30="TRUE"),AF30="TRUE",AJ30="TRUE")</formula>
+      <formula>AND(Q31="TRUE",U31="TRUE",OR(W31="TRUE",Y31="TRUE"),AC31="TRUE",AF31="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q31">
+  <conditionalFormatting sqref="U31">
     <cfRule type="expression" dxfId="66" priority="17">
       <formula>AND(Q31="TRUE",U31="TRUE",OR(W31="TRUE",Y31="TRUE"),AC31="TRUE",AF31="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U31">
+  <conditionalFormatting sqref="W31">
     <cfRule type="expression" dxfId="65" priority="16">
       <formula>AND(Q31="TRUE",U31="TRUE",OR(W31="TRUE",Y31="TRUE"),AC31="TRUE",AF31="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W31">
+  <conditionalFormatting sqref="Y31">
     <cfRule type="expression" dxfId="64" priority="15">
       <formula>AND(Q31="TRUE",U31="TRUE",OR(W31="TRUE",Y31="TRUE"),AC31="TRUE",AF31="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y31">
+  <conditionalFormatting sqref="AC31">
     <cfRule type="expression" dxfId="63" priority="14">
       <formula>AND(Q31="TRUE",U31="TRUE",OR(W31="TRUE",Y31="TRUE"),AC31="TRUE",AF31="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC31">
+  <conditionalFormatting sqref="AF31">
     <cfRule type="expression" dxfId="62" priority="13">
       <formula>AND(Q31="TRUE",U31="TRUE",OR(W31="TRUE",Y31="TRUE"),AC31="TRUE",AF31="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF31">
+  <conditionalFormatting sqref="AB32">
     <cfRule type="expression" dxfId="61" priority="12">
-      <formula>AND(Q31="TRUE",U31="TRUE",OR(W31="TRUE",Y31="TRUE"),AC31="TRUE",AF31="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB32">
-    <cfRule type="expression" dxfId="60" priority="11">
       <formula>(AB32="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="59" priority="5">
+    <cfRule type="expression" dxfId="60" priority="6">
       <formula>$C$4="攻撃困難"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="10">
+    <cfRule type="expression" dxfId="59" priority="11">
       <formula>$C$4="攻撃可能"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="57" priority="4">
+    <cfRule type="expression" dxfId="58" priority="5">
       <formula>$D$4="攻撃困難"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="7">
+    <cfRule type="expression" dxfId="57" priority="8">
       <formula>$D$4="攻撃可能"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="55" priority="3">
+    <cfRule type="expression" dxfId="56" priority="4">
       <formula>$E$4="攻撃可能"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="8">
+    <cfRule type="expression" dxfId="55" priority="9">
       <formula>$E$4="攻撃困難"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="53" priority="2">
+    <cfRule type="expression" dxfId="54" priority="3">
       <formula>$F$4="攻撃可能"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="6">
+    <cfRule type="expression" dxfId="53" priority="7">
       <formula>$F$4="攻撃困難"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="51" priority="1">
+    <cfRule type="expression" dxfId="52" priority="2">
       <formula>$G$4="攻撃困難"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="9">
+    <cfRule type="expression" dxfId="51" priority="10">
       <formula>$G$4="攻撃可能"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF8">
+    <cfRule type="expression" dxfId="50" priority="1">
+      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34078,34 +34166,34 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C7" s="75" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="135" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="109" t="s">
-        <v>273</v>
-      </c>
-      <c r="D8" s="133" t="str">
+      <c r="B8" s="133" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="110" t="s">
+        <v>267</v>
+      </c>
+      <c r="D8" s="135" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE43="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F8" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D4="YES", "YES", "NO")</f>
@@ -34113,11 +34201,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B9" s="136"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="134"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="136"/>
       <c r="E9" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F9" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D5="YES", "YES", "NO")</f>
@@ -34126,25 +34214,25 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C10" s="75" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="126" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="135" t="s">
-        <v>278</v>
-      </c>
-      <c r="D11" s="133" t="str">
+      <c r="B11" s="120" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="133" t="s">
+        <v>272</v>
+      </c>
+      <c r="D11" s="135" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE44="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F11" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D8="YES", "YES", "NO")</f>
@@ -34152,11 +34240,11 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="122"/>
-      <c r="C12" s="136"/>
-      <c r="D12" s="134"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="136"/>
       <c r="E12" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D14="YES", "YES", "NO")</f>
@@ -34164,18 +34252,18 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="126" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="135" t="s">
-        <v>281</v>
-      </c>
-      <c r="D13" s="133" t="str">
+      <c r="B13" s="120" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="133" t="s">
+        <v>275</v>
+      </c>
+      <c r="D13" s="135" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE45="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F13" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D9="YES", "YES", "NO")</f>
@@ -34183,11 +34271,11 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B14" s="122"/>
-      <c r="C14" s="136"/>
-      <c r="D14" s="134"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="136"/>
       <c r="E14" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F14" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D15="YES", "YES", "NO")</f>
@@ -34195,18 +34283,18 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B15" s="126" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="135" t="s">
-        <v>284</v>
-      </c>
-      <c r="D15" s="133" t="str">
+      <c r="B15" s="120" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="133" t="s">
+        <v>278</v>
+      </c>
+      <c r="D15" s="135" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE46="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F15" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D10="YES", "YES", "NO")</f>
@@ -34214,11 +34302,11 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B16" s="122"/>
-      <c r="C16" s="136"/>
-      <c r="D16" s="134"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="136"/>
       <c r="E16" s="3" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F16" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D16="YES", "YES", "NO")</f>
@@ -34226,18 +34314,18 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B17" s="126" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="135" t="s">
-        <v>287</v>
-      </c>
-      <c r="D17" s="133" t="str">
+      <c r="B17" s="120" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="133" t="s">
+        <v>281</v>
+      </c>
+      <c r="D17" s="135" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE47="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F17" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D11="YES", "YES", "NO")</f>
@@ -34245,11 +34333,11 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B18" s="122"/>
-      <c r="C18" s="136"/>
-      <c r="D18" s="134"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="136"/>
       <c r="E18" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F18" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D17="YES", "YES", "NO")</f>
@@ -34258,25 +34346,25 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C20" s="75" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B21" s="126" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="109" t="s">
-        <v>292</v>
-      </c>
-      <c r="D21" s="133" t="str">
+      <c r="B21" s="120" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="110" t="s">
+        <v>286</v>
+      </c>
+      <c r="D21" s="135" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE48="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F21" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D20="YES", "YES", "NO")</f>
@@ -34284,11 +34372,11 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B22" s="122"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="134"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="136"/>
       <c r="E22" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F22" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D21="YES", "YES", "NO")</f>
@@ -34297,17 +34385,17 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B23" s="66" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C23" s="74" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D23" s="79" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE49="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F23" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D21="YES", "YES", "NO")</f>
@@ -34316,25 +34404,25 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C25" s="75" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B26" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C26" s="74" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D26" s="79" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE50="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F26" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D24="YES", "YES", "NO")</f>
@@ -34343,17 +34431,17 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B27" s="66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C27" s="74" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D27" s="79" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE51="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F27" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D25="YES", "YES", "NO")</f>
@@ -34362,17 +34450,17 @@
     </row>
     <row r="28" spans="1:6" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B28" s="66" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C28" s="74" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D28" s="79" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE52="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F28" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D26="YES", "YES", "NO")</f>
@@ -34381,17 +34469,17 @@
     </row>
     <row r="29" spans="1:6" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B29" s="66" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C29" s="74" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D29" s="79" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE53="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F29" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D27="YES", "YES", "NO")</f>
@@ -34400,17 +34488,17 @@
     </row>
     <row r="30" spans="1:6" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B30" s="66" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C30" s="74" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D30" s="79" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE54="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F30" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D28="YES", "YES", "NO")</f>
@@ -34419,17 +34507,17 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B31" s="66" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C31" s="74" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D31" s="79" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE55="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F31" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D29="YES", "YES", "NO")</f>
@@ -34438,17 +34526,17 @@
     </row>
     <row r="32" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B32" s="66" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C32" s="74" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D32" s="79" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE56="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F32" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D30="YES", "YES", "NO")</f>
@@ -34457,25 +34545,25 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C34" s="75" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B35" s="66" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C35" s="74" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D35" s="79" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE57="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F35" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D33="YES", "YES", "NO")</f>
@@ -34484,25 +34572,25 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C37" s="75" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B38" s="66" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C38" s="74" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D38" s="79" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE58="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F38" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D36="YES", "YES", "NO")</f>
@@ -34511,17 +34599,17 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B39" s="66" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C39" s="74" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D39" s="79" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE59="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F39" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D37="YES", "YES", "NO")</f>
@@ -34530,17 +34618,17 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B40" s="66" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C40" s="74" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D40" s="79" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE60="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F40" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D38="YES", "YES", "NO")</f>
@@ -34549,25 +34637,25 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C42" s="75" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B43" s="66" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C43" s="74" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D43" s="79" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE61="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F43" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D41="YES", "YES", "NO")</f>
@@ -34576,17 +34664,17 @@
     </row>
     <row r="44" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B44" s="66" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C44" s="74" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D44" s="79" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE62="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F44" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D42="YES", "YES", "NO")</f>
@@ -34595,17 +34683,17 @@
     </row>
     <row r="45" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B45" s="66" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C45" s="74" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D45" s="79" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE63="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F45" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D43="YES", "YES", "NO")</f>
@@ -34614,25 +34702,25 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C47" s="75" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B48" s="66" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C48" s="74" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D48" s="79" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE64="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F48" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D46="YES", "YES", "NO")</f>
@@ -34653,6 +34741,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B21:B22"/>
@@ -34662,15 +34759,6 @@
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B8:D9">
@@ -34934,7 +35022,7 @@
   <dimension ref="B1:T84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -34949,16 +35037,16 @@
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.4">
@@ -34981,10 +35069,10 @@
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.4">
       <c r="O3" s="14" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
@@ -34996,7 +35084,7 @@
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F4" s="132" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G4" s="132"/>
       <c r="H4" s="132" t="str">
@@ -35005,10 +35093,10 @@
       </c>
       <c r="I4" s="1"/>
       <c r="O4" s="15" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="S4" s="7"/>
       <c r="T4" s="15" t="str">
@@ -35022,10 +35110,10 @@
       <c r="H5" s="132"/>
       <c r="I5" s="1"/>
       <c r="O5" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="S5" s="7"/>
       <c r="T5" s="15" t="str">
@@ -35038,10 +35126,10 @@
       <c r="G6" s="6"/>
       <c r="H6" s="5"/>
       <c r="O6" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="S6" s="7"/>
       <c r="T6" s="15" t="str">
@@ -35054,10 +35142,10 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="O7" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="S7" s="7"/>
       <c r="T7" s="15" t="str">
@@ -35067,10 +35155,10 @@
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.4">
       <c r="O8" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="S8" s="7"/>
       <c r="T8" s="15" t="str">
@@ -35083,10 +35171,10 @@
       <c r="H9" s="8"/>
       <c r="I9" s="13"/>
       <c r="O9" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="S9" s="7"/>
       <c r="T9" s="15" t="str">
@@ -35104,10 +35192,10 @@
       <c r="J10" s="4"/>
       <c r="K10" s="8"/>
       <c r="O10" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="S10" s="7"/>
       <c r="T10" s="15" t="str">
@@ -35117,24 +35205,24 @@
     </row>
     <row r="11" spans="2:20" ht="93.75" x14ac:dyDescent="0.4">
       <c r="D11" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E11" s="3" t="str">
         <f>IF(OR(D16="TRUE",G16="TRUE"),"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K11" s="3" t="str">
         <f>IF(OR(J16="TRUE",M16="TRUE"),"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="S11" s="7"/>
       <c r="T11" s="15" t="str">
@@ -35148,10 +35236,10 @@
       <c r="J12" s="4"/>
       <c r="K12" s="8"/>
       <c r="O12" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="S12" s="7"/>
       <c r="T12" s="15" t="str">
@@ -35165,10 +35253,10 @@
       <c r="J13" s="7"/>
       <c r="K13" s="8"/>
       <c r="O13" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="S13" s="7"/>
       <c r="T13" s="15" t="str">
@@ -35184,10 +35272,10 @@
       <c r="K14" s="12"/>
       <c r="L14" s="13"/>
       <c r="O14" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="S14" s="7"/>
       <c r="T14" s="15" t="str">
@@ -35207,10 +35295,10 @@
       <c r="L15" s="18"/>
       <c r="M15" s="12"/>
       <c r="O15" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="S15" s="7"/>
       <c r="T15" s="15" t="str">
@@ -35220,38 +35308,38 @@
     </row>
     <row r="16" spans="2:20" ht="93.75" x14ac:dyDescent="0.4">
       <c r="C16" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D16" s="3" t="str">
         <f>IF(AND(C22="TRUE",F22="TRUE"),"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G16" s="3" t="str">
         <f>T20</f>
         <v>FALSE</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="J16" s="3" t="str">
         <f>T12</f>
         <v>FALSE</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="M16" s="3" t="str">
         <f>T21</f>
         <v>FALSE</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="S16" s="7"/>
       <c r="T16" s="15" t="str">
@@ -35263,10 +35351,10 @@
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="O17" s="15" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="S17" s="7"/>
       <c r="T17" s="15" t="str">
@@ -35276,10 +35364,10 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.4">
       <c r="O18" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="S18" s="7"/>
       <c r="T18" s="15" t="str">
@@ -35291,10 +35379,10 @@
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
       <c r="O19" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="S19" s="7"/>
       <c r="T19" s="15" t="str">
@@ -35311,10 +35399,10 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="O20" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="S20" s="7"/>
       <c r="T20" s="15" t="str">
@@ -35328,10 +35416,10 @@
       <c r="E21" s="11"/>
       <c r="F21" s="21"/>
       <c r="O21" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="15" t="str">
@@ -35341,24 +35429,24 @@
     </row>
     <row r="22" spans="2:20" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C22" s="3" t="str">
         <f>T5</f>
         <v>FALSE</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F22" s="3" t="str">
         <f>T8</f>
         <v>FALSE</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="S22" s="7"/>
       <c r="T22" s="15" t="str">
@@ -35368,10 +35456,10 @@
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.4">
       <c r="O23" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="S23" s="7"/>
       <c r="T23" s="15" t="str">
@@ -35381,10 +35469,10 @@
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.4">
       <c r="O24" s="16" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
@@ -35396,7 +35484,7 @@
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F26" s="137" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G26" s="138"/>
       <c r="H26" s="141" t="str">
@@ -35438,14 +35526,14 @@
     </row>
     <row r="33" spans="2:15" ht="112.5" x14ac:dyDescent="0.4">
       <c r="C33" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D33" s="3" t="str">
         <f>IF(OR(C38="TRUE",F38="TRUE"),"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="J33" s="3" t="str">
         <f>IF(OR(I38="TRUE",L38="TRUE",O38="TRUE"),"TRUE","FALSE")</f>
@@ -35490,35 +35578,35 @@
     </row>
     <row r="38" spans="2:15" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B38" s="2" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C38" s="3" t="str">
         <f>IF(AND(C45="TRUE",F45="TRUE"),"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F38" s="3" t="str">
         <f>T20</f>
         <v>FALSE</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="I38" s="3" t="str">
-        <f>T18</f>
+        <f>T19</f>
         <v>FALSE</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="L38" s="3" t="str">
         <f>T13</f>
         <v>FALSE</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="O38" s="3" t="str">
         <f>T22</f>
@@ -35554,14 +35642,14 @@
     </row>
     <row r="45" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B45" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C45" s="3" t="str">
         <f>T4</f>
         <v>FALSE</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F45" s="3" t="str">
         <f>T8</f>
@@ -35570,7 +35658,7 @@
     </row>
     <row r="49" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F49" s="137" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="G49" s="138"/>
       <c r="H49" s="141" t="str">
@@ -35619,21 +35707,21 @@
     </row>
     <row r="57" spans="2:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B57" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C57" s="3" t="str">
         <f>T4</f>
         <v>FALSE</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F57" s="3" t="str">
         <f>T8</f>
         <v>FALSE</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="I57" s="3" t="str">
         <f>IF('Ⅳ. 総合判定結果'!E4="攻撃可能","TRUE","FALSE")</f>
@@ -35642,7 +35730,7 @@
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.4">
       <c r="F61" s="137" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G61" s="138"/>
       <c r="H61" s="141" t="str">
@@ -35688,14 +35776,14 @@
     </row>
     <row r="69" spans="2:9" ht="75" x14ac:dyDescent="0.4">
       <c r="C69" s="2" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D69" s="3" t="str">
         <f>IF(OR(C74="TRUE",F74="TRUE"),"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="I69" s="3" t="str">
         <f>IF('Ⅳ. 総合判定結果'!D4="攻撃可能","TRUE","FALSE")</f>
@@ -35724,14 +35812,14 @@
     </row>
     <row r="74" spans="2:9" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B74" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C74" s="3" t="str">
         <f>IF(AND(C80="TRUE",F80="TRUE"),"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F74" s="3" t="str">
         <f>T20</f>
@@ -35763,14 +35851,14 @@
     </row>
     <row r="80" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B80" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C80" s="3" t="str">
         <f>T4</f>
         <v>FALSE</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F80" s="3" t="str">
         <f>T8</f>
@@ -35816,13 +35904,13 @@
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D1" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.4">
@@ -35841,10 +35929,10 @@
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.4">
       <c r="O3" s="14" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
@@ -35856,7 +35944,7 @@
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F4" s="132" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G4" s="132"/>
       <c r="H4" s="132" t="str">
@@ -35865,10 +35953,10 @@
       </c>
       <c r="I4" s="1"/>
       <c r="O4" s="15" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="S4" s="7"/>
       <c r="T4" s="15" t="str">
@@ -35882,10 +35970,10 @@
       <c r="H5" s="132"/>
       <c r="I5" s="1"/>
       <c r="O5" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="S5" s="7"/>
       <c r="T5" s="15" t="str">
@@ -35898,10 +35986,10 @@
       <c r="G6" s="6"/>
       <c r="H6" s="5"/>
       <c r="O6" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="S6" s="7"/>
       <c r="T6" s="15" t="str">
@@ -35914,10 +36002,10 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="O7" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="S7" s="7"/>
       <c r="T7" s="15" t="str">
@@ -35927,10 +36015,10 @@
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.4">
       <c r="O8" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="S8" s="7"/>
       <c r="T8" s="15" t="str">
@@ -35943,10 +36031,10 @@
       <c r="G9" s="32"/>
       <c r="H9" s="21"/>
       <c r="O9" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="S9" s="7"/>
       <c r="T9" s="15" t="str">
@@ -35966,10 +36054,10 @@
       <c r="K10" s="4"/>
       <c r="L10" s="8"/>
       <c r="O10" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="S10" s="7"/>
       <c r="T10" s="15" t="str">
@@ -35979,31 +36067,31 @@
     </row>
     <row r="11" spans="2:20" ht="75" x14ac:dyDescent="0.4">
       <c r="C11" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D11" s="3" t="str">
         <f>IF(OR(C16="TRUE",F16="TRUE"),"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H11" s="3" t="str">
         <f>T3</f>
         <v>FALSE</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="L11" s="3" t="str">
         <f>IF(OR(J16="TRUE",M16="TRUE"),"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="S11" s="7"/>
       <c r="T11" s="15" t="str">
@@ -36017,10 +36105,10 @@
       <c r="K12" s="7"/>
       <c r="L12" s="10"/>
       <c r="O12" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="S12" s="7"/>
       <c r="T12" s="15" t="str">
@@ -36036,10 +36124,10 @@
       <c r="L13" s="8"/>
       <c r="M13" s="1"/>
       <c r="O13" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="S13" s="7"/>
       <c r="T13" s="15" t="str">
@@ -36054,10 +36142,10 @@
       <c r="K14" s="11"/>
       <c r="L14" s="12"/>
       <c r="O14" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="S14" s="7"/>
       <c r="T14" s="15" t="str">
@@ -36076,10 +36164,10 @@
       <c r="L15" s="4"/>
       <c r="M15" s="12"/>
       <c r="O15" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="S15" s="7"/>
       <c r="T15" s="15" t="str">
@@ -36089,7 +36177,7 @@
     </row>
     <row r="16" spans="2:20" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C16" s="3" t="str">
         <f>IF(AND(B22="TRUE",E22="TRUE"),"TRUE","FALSE")</f>
@@ -36097,31 +36185,31 @@
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F16" s="3" t="str">
         <f>T20</f>
         <v>FALSE</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="J16" s="3" t="str">
         <f>T12</f>
         <v>FALSE</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="M16" s="3" t="str">
         <f>T21</f>
         <v>FALSE</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="S16" s="7"/>
       <c r="T16" s="15" t="str">
@@ -36133,10 +36221,10 @@
       <c r="B17" s="6"/>
       <c r="C17" s="5"/>
       <c r="O17" s="15" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="S17" s="7"/>
       <c r="T17" s="15" t="str">
@@ -36148,10 +36236,10 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="O18" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="S18" s="7"/>
       <c r="T18" s="15" t="str">
@@ -36164,10 +36252,10 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="O19" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="S19" s="7"/>
       <c r="T19" s="15" t="str">
@@ -36179,10 +36267,10 @@
       <c r="B20" s="32"/>
       <c r="C20" s="21"/>
       <c r="O20" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="S20" s="7"/>
       <c r="T20" s="15" t="str">
@@ -36198,10 +36286,10 @@
       <c r="E21" s="8"/>
       <c r="H21" s="1"/>
       <c r="O21" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="15" t="str">
@@ -36211,14 +36299,14 @@
     </row>
     <row r="22" spans="1:20" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B22" s="3" t="str">
         <f>T5</f>
         <v>FALSE</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E22" s="3" t="str">
         <f>T8</f>
@@ -36227,10 +36315,10 @@
       <c r="G22" s="1"/>
       <c r="K22" s="1"/>
       <c r="O22" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="S22" s="7"/>
       <c r="T22" s="15" t="str">
@@ -36240,10 +36328,10 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.4">
       <c r="O23" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="S23" s="7"/>
       <c r="T23" s="15" t="str">
@@ -36253,10 +36341,10 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.4">
       <c r="O24" s="16" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
@@ -36273,7 +36361,7 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.4">
       <c r="F26" s="137" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G26" s="138"/>
       <c r="H26" s="141" t="str">
@@ -36297,7 +36385,7 @@
     </row>
     <row r="30" spans="1:20" ht="37.5" x14ac:dyDescent="0.4">
       <c r="G30" s="2" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H30" s="3" t="str">
         <f>T17</f>
@@ -36306,7 +36394,7 @@
     </row>
     <row r="34" spans="2:25" x14ac:dyDescent="0.4">
       <c r="F34" s="132" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="G34" s="132"/>
       <c r="H34" s="132" t="str">
@@ -36366,28 +36454,28 @@
     </row>
     <row r="42" spans="2:25" ht="75" x14ac:dyDescent="0.4">
       <c r="B42" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C42" s="3" t="str">
         <f>T3</f>
         <v>FALSE</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F42" s="3" t="str">
         <f>T8</f>
         <v>FALSE</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="I42" s="3" t="str">
         <f>IF(OR(G48="TRUE",J48="TRUE"),"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="L42" s="3" t="str">
         <f>IF('Ⅳ. 総合判定結果'!E4="攻撃可能","TRUE","FALSE")</f>
@@ -36421,14 +36509,14 @@
     </row>
     <row r="48" spans="2:25" ht="37.5" x14ac:dyDescent="0.4">
       <c r="F48" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G48" s="3" t="str">
         <f>T12</f>
         <v>FALSE</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="J48" s="3" t="str">
         <f>T21</f>
@@ -36472,22 +36560,22 @@
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="F1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="G1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.4">
@@ -36518,10 +36606,10 @@
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.4">
       <c r="O3" s="14" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
@@ -36533,7 +36621,7 @@
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F4" s="132" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="G4" s="132"/>
       <c r="H4" s="132" t="str">
@@ -36542,10 +36630,10 @@
       </c>
       <c r="I4" s="1"/>
       <c r="O4" s="15" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="S4" s="7"/>
       <c r="T4" s="15" t="str">
@@ -36559,10 +36647,10 @@
       <c r="H5" s="132"/>
       <c r="I5" s="1"/>
       <c r="O5" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="S5" s="7"/>
       <c r="T5" s="15" t="str">
@@ -36575,10 +36663,10 @@
       <c r="G6" s="6"/>
       <c r="H6" s="5"/>
       <c r="O6" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="S6" s="7"/>
       <c r="T6" s="15" t="str">
@@ -36591,10 +36679,10 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="O7" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="S7" s="7"/>
       <c r="T7" s="15" t="str">
@@ -36604,10 +36692,10 @@
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.4">
       <c r="O8" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="S8" s="7"/>
       <c r="T8" s="15" t="str">
@@ -36619,10 +36707,10 @@
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
       <c r="O9" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="S9" s="7"/>
       <c r="T9" s="15" t="str">
@@ -36640,10 +36728,10 @@
       <c r="H10" s="4"/>
       <c r="I10" s="8"/>
       <c r="O10" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="S10" s="7"/>
       <c r="T10" s="15" t="str">
@@ -36659,10 +36747,10 @@
       <c r="H11" s="11"/>
       <c r="I11" s="12"/>
       <c r="O11" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="S11" s="7"/>
       <c r="T11" s="15" t="str">
@@ -36672,31 +36760,31 @@
     </row>
     <row r="12" spans="2:20" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C12" s="3" t="str">
         <f>T7</f>
         <v>FALSE</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>T8</f>
         <v>FALSE</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="I12" s="3" t="str">
         <f>T10</f>
         <v>FALSE</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="S12" s="7"/>
       <c r="T12" s="15" t="str">
@@ -36706,10 +36794,10 @@
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.4">
       <c r="O13" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="S13" s="7"/>
       <c r="T13" s="15" t="str">
@@ -36719,10 +36807,10 @@
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.4">
       <c r="O14" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="S14" s="7"/>
       <c r="T14" s="15" t="str">
@@ -36732,10 +36820,10 @@
     </row>
     <row r="15" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="O15" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="S15" s="7"/>
       <c r="T15" s="15" t="str">
@@ -36745,7 +36833,7 @@
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F16" s="132" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G16" s="132"/>
       <c r="H16" s="132" t="str">
@@ -36754,10 +36842,10 @@
       </c>
       <c r="I16" s="1"/>
       <c r="O16" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="S16" s="7"/>
       <c r="T16" s="15" t="str">
@@ -36771,10 +36859,10 @@
       <c r="H17" s="132"/>
       <c r="I17" s="1"/>
       <c r="O17" s="15" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="S17" s="7"/>
       <c r="T17" s="15" t="str">
@@ -36787,10 +36875,10 @@
       <c r="G18" s="6"/>
       <c r="H18" s="5"/>
       <c r="O18" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="S18" s="7"/>
       <c r="T18" s="15" t="str">
@@ -36803,10 +36891,10 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="O19" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="S19" s="7"/>
       <c r="T19" s="15" t="str">
@@ -36816,10 +36904,10 @@
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.4">
       <c r="O20" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="S20" s="7"/>
       <c r="T20" s="15" t="str">
@@ -36831,10 +36919,10 @@
       <c r="G21" s="7"/>
       <c r="H21" s="8"/>
       <c r="O21" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="15" t="str">
@@ -36852,10 +36940,10 @@
       <c r="H22" s="4"/>
       <c r="I22" s="8"/>
       <c r="O22" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="S22" s="7"/>
       <c r="T22" s="15" t="str">
@@ -36871,10 +36959,10 @@
       <c r="H23" s="11"/>
       <c r="I23" s="12"/>
       <c r="O23" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="S23" s="7"/>
       <c r="T23" s="15" t="str">
@@ -36884,31 +36972,31 @@
     </row>
     <row r="24" spans="2:20" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B24" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C24" s="3" t="str">
         <f>T6</f>
         <v>FALSE</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F24" s="3" t="str">
         <f>T8</f>
         <v>FALSE</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="I24" s="3" t="str">
         <f>T15</f>
         <v>FALSE</v>
       </c>
       <c r="O24" s="16" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
@@ -36920,7 +37008,7 @@
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F28" s="132" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G28" s="132"/>
       <c r="H28" s="132" t="str">
@@ -36977,28 +37065,28 @@
     </row>
     <row r="36" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B36" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C36" s="3" t="str">
         <f>T6</f>
         <v>FALSE</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F36" s="3" t="str">
         <f>T8</f>
         <v>FALSE</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="I36" s="3" t="str">
         <f>T10</f>
         <v>FALSE</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="L36" s="3" t="str">
         <f>IF(OR(J42="TRUE",M42="TRUE"),"TRUE","FALSE")</f>
@@ -37030,14 +37118,14 @@
     </row>
     <row r="42" spans="2:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="I42" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="J42" s="3" t="str">
         <f>T13</f>
         <v>FALSE</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="M42" s="3" t="str">
         <f>T22</f>
@@ -37046,7 +37134,7 @@
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.4">
       <c r="F46" s="132" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="G46" s="132"/>
       <c r="H46" s="132" t="str">
@@ -37103,28 +37191,28 @@
     </row>
     <row r="54" spans="2:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B54" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C54" s="3" t="str">
         <f>T5</f>
         <v>FALSE</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F54" s="3" t="str">
         <f>T8</f>
         <v>FALSE</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="I54" s="3" t="str">
         <f>T10</f>
         <v>FALSE</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L54" s="3" t="str">
         <f>T24</f>
@@ -37133,7 +37221,7 @@
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.4">
       <c r="F58" s="132" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="G58" s="132"/>
       <c r="H58" s="132" t="str">
@@ -37190,28 +37278,28 @@
     </row>
     <row r="66" spans="2:12" ht="75" x14ac:dyDescent="0.4">
       <c r="B66" s="2" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C66" s="3" t="str">
         <f>T7</f>
         <v>FALSE</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F66" s="3" t="str">
         <f>T8</f>
         <v>FALSE</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="I66" s="3" t="str">
         <f>T10</f>
         <v>FALSE</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="L66" s="3" t="str">
         <f>IF(L71="TRUE","FALSE","TRUE")</f>
@@ -37236,7 +37324,7 @@
     </row>
     <row r="71" spans="2:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="K71" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L71" s="3" t="str">
         <f>T24</f>
@@ -37245,7 +37333,7 @@
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.4">
       <c r="F75" s="137" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G75" s="138"/>
       <c r="H75" s="141" t="str">
@@ -37269,7 +37357,7 @@
     </row>
     <row r="79" spans="2:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="G79" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H79" s="3" t="str">
         <f>T20</f>
@@ -37278,18 +37366,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="F16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="F28:G29"/>
+    <mergeCell ref="H28:H29"/>
     <mergeCell ref="F75:G76"/>
     <mergeCell ref="H75:H76"/>
     <mergeCell ref="F58:G59"/>
     <mergeCell ref="H58:H59"/>
     <mergeCell ref="F46:G47"/>
     <mergeCell ref="H46:H47"/>
-    <mergeCell ref="F4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="F16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="F28:G29"/>
-    <mergeCell ref="H28:H29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37318,7 +37406,7 @@
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.4">
@@ -37329,10 +37417,10 @@
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.4">
       <c r="O3" s="14" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
@@ -37344,7 +37432,7 @@
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F4" s="132" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G4" s="132"/>
       <c r="H4" s="132" t="str">
@@ -37353,10 +37441,10 @@
       </c>
       <c r="I4" s="1"/>
       <c r="O4" s="15" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="S4" s="7"/>
       <c r="T4" s="15" t="str">
@@ -37370,10 +37458,10 @@
       <c r="H5" s="132"/>
       <c r="I5" s="1"/>
       <c r="O5" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="S5" s="7"/>
       <c r="T5" s="15" t="str">
@@ -37386,10 +37474,10 @@
       <c r="G6" s="6"/>
       <c r="H6" s="5"/>
       <c r="O6" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="S6" s="7"/>
       <c r="T6" s="15" t="str">
@@ -37402,10 +37490,10 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="O7" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="S7" s="7"/>
       <c r="T7" s="15" t="str">
@@ -37415,10 +37503,10 @@
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.4">
       <c r="O8" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="S8" s="7"/>
       <c r="T8" s="15" t="str">
@@ -37431,10 +37519,10 @@
       <c r="H9" s="8"/>
       <c r="I9" s="13"/>
       <c r="O9" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="S9" s="7"/>
       <c r="T9" s="15" t="str">
@@ -37453,10 +37541,10 @@
       <c r="J10" s="4"/>
       <c r="K10" s="8"/>
       <c r="O10" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="S10" s="7"/>
       <c r="T10" s="15" t="str">
@@ -37466,24 +37554,24 @@
     </row>
     <row r="11" spans="2:20" ht="93.75" x14ac:dyDescent="0.4">
       <c r="C11" s="2" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D11" s="3" t="str">
         <f>IF(OR(C17="TRUE",F17="TRUE"),"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="K11" s="3" t="str">
         <f>IF(OR(I17="TRUE",L17="TRUE"),"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="S11" s="7"/>
       <c r="T11" s="15" t="str">
@@ -37497,10 +37585,10 @@
       <c r="J12" s="4"/>
       <c r="K12" s="10"/>
       <c r="O12" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="S12" s="7"/>
       <c r="T12" s="15" t="str">
@@ -37514,10 +37602,10 @@
       <c r="J13" s="7"/>
       <c r="K13" s="8"/>
       <c r="O13" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="S13" s="7"/>
       <c r="T13" s="15" t="str">
@@ -37532,10 +37620,10 @@
       <c r="J14" s="7"/>
       <c r="K14" s="8"/>
       <c r="O14" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="S14" s="7"/>
       <c r="T14" s="15" t="str">
@@ -37551,10 +37639,10 @@
       <c r="J15" s="11"/>
       <c r="K15" s="12"/>
       <c r="O15" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="S15" s="7"/>
       <c r="T15" s="15" t="str">
@@ -37574,10 +37662,10 @@
       <c r="K16" s="18"/>
       <c r="L16" s="12"/>
       <c r="O16" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="S16" s="7"/>
       <c r="T16" s="15" t="str">
@@ -37587,21 +37675,21 @@
     </row>
     <row r="17" spans="2:20" ht="75" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C17" s="3" t="str">
         <f>IF(AND(C23="TRUE",F23="TRUE"),"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F17" s="3" t="str">
         <f>T20</f>
         <v>FALSE</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="I17" s="3" t="str">
         <f>T13</f>
@@ -37609,17 +37697,17 @@
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="L17" s="3" t="str">
         <f>T22</f>
         <v>FALSE</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="S17" s="7"/>
       <c r="T17" s="15" t="str">
@@ -37634,10 +37722,10 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="O18" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="S18" s="7"/>
       <c r="T18" s="15" t="str">
@@ -37651,10 +37739,10 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="O19" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="S19" s="7"/>
       <c r="T19" s="15" t="str">
@@ -37669,10 +37757,10 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="O20" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="S20" s="7"/>
       <c r="T20" s="15" t="str">
@@ -37686,10 +37774,10 @@
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="O21" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="15" t="str">
@@ -37704,10 +37792,10 @@
       <c r="E22" s="4"/>
       <c r="F22" s="8"/>
       <c r="O22" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="S22" s="7"/>
       <c r="T22" s="15" t="str">
@@ -37717,24 +37805,24 @@
     </row>
     <row r="23" spans="2:20" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B23" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C23" s="3" t="str">
         <f>T5</f>
         <v>FALSE</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F23" s="3" t="str">
         <f>T8</f>
         <v>FALSE</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="S23" s="7"/>
       <c r="T23" s="15" t="str">
@@ -37744,10 +37832,10 @@
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.4">
       <c r="O24" s="16" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
@@ -37770,21 +37858,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007AAF6AF0C7CE7549A5D17CD937362787" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="f5cd2b5f7d3f6ddbce5e585ec9eab84e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dd0e0625-2e83-4ad5-b9cb-f9d91ab6ed74" xmlns:ns3="6eb0dd79-bb85-4255-8a9f-502eb203acbd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a25ac27321eaa39cc65e1fa75f305940" ns2:_="" ns3:_="">
     <xsd:import namespace="dd0e0625-2e83-4ad5-b9cb-f9d91ab6ed74"/>
@@ -38001,24 +38074,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DDC6F79-1B2D-4025-AD7D-7E0CCE89759B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BAF797F-BBAB-4E83-A10E-06794A3228FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{781D8A5B-1BCE-4AD2-86B6-C000ADF5C228}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -38035,4 +38106,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BAF797F-BBAB-4E83-A10E-06794A3228FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DDC6F79-1B2D-4025-AD7D-7E0CCE89759B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/util/AI-RiskDiagnoseTool.xlsx
+++ b/util/AI-RiskDiagnoseTool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyajima\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4883C14D-DD23-4EFF-81A0-D6E88F253DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2181F529-C08C-46BC-8350-7E07BE0D9609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1320" windowWidth="25005" windowHeight="14130" xr2:uid="{7FFC3D60-456E-4EF0-A58D-4DA55A3AFCD4}"/>
+    <workbookView xWindow="1350" yWindow="2130" windowWidth="25560" windowHeight="13155" activeTab="3" xr2:uid="{7FFC3D60-456E-4EF0-A58D-4DA55A3AFCD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Ⅰ. AIの定義" sheetId="10" r:id="rId1"/>
@@ -6840,20 +6840,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -6861,17 +6858,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6891,17 +6891,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -28557,7 +28557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D867B39-5CFD-4744-A275-60A730B12AF4}">
   <dimension ref="B2:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -30049,12 +30049,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="F22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="F38:G39"/>
-    <mergeCell ref="H38:H39"/>
     <mergeCell ref="F107:G108"/>
     <mergeCell ref="H107:H108"/>
     <mergeCell ref="F124:G125"/>
@@ -30065,6 +30059,12 @@
     <mergeCell ref="H74:H75"/>
     <mergeCell ref="F90:G91"/>
     <mergeCell ref="H90:H91"/>
+    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="F22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="F38:G39"/>
+    <mergeCell ref="H38:H39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30077,7 +30077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD9C5DD-27D5-43CC-B03F-1770E07F8AF5}">
   <dimension ref="A2:J55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -30857,7 +30857,7 @@
       <c r="D7" s="60"/>
     </row>
     <row r="8" spans="1:7" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="116" t="s">
+      <c r="B8" s="119" t="s">
         <v>129</v>
       </c>
       <c r="C8" s="57" t="s">
@@ -30877,7 +30877,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="121"/>
+      <c r="B9" s="120"/>
       <c r="C9" s="98" t="s">
         <v>138</v>
       </c>
@@ -30895,7 +30895,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="122"/>
+      <c r="B10" s="121"/>
       <c r="C10" s="61" t="s">
         <v>132</v>
       </c>
@@ -30913,7 +30913,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122"/>
+      <c r="B11" s="121"/>
       <c r="C11" s="97" t="s">
         <v>442</v>
       </c>
@@ -30931,30 +30931,30 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="122"/>
-      <c r="C12" s="125" t="s">
+      <c r="B12" s="121"/>
+      <c r="C12" s="123" t="s">
         <v>133</v>
       </c>
-      <c r="D12" s="124" t="s">
+      <c r="D12" s="118" t="s">
         <v>438</v>
       </c>
-      <c r="E12" s="118" t="s">
+      <c r="E12" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="F12" s="118" t="s">
+      <c r="F12" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="124" t="s">
+      <c r="G12" s="118" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="117"/>
+      <c r="B13" s="122"/>
       <c r="C13" s="112"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B14" s="63"/>
@@ -30969,7 +30969,7 @@
       <c r="E15" s="65"/>
     </row>
     <row r="16" spans="1:7" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="116" t="s">
+      <c r="B16" s="119" t="s">
         <v>135</v>
       </c>
       <c r="C16" s="27" t="s">
@@ -30989,33 +30989,33 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="121"/>
-      <c r="C17" s="125" t="s">
+      <c r="B17" s="120"/>
+      <c r="C17" s="123" t="s">
         <v>138</v>
       </c>
-      <c r="D17" s="118" t="s">
+      <c r="D17" s="116" t="s">
         <v>446</v>
       </c>
-      <c r="E17" s="118" t="s">
+      <c r="E17" s="116" t="s">
         <v>139</v>
       </c>
-      <c r="F17" s="118" t="s">
+      <c r="F17" s="116" t="s">
         <v>139</v>
       </c>
-      <c r="G17" s="118" t="s">
+      <c r="G17" s="116" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="122"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
     </row>
     <row r="19" spans="1:7" ht="132.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="122"/>
+      <c r="B19" s="121"/>
       <c r="C19" s="61" t="s">
         <v>132</v>
       </c>
@@ -31033,7 +31033,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="170.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="122"/>
+      <c r="B20" s="121"/>
       <c r="C20" s="98" t="s">
         <v>136</v>
       </c>
@@ -31051,7 +31051,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="117"/>
+      <c r="B21" s="122"/>
       <c r="C21" s="95" t="s">
         <v>455</v>
       </c>
@@ -31080,7 +31080,7 @@
       <c r="E23" s="65"/>
     </row>
     <row r="24" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="120" t="s">
+      <c r="B24" s="126" t="s">
         <v>64</v>
       </c>
       <c r="C24" s="57" t="s">
@@ -31100,7 +31100,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="117"/>
+      <c r="B25" s="122"/>
       <c r="C25" s="61" t="s">
         <v>141</v>
       </c>
@@ -31154,7 +31154,7 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="120" t="s">
+      <c r="B29" s="126" t="s">
         <v>73</v>
       </c>
       <c r="C29" s="57" t="s">
@@ -31174,7 +31174,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="117"/>
+      <c r="B30" s="122"/>
       <c r="C30" s="61" t="s">
         <v>151</v>
       </c>
@@ -31192,7 +31192,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="120" t="s">
+      <c r="B31" s="126" t="s">
         <v>76</v>
       </c>
       <c r="C31" s="57" t="s">
@@ -31212,7 +31212,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="117"/>
+      <c r="B32" s="122"/>
       <c r="C32" s="57" t="s">
         <v>157</v>
       </c>
@@ -31230,7 +31230,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="116" t="s">
+      <c r="B33" s="119" t="s">
         <v>159</v>
       </c>
       <c r="C33" s="98" t="s">
@@ -31250,7 +31250,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="122"/>
+      <c r="B34" s="121"/>
       <c r="C34" s="61" t="s">
         <v>162</v>
       </c>
@@ -31351,7 +31351,7 @@
       <c r="E41" s="65"/>
     </row>
     <row r="42" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="120" t="s">
+      <c r="B42" s="126" t="s">
         <v>97</v>
       </c>
       <c r="C42" s="57" t="s">
@@ -31371,7 +31371,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="117"/>
+      <c r="B43" s="122"/>
       <c r="C43" s="61" t="s">
         <v>170</v>
       </c>
@@ -31389,7 +31389,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="120" t="s">
+      <c r="B44" s="126" t="s">
         <v>100</v>
       </c>
       <c r="C44" s="57" t="s">
@@ -31409,7 +31409,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="117"/>
+      <c r="B45" s="122"/>
       <c r="C45" s="61" t="s">
         <v>170</v>
       </c>
@@ -31459,7 +31459,7 @@
       <c r="G48" s="60"/>
     </row>
     <row r="49" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="116" t="s">
+      <c r="B49" s="119" t="s">
         <v>177</v>
       </c>
       <c r="C49" s="57" t="s">
@@ -31479,7 +31479,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="38.25" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="117"/>
+      <c r="B50" s="122"/>
       <c r="C50" s="95" t="s">
         <v>178</v>
       </c>
@@ -31551,13 +31551,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:E18"/>
@@ -31570,6 +31563,13 @@
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="B44:B45"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31581,7 +31581,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F475A5F5-D44D-4B5E-A814-9E5FAFFD7429}">
   <dimension ref="B1:AM64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -32888,7 +32890,7 @@
       </c>
       <c r="G31" s="132"/>
       <c r="H31" s="132" t="str">
-        <f>IF(OR(C39="攻撃可能",F39="攻撃可能",I39="攻撃可能",L39="攻撃可能",O39="攻撃可能",R39),"攻撃可能","攻撃困難")</f>
+        <f>IF(OR(C39="攻撃可能",F39="攻撃可能",I39="攻撃可能",L39="攻撃可能",O39="攻撃可能",R39="攻撃可能"),"攻撃可能","攻撃困難")</f>
         <v>攻撃困難</v>
       </c>
       <c r="I31" s="1"/>
@@ -34182,13 +34184,13 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="133" t="s">
+      <c r="B8" s="135" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="110" t="s">
         <v>267</v>
       </c>
-      <c r="D8" s="135" t="str">
+      <c r="D8" s="133" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE43="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
@@ -34201,9 +34203,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B9" s="134"/>
+      <c r="B9" s="136"/>
       <c r="C9" s="112"/>
-      <c r="D9" s="136"/>
+      <c r="D9" s="134"/>
       <c r="E9" s="3" t="s">
         <v>269</v>
       </c>
@@ -34221,13 +34223,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="133" t="s">
+      <c r="C11" s="135" t="s">
         <v>272</v>
       </c>
-      <c r="D11" s="135" t="str">
+      <c r="D11" s="133" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE44="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
@@ -34240,9 +34242,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="117"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="136"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="134"/>
       <c r="E12" s="3" t="s">
         <v>274</v>
       </c>
@@ -34252,13 +34254,13 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="133" t="s">
+      <c r="C13" s="135" t="s">
         <v>275</v>
       </c>
-      <c r="D13" s="135" t="str">
+      <c r="D13" s="133" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE45="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
@@ -34271,9 +34273,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B14" s="117"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="136"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="134"/>
       <c r="E14" s="3" t="s">
         <v>277</v>
       </c>
@@ -34283,13 +34285,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B15" s="120" t="s">
+      <c r="B15" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="133" t="s">
+      <c r="C15" s="135" t="s">
         <v>278</v>
       </c>
-      <c r="D15" s="135" t="str">
+      <c r="D15" s="133" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE46="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
@@ -34302,9 +34304,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B16" s="117"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="136"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="134"/>
       <c r="E16" s="3" t="s">
         <v>280</v>
       </c>
@@ -34314,13 +34316,13 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B17" s="120" t="s">
+      <c r="B17" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="133" t="s">
+      <c r="C17" s="135" t="s">
         <v>281</v>
       </c>
-      <c r="D17" s="135" t="str">
+      <c r="D17" s="133" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE47="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
@@ -34333,9 +34335,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B18" s="117"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="136"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="134"/>
       <c r="E18" s="3" t="s">
         <v>283</v>
       </c>
@@ -34353,13 +34355,13 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B21" s="120" t="s">
+      <c r="B21" s="126" t="s">
         <v>66</v>
       </c>
       <c r="C21" s="110" t="s">
         <v>286</v>
       </c>
-      <c r="D21" s="135" t="str">
+      <c r="D21" s="133" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE48="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
@@ -34372,9 +34374,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B22" s="117"/>
+      <c r="B22" s="122"/>
       <c r="C22" s="112"/>
-      <c r="D22" s="136"/>
+      <c r="D22" s="134"/>
       <c r="E22" s="3" t="s">
         <v>288</v>
       </c>
@@ -34741,6 +34743,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="B8:B9"/>
@@ -34750,15 +34761,6 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B8:D9">
@@ -37366,18 +37368,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="F58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="F46:G47"/>
+    <mergeCell ref="H46:H47"/>
     <mergeCell ref="F4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="F16:G17"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="F28:G29"/>
     <mergeCell ref="H28:H29"/>
-    <mergeCell ref="F75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="F58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="F46:G47"/>
-    <mergeCell ref="H46:H47"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37858,6 +37860,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007AAF6AF0C7CE7549A5D17CD937362787" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="f5cd2b5f7d3f6ddbce5e585ec9eab84e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dd0e0625-2e83-4ad5-b9cb-f9d91ab6ed74" xmlns:ns3="6eb0dd79-bb85-4255-8a9f-502eb203acbd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a25ac27321eaa39cc65e1fa75f305940" ns2:_="" ns3:_="">
     <xsd:import namespace="dd0e0625-2e83-4ad5-b9cb-f9d91ab6ed74"/>
@@ -38074,12 +38082,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -38090,6 +38092,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BAF797F-BBAB-4E83-A10E-06794A3228FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{781D8A5B-1BCE-4AD2-86B6-C000ADF5C228}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -38108,15 +38119,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BAF797F-BBAB-4E83-A10E-06794A3228FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DDC6F79-1B2D-4025-AD7D-7E0CCE89759B}">
   <ds:schemaRefs>

--- a/util/AI-RiskDiagnoseTool.xlsx
+++ b/util/AI-RiskDiagnoseTool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyajima\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2181F529-C08C-46BC-8350-7E07BE0D9609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9D9413-2DDA-4815-8BC9-672BC311C9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="2130" windowWidth="25560" windowHeight="13155" activeTab="3" xr2:uid="{7FFC3D60-456E-4EF0-A58D-4DA55A3AFCD4}"/>
+    <workbookView xWindow="3195" yWindow="480" windowWidth="25560" windowHeight="15165" firstSheet="1" activeTab="1" xr2:uid="{7FFC3D60-456E-4EF0-A58D-4DA55A3AFCD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Ⅰ. AIの定義" sheetId="10" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="509">
   <si>
     <t>本分析の利用方法</t>
     <rPh sb="0" eb="1">
@@ -1201,9 +1201,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>7-3</t>
-  </si>
-  <si>
     <t>条件7-3</t>
     <rPh sb="0" eb="2">
       <t>ジョウケン</t>
@@ -3557,16 +3554,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>条件7-2が成立</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セイリツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>条件2-1が成立</t>
     <rPh sb="6" eb="8">
       <t>セイリツ</t>
@@ -4106,17 +4093,6 @@
   </si>
   <si>
     <t>条件4-5
-が成立</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>セイリツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>条件7-3
 が成立</t>
     <rPh sb="0" eb="2">
       <t>ジョウケン</t>
@@ -5806,23 +5782,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">【7-1】がYesであった場合、
-AIシステムの仕様として想定するデータと類似のデータセットを、想定攻撃者が1,000個程度以上、何らかの手段で準備・入手できますか？
-</t>
-    <rPh sb="13" eb="15">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="48" eb="53">
-      <t>ソウテイコウゲキシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【7-2】がYesであった場合、
-AIシステムの仕様として想定するデータと類似のデータセットを、想定攻撃者が10,000個程度以上、何らかの手段で準備・入手できますか？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>推薦システム
 （利用者の操作ログを定期的に自動で訓練する場合）</t>
     <rPh sb="0" eb="2">
@@ -5944,6 +5903,108 @@
     </rPh>
     <rPh sb="23" eb="24">
       <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【7-1】がYesであった場合、
+AIシステムの仕様として想定するデータと類似のデータセットを、想定攻撃者が100個程度以上、何らかの手段で準備・入手できますか？
+</t>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="48" eb="53">
+      <t>ソウテイコウゲキシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【7-2】がYesであった場合、
+AIシステムの仕様として想定するデータと類似のデータセットを、想定攻撃者が1,000個程度以上、何らかの手段で準備・入手できますか？
+</t>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="48" eb="53">
+      <t>ソウテイコウゲキシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【7-3】がYesであった場合、
+AIシステムの仕様として想定するデータと類似のデータセットを、想定攻撃者が10,000個程度以上、何らかの手段で準備・入手できますか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件7-4</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>類似データの100個以上の入手</t>
+    <rPh sb="0" eb="2">
+      <t>ルイジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問7-4</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件7-3が成立</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件7-4
+が成立</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件7-2
+が成立</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6925,7 +6986,27 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="155">
+  <dxfs count="165">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7434,6 +7515,97 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -7907,42 +8079,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -28775,8 +28912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F1E9E1-CEA0-4575-94D3-C17BD9DA2AB7}">
   <dimension ref="B1:T128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -28787,28 +28924,28 @@
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1" t="s">
         <v>389</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>390</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>391</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>392</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>393</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>394</v>
-      </c>
-      <c r="H1" t="s">
-        <v>395</v>
-      </c>
-      <c r="I1" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.4">
@@ -28847,10 +28984,10 @@
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.4">
       <c r="O3" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
@@ -28862,7 +28999,7 @@
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F4" s="132" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G4" s="132"/>
       <c r="H4" s="132" t="str">
@@ -28871,10 +29008,10 @@
       </c>
       <c r="I4" s="1"/>
       <c r="O4" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S4" s="7"/>
       <c r="T4" s="15" t="str">
@@ -28891,7 +29028,7 @@
         <v>51</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S5" s="7"/>
       <c r="T5" s="15" t="str">
@@ -28907,7 +29044,7 @@
         <v>53</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S6" s="7"/>
       <c r="T6" s="15" t="str">
@@ -28923,7 +29060,7 @@
         <v>55</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S7" s="7"/>
       <c r="T7" s="15" t="str">
@@ -28938,7 +29075,7 @@
         <v>66</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S8" s="7"/>
       <c r="T8" s="15" t="str">
@@ -28956,7 +29093,7 @@
         <v>70</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S9" s="7"/>
       <c r="T9" s="15" t="str">
@@ -28980,7 +29117,7 @@
         <v>75</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S10" s="7"/>
       <c r="T10" s="15" t="str">
@@ -29001,7 +29138,7 @@
         <v>79</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="S11" s="7"/>
       <c r="T11" s="15" t="str">
@@ -29011,28 +29148,28 @@
     </row>
     <row r="12" spans="2:20" ht="131.25" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C12" s="3" t="str">
         <f>T6</f>
         <v>FALSE</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>T8</f>
         <v>FALSE</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I12" s="3" t="str">
         <f>T10</f>
         <v>FALSE</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L12" s="3" t="str">
         <f>IF(OR(G18="TRUE",J18="TRUE",M18="TRUE"),"TRUE","FALSE")</f>
@@ -29042,7 +29179,7 @@
         <v>81</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="S12" s="7"/>
       <c r="T12" s="15" t="str">
@@ -29057,7 +29194,7 @@
         <v>83</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="S13" s="7"/>
       <c r="T13" s="15" t="str">
@@ -29072,7 +29209,7 @@
         <v>85</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="S14" s="7"/>
       <c r="T14" s="15" t="str">
@@ -29087,7 +29224,7 @@
         <v>87</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S15" s="7"/>
       <c r="T15" s="15" t="str">
@@ -29105,7 +29242,7 @@
         <v>90</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="S16" s="7"/>
       <c r="T16" s="15" t="str">
@@ -29123,10 +29260,10 @@
       <c r="L17" s="18"/>
       <c r="M17" s="12"/>
       <c r="O17" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S17" s="7"/>
       <c r="T17" s="15" t="str">
@@ -29136,31 +29273,31 @@
     </row>
     <row r="18" spans="3:20" ht="37.5" x14ac:dyDescent="0.4">
       <c r="F18" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G18" s="3" t="str">
         <f>T11</f>
         <v>FALSE</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J18" s="3" t="str">
         <f>T14</f>
         <v>FALSE</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>403</v>
+        <v>507</v>
       </c>
       <c r="M18" s="3" t="str">
-        <f>T23</f>
+        <f>T24</f>
         <v>FALSE</v>
       </c>
       <c r="O18" s="15" t="s">
         <v>99</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="S18" s="7"/>
       <c r="T18" s="15" t="str">
@@ -29173,7 +29310,7 @@
         <v>102</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S19" s="7"/>
       <c r="T19" s="15" t="str">
@@ -29186,7 +29323,7 @@
         <v>105</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S20" s="7"/>
       <c r="T20" s="15" t="str">
@@ -29199,7 +29336,7 @@
         <v>109</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="15" t="str">
@@ -29209,7 +29346,7 @@
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.4">
       <c r="F22" s="132" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G22" s="132"/>
       <c r="H22" s="132" t="str">
@@ -29221,7 +29358,7 @@
         <v>111</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>259</v>
+        <v>504</v>
       </c>
       <c r="S22" s="7"/>
       <c r="T22" s="15" t="str">
@@ -29235,10 +29372,10 @@
       <c r="H23" s="132"/>
       <c r="I23" s="1"/>
       <c r="O23" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="S23" s="7"/>
       <c r="T23" s="15" t="str">
@@ -29250,16 +29387,14 @@
       <c r="F24" s="1"/>
       <c r="G24" s="6"/>
       <c r="H24" s="5"/>
-      <c r="O24" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="P24" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="16" t="str">
+      <c r="O24" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="S24" s="7"/>
+      <c r="T24" s="15" t="str">
         <f>'Ⅳ. 総合判定結果'!AE64</f>
         <v>FALSE</v>
       </c>
@@ -29268,6 +29403,19 @@
       <c r="F25" s="1"/>
       <c r="G25" s="19"/>
       <c r="H25" s="20"/>
+      <c r="O25" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="P25" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="16" t="str">
+        <f>'Ⅳ. 総合判定結果'!AE65</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.4">
       <c r="G26" s="7"/>
@@ -29292,21 +29440,21 @@
     </row>
     <row r="29" spans="3:20" ht="131.25" x14ac:dyDescent="0.4">
       <c r="C29" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D29" s="3" t="str">
         <f>T7</f>
         <v>FALSE</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H29" s="3" t="str">
         <f>T9</f>
         <v>FALSE</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="L29" s="3" t="str">
         <f>IF(OR(J34="TRUE",M34="TRUE"),"TRUE","FALSE")</f>
@@ -29341,14 +29489,14 @@
       <c r="B34" s="1"/>
       <c r="E34" s="1"/>
       <c r="I34" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J34" s="3" t="str">
         <f>T10</f>
         <v>FALSE</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M34" s="3" t="str">
         <f>T12</f>
@@ -29357,7 +29505,7 @@
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.4">
       <c r="F38" s="132" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G38" s="132"/>
       <c r="H38" s="132" t="str">
@@ -29418,28 +29566,28 @@
     </row>
     <row r="46" spans="2:13" ht="131.25" x14ac:dyDescent="0.4">
       <c r="B46" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C46" s="3" t="str">
         <f>T4</f>
         <v>FALSE</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F46" s="3" t="str">
         <f>T9</f>
         <v>FALSE</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I46" s="3" t="str">
         <f>IF('Ⅳ. 総合判定結果'!E4="攻撃可能","TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="L46" s="3" t="str">
         <f>IF(OR(J52="TRUE",M52="TRUE"),"TRUE","FALSE")</f>
@@ -29471,14 +29619,14 @@
     </row>
     <row r="52" spans="2:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="I52" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J52" s="3" t="str">
         <f>T10</f>
         <v>FALSE</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M52" s="3" t="str">
         <f>T12</f>
@@ -29487,7 +29635,7 @@
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.4">
       <c r="F56" s="132" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G56" s="132"/>
       <c r="H56" s="132" t="str">
@@ -29548,28 +29696,28 @@
     </row>
     <row r="64" spans="2:13" ht="131.25" x14ac:dyDescent="0.4">
       <c r="B64" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C64" s="3" t="str">
         <f>T4</f>
         <v>FALSE</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F64" s="3" t="str">
         <f>T8</f>
         <v>FALSE</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="I64" s="3" t="str">
         <f>T16</f>
         <v>FALSE</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="L64" s="3" t="str">
         <f>IF(OR(J70="TRUE",M70="TRUE"),"TRUE","FALSE")</f>
@@ -29601,14 +29749,14 @@
     </row>
     <row r="70" spans="3:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="I70" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J70" s="3" t="str">
         <f>T10</f>
         <v>FALSE</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M70" s="3" t="str">
         <f>T12</f>
@@ -29617,7 +29765,7 @@
     </row>
     <row r="74" spans="3:13" x14ac:dyDescent="0.4">
       <c r="F74" s="132" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G74" s="132"/>
       <c r="H74" s="132" t="str">
@@ -29665,21 +29813,21 @@
     </row>
     <row r="81" spans="2:15" ht="131.25" x14ac:dyDescent="0.4">
       <c r="C81" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D81" s="3" t="str">
         <f>T5</f>
         <v>FALSE</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H81" s="3" t="str">
         <f>T9</f>
         <v>FALSE</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="L81" s="3" t="str">
         <f>IF(OR(J86="TRUE",M86="TRUE"),"TRUE","FALSE")</f>
@@ -29714,14 +29862,14 @@
       <c r="B86" s="1"/>
       <c r="E86" s="1"/>
       <c r="I86" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J86" s="3" t="str">
         <f>T10</f>
         <v>FALSE</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M86" s="3" t="str">
         <f>T12</f>
@@ -29730,7 +29878,7 @@
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.4">
       <c r="F90" s="132" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G90" s="132"/>
       <c r="H90" s="132" t="str">
@@ -29799,38 +29947,38 @@
     </row>
     <row r="98" spans="2:15" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B98" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C98" s="3" t="str">
         <f>T4</f>
         <v>FALSE</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F98" s="3" t="str">
         <f>T8</f>
         <v>FALSE</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="I98" s="3" t="str">
         <f>IF(OR(G103="TRUE",J103="TRUE"),"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="L98" s="3" t="str">
         <f>T19</f>
         <v>FALSE</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>403</v>
+        <v>507</v>
       </c>
       <c r="O98" s="3" t="str">
-        <f>T23</f>
+        <f>T24</f>
         <v>FALSE</v>
       </c>
     </row>
@@ -29857,14 +30005,14 @@
     </row>
     <row r="103" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="F103" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G103" s="3" t="str">
         <f>T10</f>
         <v>FALSE</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="J103" s="3" t="str">
         <f>T12</f>
@@ -29873,7 +30021,7 @@
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.4">
       <c r="F107" s="132" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G107" s="132"/>
       <c r="H107" s="132" t="str">
@@ -29942,38 +30090,38 @@
     </row>
     <row r="115" spans="2:15" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B115" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C115" s="3" t="str">
         <f>T4</f>
         <v>FALSE</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F115" s="3" t="str">
         <f>T8</f>
         <v>FALSE</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="I115" s="3" t="str">
         <f>IF(OR(G120="TRUE",J120="TRUE"),"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="L115" s="3" t="str">
         <f>T16</f>
         <v>FALSE</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>420</v>
+        <v>508</v>
       </c>
       <c r="O115" s="3" t="str">
-        <f>T19</f>
+        <f>T22</f>
         <v>FALSE</v>
       </c>
     </row>
@@ -30000,14 +30148,14 @@
     </row>
     <row r="120" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="F120" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G120" s="3" t="str">
         <f>T10</f>
         <v>FALSE</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="J120" s="3" t="str">
         <f>T12</f>
@@ -30016,7 +30164,7 @@
     </row>
     <row r="124" spans="2:15" x14ac:dyDescent="0.4">
       <c r="F124" s="137" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G124" s="138"/>
       <c r="H124" s="141" t="str">
@@ -30040,7 +30188,7 @@
     </row>
     <row r="128" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="G128" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H128" s="3" t="str">
         <f>T15</f>
@@ -30075,9 +30223,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD9C5DD-27D5-43CC-B03F-1770E07F8AF5}">
-  <dimension ref="A2:J55"/>
+  <dimension ref="A2:J56"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -30124,7 +30274,7 @@
       </c>
       <c r="D4" s="77"/>
       <c r="E4" s="106" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="107" t="s">
@@ -30145,7 +30295,7 @@
       </c>
       <c r="D5" s="77"/>
       <c r="E5" s="106" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G5" s="108"/>
       <c r="H5" s="109"/>
@@ -30159,7 +30309,7 @@
         <v>46</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="166.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -30171,7 +30321,7 @@
       </c>
       <c r="D8" s="77"/>
       <c r="E8" s="113" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>49</v>
@@ -30187,7 +30337,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="93" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D9" s="77"/>
       <c r="E9" s="114"/>
@@ -30205,7 +30355,7 @@
         <v>52</v>
       </c>
       <c r="C10" s="93" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D10" s="77"/>
       <c r="E10" s="114"/>
@@ -30223,7 +30373,7 @@
         <v>54</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D11" s="78"/>
       <c r="E11" s="114"/>
@@ -30254,7 +30404,7 @@
       <c r="C13" s="43"/>
       <c r="D13" s="13"/>
       <c r="E13" s="44" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
@@ -30271,7 +30421,7 @@
       </c>
       <c r="D14" s="76"/>
       <c r="E14" s="114" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>49</v>
@@ -30287,7 +30437,7 @@
         <v>59</v>
       </c>
       <c r="C15" s="93" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D15" s="77"/>
       <c r="E15" s="114"/>
@@ -30305,7 +30455,7 @@
         <v>60</v>
       </c>
       <c r="C16" s="93" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D16" s="77"/>
       <c r="E16" s="114"/>
@@ -30323,7 +30473,7 @@
         <v>61</v>
       </c>
       <c r="C17" s="93" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D17" s="77"/>
       <c r="E17" s="115"/>
@@ -30359,7 +30509,7 @@
       </c>
       <c r="D20" s="77"/>
       <c r="E20" s="94" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>66</v>
@@ -30408,7 +30558,7 @@
       </c>
       <c r="D24" s="77"/>
       <c r="E24" s="94" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>75</v>
@@ -30444,11 +30594,11 @@
         <v>80</v>
       </c>
       <c r="C26" s="93" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D26" s="77"/>
       <c r="E26" s="110" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>81</v>
@@ -30464,7 +30614,7 @@
         <v>82</v>
       </c>
       <c r="C27" s="93" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D27" s="77"/>
       <c r="E27" s="111"/>
@@ -30482,7 +30632,7 @@
         <v>84</v>
       </c>
       <c r="C28" s="93" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D28" s="77"/>
       <c r="E28" s="112"/>
@@ -30500,7 +30650,7 @@
         <v>86</v>
       </c>
       <c r="C29" s="93" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D29" s="77"/>
       <c r="E29" s="94" t="s">
@@ -30549,7 +30699,7 @@
         <v>93</v>
       </c>
       <c r="C33" s="93" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D33" s="77"/>
       <c r="E33" s="94" t="s">
@@ -30582,7 +30732,7 @@
       </c>
       <c r="D36" s="77"/>
       <c r="E36" s="94" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>99</v>
@@ -30602,7 +30752,7 @@
       </c>
       <c r="D37" s="77"/>
       <c r="E37" s="94" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>102</v>
@@ -30647,11 +30797,11 @@
         <v>108</v>
       </c>
       <c r="C41" s="93" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D41" s="77"/>
       <c r="E41" s="110" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>109</v>
@@ -30666,8 +30816,8 @@
       <c r="B42" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="93" t="s">
-        <v>495</v>
+      <c r="C42" s="101" t="s">
+        <v>498</v>
       </c>
       <c r="D42" s="77"/>
       <c r="E42" s="111"/>
@@ -30680,17 +30830,17 @@
       </c>
       <c r="J42" s="81"/>
     </row>
-    <row r="43" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" ht="75" x14ac:dyDescent="0.4">
       <c r="B43" s="36" t="s">
+        <v>501</v>
+      </c>
+      <c r="C43" s="93" t="s">
+        <v>499</v>
+      </c>
+      <c r="D43" s="77"/>
+      <c r="E43" s="111"/>
+      <c r="G43" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="C43" s="93" t="s">
-        <v>496</v>
-      </c>
-      <c r="D43" s="77"/>
-      <c r="E43" s="112"/>
-      <c r="G43" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="H43" s="3" t="str">
         <f>IF(D43="Yes","TRUE","FALSE")</f>
@@ -30698,58 +30848,76 @@
       </c>
       <c r="J43" s="81"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
+    <row r="44" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B44" s="36" t="s">
+        <v>502</v>
+      </c>
+      <c r="C44" s="93" t="s">
+        <v>500</v>
+      </c>
+      <c r="D44" s="77"/>
+      <c r="E44" s="112"/>
+      <c r="G44" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="H44" s="3" t="str">
+        <f>IF(D44="Yes","TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
+      <c r="J44" s="81"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="C45" s="47" t="s">
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="B47" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" ht="93.75" x14ac:dyDescent="0.4">
-      <c r="B46" s="36" t="s">
+      <c r="C47" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="C46" s="93" t="s">
+      <c r="D47" s="77"/>
+      <c r="E47" s="94" t="s">
+        <v>69</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D46" s="77"/>
-      <c r="E46" s="94" t="s">
-        <v>69</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H46" s="3" t="str">
-        <f>IF(D46="Yes","TRUE","FALSE")</f>
+      <c r="H47" s="3" t="str">
+        <f>IF(D47="Yes","TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="J46" s="81"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
-        <v>119</v>
-      </c>
+      <c r="J47" s="81"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="E41:E44"/>
     <mergeCell ref="E26:E28"/>
     <mergeCell ref="E8:E11"/>
     <mergeCell ref="E14:E17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46 D36:D38 D4:D5 D41:D43 D8:D17 D33 D24:D30 D20:D21" xr:uid="{6E283085-65E7-4281-833C-D3B22715909A}">
-      <formula1>$A$54:$A$55</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D47 D20:D21 D24:D30 D33 D8:D17 D36:D38 D4:D5 D41:D44" xr:uid="{6E283085-65E7-4281-833C-D3B22715909A}">
+      <formula1>$A$55:$A$56</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30781,7 +30949,7 @@
         <v>36</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
@@ -30792,16 +30960,16 @@
         <v>39</v>
       </c>
       <c r="D3" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="F3" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="G3" s="55" t="s">
         <v>124</v>
-      </c>
-      <c r="G3" s="55" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -30809,19 +30977,19 @@
         <v>41</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D4" s="102" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E4" s="102" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F4" s="102" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G4" s="102" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="38.25" thickTop="1" x14ac:dyDescent="0.4">
@@ -30829,19 +30997,19 @@
         <v>44</v>
       </c>
       <c r="C5" s="95" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D5" s="99" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="99" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="99" t="s">
+      <c r="F5" s="99" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="99" t="s">
-        <v>128</v>
-      </c>
       <c r="G5" s="99" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -30858,94 +31026,94 @@
     </row>
     <row r="8" spans="1:7" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="119" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="D8" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="E8" s="102" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="102" t="s">
-        <v>434</v>
-      </c>
-      <c r="E8" s="102" t="s">
-        <v>131</v>
-      </c>
       <c r="F8" s="102" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G8" s="102" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="120"/>
       <c r="C9" s="98" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D9" s="67" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E9" s="67" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F9" s="67" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G9" s="67" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="121"/>
       <c r="C10" s="61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D10" s="62" t="s">
+        <v>435</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>436</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>437</v>
+      </c>
+      <c r="G10" s="62" t="s">
         <v>438</v>
-      </c>
-      <c r="E10" s="62" t="s">
-        <v>439</v>
-      </c>
-      <c r="F10" s="62" t="s">
-        <v>440</v>
-      </c>
-      <c r="G10" s="62" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="121"/>
       <c r="C11" s="97" t="s">
+        <v>439</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>435</v>
+      </c>
+      <c r="E11" s="100" t="s">
+        <v>440</v>
+      </c>
+      <c r="F11" s="100" t="s">
+        <v>441</v>
+      </c>
+      <c r="G11" s="62" t="s">
         <v>442</v>
-      </c>
-      <c r="D11" s="62" t="s">
-        <v>438</v>
-      </c>
-      <c r="E11" s="100" t="s">
-        <v>443</v>
-      </c>
-      <c r="F11" s="100" t="s">
-        <v>444</v>
-      </c>
-      <c r="G11" s="62" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="121"/>
       <c r="C12" s="123" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="118" t="s">
+        <v>435</v>
+      </c>
+      <c r="E12" s="116" t="s">
         <v>133</v>
       </c>
-      <c r="D12" s="118" t="s">
-        <v>438</v>
-      </c>
-      <c r="E12" s="116" t="s">
-        <v>134</v>
-      </c>
       <c r="F12" s="116" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G12" s="118" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -30970,40 +31138,40 @@
     </row>
     <row r="16" spans="1:7" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="119" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D16" s="104" t="s">
+        <v>443</v>
+      </c>
+      <c r="E16" s="104" t="s">
+        <v>444</v>
+      </c>
+      <c r="F16" s="104" t="s">
+        <v>445</v>
+      </c>
+      <c r="G16" s="104" t="s">
         <v>446</v>
-      </c>
-      <c r="E16" s="104" t="s">
-        <v>447</v>
-      </c>
-      <c r="F16" s="104" t="s">
-        <v>448</v>
-      </c>
-      <c r="G16" s="104" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="120"/>
       <c r="C17" s="123" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="116" t="s">
+        <v>443</v>
+      </c>
+      <c r="E17" s="116" t="s">
         <v>138</v>
       </c>
-      <c r="D17" s="116" t="s">
-        <v>446</v>
-      </c>
-      <c r="E17" s="116" t="s">
-        <v>139</v>
-      </c>
       <c r="F17" s="116" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G17" s="116" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -31017,55 +31185,55 @@
     <row r="19" spans="1:7" ht="132.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="121"/>
       <c r="C19" s="61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D19" s="104" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E19" s="62" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F19" s="67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G19" s="62" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="170.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="121"/>
       <c r="C20" s="98" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="104" t="s">
+        <v>449</v>
+      </c>
+      <c r="E20" s="67" t="s">
+        <v>450</v>
+      </c>
+      <c r="F20" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="D20" s="104" t="s">
-        <v>452</v>
-      </c>
-      <c r="E20" s="67" t="s">
-        <v>453</v>
-      </c>
-      <c r="F20" s="67" t="s">
-        <v>137</v>
-      </c>
       <c r="G20" s="67" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="122"/>
       <c r="C21" s="95" t="s">
+        <v>452</v>
+      </c>
+      <c r="D21" s="105" t="s">
+        <v>443</v>
+      </c>
+      <c r="E21" s="103" t="s">
+        <v>453</v>
+      </c>
+      <c r="F21" s="103" t="s">
+        <v>454</v>
+      </c>
+      <c r="G21" s="103" t="s">
         <v>455</v>
-      </c>
-      <c r="D21" s="105" t="s">
-        <v>446</v>
-      </c>
-      <c r="E21" s="103" t="s">
-        <v>456</v>
-      </c>
-      <c r="F21" s="103" t="s">
-        <v>457</v>
-      </c>
-      <c r="G21" s="103" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
@@ -31084,37 +31252,37 @@
         <v>64</v>
       </c>
       <c r="C24" s="57" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D24" s="102" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E24" s="102" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F24" s="102" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G24" s="104" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="122"/>
       <c r="C25" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="62" t="s">
+        <v>467</v>
+      </c>
+      <c r="E25" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="62" t="s">
-        <v>470</v>
-      </c>
-      <c r="E25" s="62" t="s">
+      <c r="F25" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="F25" s="62" t="s">
+      <c r="G25" s="62" t="s">
         <v>143</v>
-      </c>
-      <c r="G25" s="62" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
@@ -31145,10 +31313,10 @@
         <v>71</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D28" s="65" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E28" s="65"/>
       <c r="G28" s="60"/>
@@ -31158,37 +31326,37 @@
         <v>73</v>
       </c>
       <c r="C29" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="102" t="s">
         <v>146</v>
       </c>
-      <c r="D29" s="102" t="s">
+      <c r="E29" s="102" t="s">
         <v>147</v>
       </c>
-      <c r="E29" s="102" t="s">
+      <c r="F29" s="102" t="s">
         <v>148</v>
       </c>
-      <c r="F29" s="102" t="s">
+      <c r="G29" s="102" t="s">
         <v>149</v>
-      </c>
-      <c r="G29" s="102" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B30" s="122"/>
       <c r="C30" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D30" s="62" t="s">
+      <c r="E30" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="E30" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="F30" s="62" t="s">
+      <c r="G30" s="62" t="s">
         <v>153</v>
-      </c>
-      <c r="G30" s="62" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -31196,80 +31364,80 @@
         <v>76</v>
       </c>
       <c r="C31" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="D31" s="102" t="s">
-        <v>156</v>
-      </c>
       <c r="E31" s="102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F31" s="102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G31" s="102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B32" s="122"/>
       <c r="C32" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="D32" s="102" t="s">
         <v>157</v>
       </c>
-      <c r="D32" s="102" t="s">
-        <v>158</v>
-      </c>
       <c r="E32" s="102" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F32" s="102" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G32" s="102" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B33" s="119" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="98" t="s">
+        <v>457</v>
+      </c>
+      <c r="D33" s="67" t="s">
+        <v>472</v>
+      </c>
+      <c r="E33" s="67" t="s">
+        <v>471</v>
+      </c>
+      <c r="F33" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="C33" s="98" t="s">
-        <v>460</v>
-      </c>
-      <c r="D33" s="67" t="s">
-        <v>475</v>
-      </c>
-      <c r="E33" s="67" t="s">
-        <v>474</v>
-      </c>
-      <c r="F33" s="67" t="s">
+      <c r="G33" s="68" t="s">
         <v>160</v>
-      </c>
-      <c r="G33" s="68" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="121"/>
       <c r="C34" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" s="62" t="s">
+        <v>473</v>
+      </c>
+      <c r="E34" s="62" t="s">
+        <v>474</v>
+      </c>
+      <c r="F34" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="D34" s="62" t="s">
-        <v>476</v>
-      </c>
-      <c r="E34" s="62" t="s">
-        <v>477</v>
-      </c>
-      <c r="F34" s="62" t="s">
+      <c r="G34" s="69" t="s">
         <v>163</v>
-      </c>
-      <c r="G34" s="69" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B35" s="66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C35" s="95" t="s">
         <v>69</v>
@@ -31289,7 +31457,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B36" s="66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C36" s="95" t="s">
         <v>69</v>
@@ -31355,37 +31523,37 @@
         <v>97</v>
       </c>
       <c r="C42" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="D42" s="102" t="s">
+        <v>468</v>
+      </c>
+      <c r="E42" s="102" t="s">
         <v>167</v>
       </c>
-      <c r="D42" s="102" t="s">
-        <v>471</v>
-      </c>
-      <c r="E42" s="102" t="s">
+      <c r="F42" s="102" t="s">
         <v>168</v>
       </c>
-      <c r="F42" s="102" t="s">
-        <v>169</v>
-      </c>
       <c r="G42" s="102" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B43" s="122"/>
       <c r="C43" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="62" t="s">
+        <v>469</v>
+      </c>
+      <c r="E43" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D43" s="62" t="s">
-        <v>472</v>
-      </c>
-      <c r="E43" s="62" t="s">
+      <c r="F43" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="F43" s="62" t="s">
-        <v>172</v>
-      </c>
       <c r="G43" s="62" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -31393,42 +31561,42 @@
         <v>100</v>
       </c>
       <c r="C44" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="D44" s="102" t="s">
+        <v>470</v>
+      </c>
+      <c r="E44" s="102" t="s">
+        <v>167</v>
+      </c>
+      <c r="F44" s="102" t="s">
         <v>173</v>
       </c>
-      <c r="D44" s="102" t="s">
-        <v>473</v>
-      </c>
-      <c r="E44" s="102" t="s">
-        <v>168</v>
-      </c>
-      <c r="F44" s="102" t="s">
-        <v>174</v>
-      </c>
       <c r="G44" s="102" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B45" s="122"/>
       <c r="C45" s="61" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D45" s="62" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E45" s="62" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F45" s="62" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G45" s="62" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B46" s="66" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C46" s="95" t="s">
         <v>69</v>
@@ -31460,40 +31628,40 @@
     </row>
     <row r="49" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B49" s="119" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C49" s="57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D49" s="102" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E49" s="102" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F49" s="102" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G49" s="102" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="38.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B50" s="122"/>
       <c r="C50" s="95" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D50" s="72" t="s">
+        <v>475</v>
+      </c>
+      <c r="E50" s="99" t="s">
+        <v>476</v>
+      </c>
+      <c r="F50" s="99" t="s">
         <v>478</v>
       </c>
-      <c r="E50" s="99" t="s">
+      <c r="G50" s="99" t="s">
         <v>479</v>
-      </c>
-      <c r="F50" s="99" t="s">
-        <v>481</v>
-      </c>
-      <c r="G50" s="99" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
@@ -31501,7 +31669,7 @@
     </row>
     <row r="52" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C52" s="37"/>
       <c r="D52" s="43"/>
@@ -31509,7 +31677,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B53" s="66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C53" s="70" t="s">
         <v>69</v>
@@ -31529,7 +31697,7 @@
     </row>
     <row r="61" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B61" s="53"/>
       <c r="C61" s="49"/>
@@ -31540,7 +31708,7 @@
     </row>
     <row r="62" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B62" s="53"/>
       <c r="C62" s="49"/>
@@ -31579,10 +31747,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F475A5F5-D44D-4B5E-A814-9E5FAFFD7429}">
-  <dimension ref="B1:AM64"/>
+  <dimension ref="B1:AN65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="H10" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -31597,44 +31765,44 @@
     <col min="32" max="32" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:39" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:39" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:40" ht="24" x14ac:dyDescent="0.4">
       <c r="B2" s="84" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="127" t="s">
         <v>179</v>
-      </c>
-      <c r="C2" s="127" t="s">
-        <v>180</v>
       </c>
       <c r="D2" s="128"/>
       <c r="E2" s="129" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F2" s="130"/>
       <c r="G2" s="131"/>
     </row>
-    <row r="3" spans="2:39" ht="96" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:40" ht="96" x14ac:dyDescent="0.4">
       <c r="B3" s="85" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="89" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="D3" s="89" t="s">
         <v>183</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="E3" s="90" t="s">
         <v>184</v>
       </c>
-      <c r="E3" s="90" t="s">
+      <c r="F3" s="90" t="s">
         <v>185</v>
       </c>
-      <c r="F3" s="90" t="s">
+      <c r="G3" s="91" t="s">
         <v>186</v>
       </c>
-      <c r="G3" s="91" t="s">
+    </row>
+    <row r="4" spans="2:40" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="86" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="2:39" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="86" t="s">
-        <v>188</v>
       </c>
       <c r="C4" s="87" t="str">
         <f>H9</f>
@@ -31657,14 +31825,14 @@
         <v>攻撃困難</v>
       </c>
     </row>
-    <row r="6" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:40" x14ac:dyDescent="0.4">
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q6" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>51</v>
@@ -31703,7 +31871,7 @@
         <v>90</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE6" s="3" t="s">
         <v>99</v>
@@ -31721,21 +31889,24 @@
         <v>111</v>
       </c>
       <c r="AJ6" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AK6" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AM6" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="AL6" s="3" t="s">
+      <c r="AN6" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AM6" s="3" t="s">
+    </row>
+    <row r="7" spans="2:40" x14ac:dyDescent="0.4">
+      <c r="N7" s="3" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="N7" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="O7" s="3" t="str">
         <f>'回避攻撃（敵対的サンプル）'!B2</f>
@@ -31780,10 +31951,11 @@
       <c r="AK7" s="3"/>
       <c r="AL7" s="3"/>
       <c r="AM7" s="3"/>
-    </row>
-    <row r="8" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="AN7" s="3"/>
+    </row>
+    <row r="8" spans="2:40" x14ac:dyDescent="0.4">
       <c r="N8" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O8" s="3" t="str">
         <f>'回避攻撃（敵対的サンプル）'!C2</f>
@@ -31823,17 +31995,18 @@
         <v>FALSE</v>
       </c>
       <c r="AH8" s="3"/>
-      <c r="AI8" s="3" t="str">
-        <f>'回避攻撃（敵対的サンプル）'!T22</f>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3" t="str">
+        <f>'回避攻撃（敵対的サンプル）'!T23</f>
         <v>FALSE</v>
       </c>
-      <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
-      <c r="AM8" s="3"/>
-    </row>
-    <row r="9" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL8" s="3"/>
+      <c r="AN8" s="3"/>
+    </row>
+    <row r="9" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F9" s="132" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G9" s="132"/>
       <c r="H9" s="132" t="str">
@@ -31842,7 +32015,7 @@
       </c>
       <c r="I9" s="1"/>
       <c r="N9" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O9" s="3" t="str">
         <f>'回避攻撃（敵対的サンプル）'!D2</f>
@@ -31876,19 +32049,20 @@
       <c r="AI9" s="3"/>
       <c r="AJ9" s="3"/>
       <c r="AK9" s="3"/>
-      <c r="AL9" s="3" t="str">
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3" t="str">
         <f>IF(E4="攻撃可能","TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="AM9" s="3"/>
-    </row>
-    <row r="10" spans="2:39" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AN9" s="3"/>
+    </row>
+    <row r="10" spans="2:40" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F10" s="132"/>
       <c r="G10" s="132"/>
       <c r="H10" s="132"/>
       <c r="I10" s="1"/>
       <c r="N10" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O10" s="3" t="str">
         <f>'回避攻撃（敵対的サンプル）'!E2</f>
@@ -31926,12 +32100,13 @@
       <c r="AJ10" s="3"/>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
-      <c r="AM10" s="3" t="str">
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3" t="str">
         <f>IF(D4="攻撃可能","TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
     </row>
-    <row r="11" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:40" x14ac:dyDescent="0.4">
       <c r="F11" s="1"/>
       <c r="G11" s="6"/>
       <c r="H11" s="5"/>
@@ -31961,13 +32136,14 @@
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
       <c r="AM11" s="3"/>
-    </row>
-    <row r="12" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="AN11" s="3"/>
+    </row>
+    <row r="12" spans="2:40" x14ac:dyDescent="0.4">
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="N12" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O12" s="3" t="str">
         <f>ポイズニング攻撃!B2</f>
@@ -32015,10 +32191,11 @@
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
-    </row>
-    <row r="13" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="AN12" s="3"/>
+    </row>
+    <row r="13" spans="2:40" x14ac:dyDescent="0.4">
       <c r="N13" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O13" s="3" t="str">
         <f>ポイズニング攻撃!C2</f>
@@ -32051,12 +32228,13 @@
       <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
       <c r="AM13" s="3"/>
-    </row>
-    <row r="14" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="AN13" s="3"/>
+    </row>
+    <row r="14" spans="2:40" x14ac:dyDescent="0.4">
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
       <c r="N14" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O14" s="3" t="str">
         <f>ポイズニング攻撃!D2</f>
@@ -32096,13 +32274,14 @@
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
-      <c r="AL14" s="3" t="str">
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3" t="str">
         <f>IF(E4="攻撃可能","TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="AM14" s="3"/>
-    </row>
-    <row r="15" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="AN14" s="3"/>
+    </row>
+    <row r="15" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B15" s="7"/>
       <c r="C15" s="10"/>
       <c r="D15" s="9"/>
@@ -32140,8 +32319,9 @@
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
       <c r="AM15" s="3"/>
-    </row>
-    <row r="16" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="AN15" s="3"/>
+    </row>
+    <row r="16" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
       <c r="E16" s="11"/>
@@ -32151,7 +32331,7 @@
       <c r="K16" s="11"/>
       <c r="L16" s="12"/>
       <c r="N16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O16" s="3" t="str">
         <f>モデル抽出攻撃!B2</f>
@@ -32190,38 +32370,39 @@
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
       <c r="AM16" s="3"/>
-    </row>
-    <row r="17" spans="2:39" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="AN16" s="3"/>
+    </row>
+    <row r="17" spans="2:40" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C17" s="3" t="str">
         <f>'回避攻撃（敵対的サンプル）'!B2</f>
         <v>攻撃困難</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F17" s="3" t="str">
         <f>'回避攻撃（敵対的サンプル）'!C2</f>
         <v>攻撃困難</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I17" s="3" t="str">
         <f>'回避攻撃（敵対的サンプル）'!D2</f>
         <v>攻撃困難</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L17" s="3" t="str">
         <f>'回避攻撃（敵対的サンプル）'!E2</f>
         <v>攻撃困難</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O17" s="3" t="str">
         <f>モデル抽出攻撃!C2</f>
@@ -32260,10 +32441,11 @@
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
       <c r="AM17" s="3"/>
-    </row>
-    <row r="18" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="AN17" s="3"/>
+    </row>
+    <row r="18" spans="2:40" x14ac:dyDescent="0.4">
       <c r="N18" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O18" s="3" t="str">
         <f>モデル抽出攻撃!D2</f>
@@ -32300,18 +32482,19 @@
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
-      <c r="AI18" s="3" t="str">
-        <f>モデル抽出攻撃!T22</f>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3" t="str">
+        <f>モデル抽出攻撃!T23</f>
         <v>FALSE</v>
       </c>
-      <c r="AJ18" s="3"/>
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
       <c r="AM18" s="3"/>
-    </row>
-    <row r="19" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="AN18" s="3"/>
+    </row>
+    <row r="19" spans="2:40" x14ac:dyDescent="0.4">
       <c r="N19" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O19" s="3" t="str">
         <f>モデル抽出攻撃!E2</f>
@@ -32347,16 +32530,17 @@
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3"/>
-      <c r="AK19" s="3" t="str">
-        <f>モデル抽出攻撃!T24</f>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3" t="str">
+        <f>モデル抽出攻撃!T25</f>
         <v>FALSE</v>
       </c>
-      <c r="AL19" s="3"/>
       <c r="AM19" s="3"/>
-    </row>
-    <row r="20" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="AN19" s="3"/>
+    </row>
+    <row r="20" spans="2:40" x14ac:dyDescent="0.4">
       <c r="F20" s="132" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G20" s="132"/>
       <c r="H20" s="132" t="str">
@@ -32365,7 +32549,7 @@
       </c>
       <c r="I20" s="1"/>
       <c r="N20" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O20" s="3" t="str">
         <f>モデル抽出攻撃!F2</f>
@@ -32401,20 +32585,21 @@
       <c r="AH20" s="3"/>
       <c r="AI20" s="3"/>
       <c r="AJ20" s="3"/>
-      <c r="AK20" s="3" t="str">
-        <f>モデル抽出攻撃!T24</f>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3" t="str">
+        <f>モデル抽出攻撃!T25</f>
         <v>FALSE</v>
       </c>
-      <c r="AL20" s="3"/>
       <c r="AM20" s="3"/>
-    </row>
-    <row r="21" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="AN20" s="3"/>
+    </row>
+    <row r="21" spans="2:40" x14ac:dyDescent="0.4">
       <c r="F21" s="132"/>
       <c r="G21" s="132"/>
       <c r="H21" s="132"/>
       <c r="I21" s="1"/>
       <c r="N21" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O21" s="3" t="str">
         <f>モデル抽出攻撃!G2</f>
@@ -32447,8 +32632,9 @@
       <c r="AK21" s="3"/>
       <c r="AL21" s="3"/>
       <c r="AM21" s="3"/>
-    </row>
-    <row r="22" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="AN21" s="3"/>
+    </row>
+    <row r="22" spans="2:40" x14ac:dyDescent="0.4">
       <c r="F22" s="1"/>
       <c r="G22" s="6"/>
       <c r="H22" s="5"/>
@@ -32478,13 +32664,14 @@
       <c r="AK22" s="3"/>
       <c r="AL22" s="3"/>
       <c r="AM22" s="3"/>
-    </row>
-    <row r="23" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="AN22" s="3"/>
+    </row>
+    <row r="23" spans="2:40" x14ac:dyDescent="0.4">
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="N23" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O23" s="3" t="str">
         <f>モデルインバージョン攻撃!B2</f>
@@ -32521,16 +32708,17 @@
         <v>FALSE</v>
       </c>
       <c r="AH23" s="3"/>
-      <c r="AI23" s="3" t="str">
-        <f>モデルインバージョン攻撃!T22</f>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3" t="str">
+        <f>モデルインバージョン攻撃!T23</f>
         <v>FALSE</v>
       </c>
-      <c r="AJ23" s="3"/>
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
       <c r="AM23" s="3"/>
-    </row>
-    <row r="24" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="AN23" s="3"/>
+    </row>
+    <row r="24" spans="2:40" x14ac:dyDescent="0.4">
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -32557,12 +32745,13 @@
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
       <c r="AM24" s="3"/>
-    </row>
-    <row r="25" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="AN24" s="3"/>
+    </row>
+    <row r="25" spans="2:40" x14ac:dyDescent="0.4">
       <c r="G25" s="7"/>
       <c r="H25" s="8"/>
       <c r="N25" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O25" s="3" t="str">
         <f>メンバシップ推測攻撃!B2</f>
@@ -32603,15 +32792,16 @@
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
-      <c r="AJ25" s="3" t="str">
-        <f>メンバシップ推測攻撃!T23</f>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3" t="str">
+        <f>メンバシップ推測攻撃!T24</f>
         <v>FALSE</v>
       </c>
-      <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
       <c r="AM25" s="3"/>
-    </row>
-    <row r="26" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="AN25" s="3"/>
+    </row>
+    <row r="26" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B26" s="7"/>
       <c r="C26" s="10"/>
       <c r="D26" s="9"/>
@@ -32621,7 +32811,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="8"/>
       <c r="N26" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O26" s="3" t="str">
         <f>メンバシップ推測攻撃!C2</f>
@@ -32663,8 +32853,9 @@
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
       <c r="AM26" s="3"/>
-    </row>
-    <row r="27" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="AN26" s="3"/>
+    </row>
+    <row r="27" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="E27" s="11"/>
@@ -32672,7 +32863,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="12"/>
       <c r="N27" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O27" s="3" t="str">
         <f>メンバシップ推測攻撃!D2</f>
@@ -32712,29 +32903,30 @@
       <c r="AI27" s="3"/>
       <c r="AJ27" s="3"/>
       <c r="AK27" s="3"/>
-      <c r="AL27" s="3" t="str">
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3" t="str">
         <f>IF(E4="攻撃可能","TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="AM27" s="3"/>
-    </row>
-    <row r="28" spans="2:39" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="AN27" s="3"/>
+    </row>
+    <row r="28" spans="2:40" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B28" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C28" s="3" t="str">
         <f>ポイズニング攻撃!B2</f>
         <v>攻撃困難</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F28" s="3" t="str">
         <f>ポイズニング攻撃!C2</f>
         <v>攻撃困難</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I28" s="3" t="str">
         <f>ポイズニング攻撃!D2</f>
@@ -32742,7 +32934,7 @@
       </c>
       <c r="K28" s="1"/>
       <c r="N28" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O28" s="3" t="str">
         <f>メンバシップ推測攻撃!E2</f>
@@ -32787,10 +32979,11 @@
       <c r="AK28" s="3"/>
       <c r="AL28" s="3"/>
       <c r="AM28" s="3"/>
-    </row>
-    <row r="29" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="AN28" s="3"/>
+    </row>
+    <row r="29" spans="2:40" x14ac:dyDescent="0.4">
       <c r="N29" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O29" s="3" t="str">
         <f>メンバシップ推測攻撃!F2</f>
@@ -32832,10 +33025,11 @@
       <c r="AK29" s="3"/>
       <c r="AL29" s="3"/>
       <c r="AM29" s="3"/>
-    </row>
-    <row r="30" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="AN29" s="3"/>
+    </row>
+    <row r="30" spans="2:40" x14ac:dyDescent="0.4">
       <c r="N30" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O30" s="3" t="str">
         <f>メンバシップ推測攻撃!G2</f>
@@ -32868,25 +33062,26 @@
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
-      <c r="AE30" s="3"/>
-      <c r="AF30" s="3" t="str">
-        <f>メンバシップ推測攻撃!T19</f>
+      <c r="AE30" s="3" t="str">
+        <f>メンバシップ推測攻撃!T18</f>
         <v>FALSE</v>
       </c>
+      <c r="AF30" s="3"/>
       <c r="AG30" s="3"/>
       <c r="AH30" s="3"/>
       <c r="AI30" s="3"/>
-      <c r="AJ30" s="3" t="str">
-        <f>メンバシップ推測攻撃!T23</f>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3" t="str">
+        <f>メンバシップ推測攻撃!T24</f>
         <v>FALSE</v>
       </c>
-      <c r="AK30" s="3"/>
       <c r="AL30" s="3"/>
       <c r="AM30" s="3"/>
-    </row>
-    <row r="31" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="AN30" s="3"/>
+    </row>
+    <row r="31" spans="2:40" x14ac:dyDescent="0.4">
       <c r="F31" s="132" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G31" s="132"/>
       <c r="H31" s="132" t="str">
@@ -32895,7 +33090,7 @@
       </c>
       <c r="I31" s="1"/>
       <c r="N31" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O31" s="3" t="str">
         <f>メンバシップ推測攻撃!H2</f>
@@ -32932,25 +33127,26 @@
       </c>
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
-      <c r="AF31" s="3" t="str">
-        <f>メンバシップ推測攻撃!T19</f>
-        <v>FALSE</v>
-      </c>
+      <c r="AF31" s="3"/>
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
-      <c r="AI31" s="3"/>
+      <c r="AI31" s="3" t="str">
+        <f>メンバシップ推測攻撃!T22</f>
+        <v>FALSE</v>
+      </c>
       <c r="AJ31" s="3"/>
       <c r="AK31" s="3"/>
       <c r="AL31" s="3"/>
       <c r="AM31" s="3"/>
-    </row>
-    <row r="32" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="AN31" s="3"/>
+    </row>
+    <row r="32" spans="2:40" x14ac:dyDescent="0.4">
       <c r="F32" s="132"/>
       <c r="G32" s="132"/>
       <c r="H32" s="132"/>
       <c r="I32" s="1"/>
       <c r="N32" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O32" s="3" t="str">
         <f>メンバシップ推測攻撃!I2</f>
@@ -32983,18 +33179,19 @@
       <c r="AK32" s="3"/>
       <c r="AL32" s="3"/>
       <c r="AM32" s="3"/>
-    </row>
-    <row r="33" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="AN32" s="3"/>
+    </row>
+    <row r="33" spans="2:40" x14ac:dyDescent="0.4">
       <c r="F33" s="1"/>
       <c r="G33" s="6"/>
       <c r="H33" s="5"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q33" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>51</v>
@@ -33033,7 +33230,7 @@
         <v>90</v>
       </c>
       <c r="AD33" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE33" s="3" t="s">
         <v>99</v>
@@ -33051,24 +33248,27 @@
         <v>111</v>
       </c>
       <c r="AJ33" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AK33" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL33" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AM33" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="AL33" s="3" t="s">
+      <c r="AN33" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AM33" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="34" spans="2:39" x14ac:dyDescent="0.4">
+    </row>
+    <row r="34" spans="2:40" x14ac:dyDescent="0.4">
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="36" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:40" x14ac:dyDescent="0.4">
       <c r="G36" s="7"/>
       <c r="H36" s="8"/>
       <c r="L36" s="13"/>
@@ -33077,7 +33277,7 @@
       <c r="O36" s="13"/>
       <c r="P36" s="13"/>
     </row>
-    <row r="37" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B37" s="7"/>
       <c r="C37" s="10"/>
       <c r="D37" s="9"/>
@@ -33096,7 +33296,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="8"/>
     </row>
-    <row r="38" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
       <c r="E38" s="11"/>
@@ -33110,53 +33310,53 @@
       <c r="Q38" s="11"/>
       <c r="R38" s="12"/>
     </row>
-    <row r="39" spans="2:39" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:40" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B39" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C39" s="3" t="str">
         <f>モデル抽出攻撃!B2</f>
         <v>攻撃困難</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F39" s="3" t="str">
         <f>モデル抽出攻撃!C2</f>
         <v>攻撃困難</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I39" s="3" t="str">
         <f>モデル抽出攻撃!D2</f>
         <v>攻撃困難</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L39" s="3" t="str">
         <f>モデル抽出攻撃!E2</f>
         <v>攻撃困難</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O39" s="3" t="str">
         <f>モデル抽出攻撃!F2</f>
         <v>攻撃困難</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R39" s="3" t="str">
         <f>モデル抽出攻撃!G2</f>
         <v>攻撃困難</v>
       </c>
     </row>
-    <row r="42" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:40" x14ac:dyDescent="0.4">
       <c r="F42" s="132" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G42" s="132"/>
       <c r="H42" s="132" t="str">
@@ -33165,16 +33365,16 @@
       </c>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:40" x14ac:dyDescent="0.4">
       <c r="F43" s="132"/>
       <c r="G43" s="132"/>
       <c r="H43" s="132"/>
       <c r="I43" s="1"/>
       <c r="Z43" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA43" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AB43" s="9"/>
       <c r="AC43" s="9"/>
@@ -33184,15 +33384,15 @@
         <v>FALSE</v>
       </c>
     </row>
-    <row r="44" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:40" x14ac:dyDescent="0.4">
       <c r="F44" s="1"/>
       <c r="G44" s="6"/>
       <c r="H44" s="5"/>
       <c r="Z44" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AA44" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AD44" s="7"/>
       <c r="AE44" s="15" t="str">
@@ -33200,7 +33400,7 @@
         <v>FALSE</v>
       </c>
     </row>
-    <row r="45" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:40" x14ac:dyDescent="0.4">
       <c r="F45" s="1"/>
       <c r="G45" s="19"/>
       <c r="H45" s="20"/>
@@ -33208,7 +33408,7 @@
         <v>51</v>
       </c>
       <c r="AA45" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AD45" s="7"/>
       <c r="AE45" s="15" t="str">
@@ -33216,14 +33416,14 @@
         <v>FALSE</v>
       </c>
     </row>
-    <row r="46" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:40" x14ac:dyDescent="0.4">
       <c r="G46" s="7"/>
       <c r="H46" s="8"/>
       <c r="Z46" s="15" t="s">
         <v>53</v>
       </c>
       <c r="AA46" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AD46" s="7"/>
       <c r="AE46" s="15" t="str">
@@ -33231,14 +33431,14 @@
         <v>FALSE</v>
       </c>
     </row>
-    <row r="47" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:40" x14ac:dyDescent="0.4">
       <c r="G47" s="7"/>
       <c r="H47" s="8"/>
       <c r="Z47" s="15" t="s">
         <v>55</v>
       </c>
       <c r="AA47" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AD47" s="7"/>
       <c r="AE47" s="15" t="str">
@@ -33246,14 +33446,14 @@
         <v>FALSE</v>
       </c>
     </row>
-    <row r="48" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:40" x14ac:dyDescent="0.4">
       <c r="G48" s="7"/>
       <c r="H48" s="8"/>
       <c r="Z48" s="15" t="s">
         <v>66</v>
       </c>
       <c r="AA48" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AD48" s="7"/>
       <c r="AE48" s="15" t="str">
@@ -33268,7 +33468,7 @@
         <v>70</v>
       </c>
       <c r="AA49" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AD49" s="7"/>
       <c r="AE49" s="15" t="str">
@@ -33279,7 +33479,7 @@
     <row r="50" spans="2:31" ht="56.25" x14ac:dyDescent="0.4">
       <c r="E50" s="1"/>
       <c r="G50" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H50" s="3" t="str">
         <f>モデルインバージョン攻撃!B2</f>
@@ -33289,7 +33489,7 @@
         <v>75</v>
       </c>
       <c r="AA50" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AD50" s="7"/>
       <c r="AE50" s="15" t="str">
@@ -33302,7 +33502,7 @@
         <v>79</v>
       </c>
       <c r="AA51" s="8" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AD51" s="7"/>
       <c r="AE51" s="15" t="str">
@@ -33315,7 +33515,7 @@
         <v>81</v>
       </c>
       <c r="AA52" s="8" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="AD52" s="7"/>
       <c r="AE52" s="15" t="str">
@@ -33325,7 +33525,7 @@
     </row>
     <row r="53" spans="2:31" x14ac:dyDescent="0.4">
       <c r="F53" s="132" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G53" s="132"/>
       <c r="H53" s="132" t="str">
@@ -33337,7 +33537,7 @@
         <v>83</v>
       </c>
       <c r="AA53" s="8" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="AD53" s="7"/>
       <c r="AE53" s="15" t="str">
@@ -33354,7 +33554,7 @@
         <v>85</v>
       </c>
       <c r="AA54" s="8" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="AD54" s="7"/>
       <c r="AE54" s="15" t="str">
@@ -33370,7 +33570,7 @@
         <v>87</v>
       </c>
       <c r="AA55" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AD55" s="7"/>
       <c r="AE55" s="15" t="str">
@@ -33386,7 +33586,7 @@
         <v>90</v>
       </c>
       <c r="AA56" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AD56" s="7"/>
       <c r="AE56" s="15" t="str">
@@ -33396,10 +33596,10 @@
     </row>
     <row r="57" spans="2:31" x14ac:dyDescent="0.4">
       <c r="Z57" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA57" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AD57" s="7"/>
       <c r="AE57" s="15" t="str">
@@ -33425,7 +33625,7 @@
         <v>99</v>
       </c>
       <c r="AA58" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AD58" s="7"/>
       <c r="AE58" s="15" t="str">
@@ -33461,7 +33661,7 @@
         <v>102</v>
       </c>
       <c r="AA59" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AD59" s="7"/>
       <c r="AE59" s="15" t="str">
@@ -33490,7 +33690,7 @@
         <v>105</v>
       </c>
       <c r="AA60" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AD60" s="7"/>
       <c r="AE60" s="15" t="str">
@@ -33500,56 +33700,56 @@
     </row>
     <row r="61" spans="2:31" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B61" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C61" s="3" t="str">
         <f>メンバシップ推測攻撃!B2</f>
         <v>攻撃困難</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F61" s="3" t="str">
         <f>メンバシップ推測攻撃!C2</f>
         <v>攻撃困難</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I61" s="3" t="str">
         <f>メンバシップ推測攻撃!D2</f>
         <v>攻撃困難</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L61" s="3" t="str">
         <f>メンバシップ推測攻撃!E2</f>
         <v>攻撃困難</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O61" s="3" t="str">
         <f>メンバシップ推測攻撃!F2</f>
         <v>攻撃困難</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R61" s="3" t="str">
         <f>メンバシップ推測攻撃!G2</f>
         <v>攻撃困難</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="U61" s="3" t="str">
         <f>メンバシップ推測攻撃!H2</f>
         <v>攻撃困難</v>
       </c>
       <c r="W61" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="X61" s="3" t="str">
         <f>メンバシップ推測攻撃!I2</f>
@@ -33559,7 +33759,7 @@
         <v>109</v>
       </c>
       <c r="AA61" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AD61" s="7"/>
       <c r="AE61" s="15" t="str">
@@ -33572,7 +33772,7 @@
         <v>111</v>
       </c>
       <c r="AA62" s="8" t="s">
-        <v>259</v>
+        <v>504</v>
       </c>
       <c r="AD62" s="7"/>
       <c r="AE62" s="15" t="str">
@@ -33582,10 +33782,10 @@
     </row>
     <row r="63" spans="2:31" x14ac:dyDescent="0.4">
       <c r="Z63" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AA63" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AD63" s="7"/>
       <c r="AE63" s="15" t="str">
@@ -33594,17 +33794,30 @@
       </c>
     </row>
     <row r="64" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="Z64" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="AA64" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="AB64" s="13"/>
-      <c r="AC64" s="13"/>
-      <c r="AD64" s="11"/>
-      <c r="AE64" s="16" t="str">
-        <f>'Ⅱ. 質問'!H46</f>
+      <c r="Z64" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="AA64" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="AD64" s="7"/>
+      <c r="AE64" s="15" t="str">
+        <f>'Ⅱ. 質問'!H44</f>
+        <v>FALSE</v>
+      </c>
+    </row>
+    <row r="65" spans="26:31" x14ac:dyDescent="0.4">
+      <c r="Z65" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA65" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB65" s="13"/>
+      <c r="AC65" s="13"/>
+      <c r="AD65" s="11"/>
+      <c r="AE65" s="16" t="str">
+        <f>'Ⅱ. 質問'!H47</f>
         <v>FALSE</v>
       </c>
     </row>
@@ -33625,516 +33838,556 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="P12">
-    <cfRule type="expression" dxfId="154" priority="451">
+    <cfRule type="expression" dxfId="164" priority="464">
       <formula>AND(P12="TRUE",OR(AND(R12="TRUE",U12="TRUE"),AG12="TRUE"),OR(Y12="TRUE",AH12="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12">
-    <cfRule type="expression" dxfId="153" priority="453">
+    <cfRule type="expression" dxfId="163" priority="466">
       <formula>AND(P12="TRUE",OR(AND(R12="TRUE",U12="TRUE"),AG12="TRUE"),OR(Y12="TRUE",AH12="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U16">
-    <cfRule type="expression" dxfId="152" priority="459">
+    <cfRule type="expression" dxfId="162" priority="472">
       <formula>AND(T16="TRUE",U16="TRUE",W16="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U17">
-    <cfRule type="expression" dxfId="151" priority="462">
+    <cfRule type="expression" dxfId="161" priority="475">
       <formula>AND(S17="TRUE",U17="TRUE",AB17="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18">
-    <cfRule type="expression" dxfId="150" priority="465">
-      <formula>AND(S18="TRUE",U18="TRUE",W18="TRUE",OR(Z18="TRUE",AI18="TRUE"))</formula>
+    <cfRule type="expression" dxfId="160" priority="478">
+      <formula>AND(S18="TRUE",U18="TRUE",W18="TRUE",OR(Z18="TRUE",AJ18="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U19">
-    <cfRule type="expression" dxfId="149" priority="469">
-      <formula>AND(R19="TRUE",U19="TRUE",W19="TRUE",AK19="TRUE")</formula>
+    <cfRule type="expression" dxfId="159" priority="482">
+      <formula>AND(R19="TRUE",U19="TRUE",W19="TRUE",AL19="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="expression" dxfId="148" priority="490">
-      <formula>AND(P14="TRUE",U14="TRUE",OR(Y14="TRUE",AH14="TRUE"),AL14="TRUE")</formula>
+    <cfRule type="expression" dxfId="158" priority="503">
+      <formula>AND(P14="TRUE",U14="TRUE",OR(Y14="TRUE",AH14="TRUE"),AM14="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U14">
-    <cfRule type="expression" dxfId="147" priority="491">
-      <formula>AND(P14="TRUE",U14="TRUE",OR(W14="TRUE",AC14="TRUE"),AG14="TRUE")</formula>
+    <cfRule type="expression" dxfId="157" priority="504">
+      <formula>AND(P14="TRUE",U14="TRUE",OR(Y14="TRUE",AH14="TRUE"),AM14="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U20">
-    <cfRule type="expression" dxfId="146" priority="312">
-      <formula>AND(T20="TRUE",U20="TRUE",W20="TRUE",AK20="FALSE")</formula>
+    <cfRule type="expression" dxfId="156" priority="325">
+      <formula>AND(T20="TRUE",U20="TRUE",W20="TRUE",AL20="FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17">
-    <cfRule type="expression" dxfId="145" priority="311">
+    <cfRule type="expression" dxfId="155" priority="324">
       <formula>AND(S17="TRUE",U17="TRUE",AB17="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16">
-    <cfRule type="expression" dxfId="144" priority="310">
+    <cfRule type="expression" dxfId="154" priority="323">
       <formula>AND(T16="TRUE",U16="TRUE",W16="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18">
-    <cfRule type="expression" dxfId="143" priority="309">
-      <formula>AND(S18="TRUE",U18="TRUE",W18="TRUE",OR(Z18="TRUE",AI18="TRUE"))</formula>
+    <cfRule type="expression" dxfId="153" priority="322">
+      <formula>AND(S18="TRUE",U18="TRUE",W18="TRUE",OR(Z18="TRUE",AJ18="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T20">
-    <cfRule type="expression" dxfId="142" priority="307">
-      <formula>AND(T20="TRUE",U20="TRUE",W20="TRUE",AK20="FALSE")</formula>
+    <cfRule type="expression" dxfId="152" priority="320">
+      <formula>AND(T20="TRUE",U20="TRUE",W20="TRUE",AL20="FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R23">
-    <cfRule type="expression" dxfId="141" priority="282">
-      <formula>AND(OR(AND(R23="TRUE",U23="TRUE"),AG23="TRUE"),OR(Z23="TRUE",AI23="TRUE"))</formula>
+    <cfRule type="expression" dxfId="151" priority="295">
+      <formula>AND(OR(AND(R23="TRUE",U23="TRUE"),AG23="TRUE"),OR(Z23="TRUE",AJ23="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U23">
-    <cfRule type="expression" dxfId="140" priority="283">
-      <formula>AND(OR(AND(R23="TRUE",U23="TRUE"),AB23="TRUE"),OR(X23="TRUE",AD23="TRUE"))</formula>
+    <cfRule type="expression" dxfId="150" priority="296">
+      <formula>AND(OR(AND(R23="TRUE",U23="TRUE"),AG23="TRUE"),OR(Z23="TRUE",AJ23="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG12">
-    <cfRule type="expression" dxfId="139" priority="103">
+    <cfRule type="expression" dxfId="149" priority="116">
       <formula>AND(P12="TRUE",OR(AND(R12="TRUE",U12="TRUE"),AG12="TRUE"),OR(Y12="TRUE",AH12="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y12">
-    <cfRule type="expression" dxfId="138" priority="102">
+    <cfRule type="expression" dxfId="148" priority="115">
       <formula>AND(P12="TRUE",OR(AND(R12="TRUE",U12="TRUE"),AG12="TRUE"),OR(Y12="TRUE",AH12="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH12">
-    <cfRule type="expression" dxfId="137" priority="101">
+    <cfRule type="expression" dxfId="147" priority="114">
       <formula>AND(P12="TRUE",OR(AND(R12="TRUE",U12="TRUE"),AG12="TRUE"),OR(Y12="TRUE",AH12="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD13">
-    <cfRule type="expression" dxfId="136" priority="100">
+    <cfRule type="expression" dxfId="146" priority="113">
       <formula>(AD13="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y14">
-    <cfRule type="expression" dxfId="135" priority="99">
-      <formula>AND(T14="TRUE",Y14="TRUE",OR(AA14="TRUE",AG14="TRUE"),AK14="TRUE")</formula>
+    <cfRule type="expression" dxfId="145" priority="112">
+      <formula>AND(P14="TRUE",U14="TRUE",OR(Y14="TRUE",AH14="TRUE"),AM14="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH14">
-    <cfRule type="expression" dxfId="134" priority="98">
-      <formula>AND(AC14="TRUE",AH14="TRUE",OR(AJ14="TRUE",AP14="TRUE"),AT14="TRUE")</formula>
+    <cfRule type="expression" dxfId="144" priority="111">
+      <formula>AND(P14="TRUE",U14="TRUE",OR(Y14="TRUE",AH14="TRUE"),AM14="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL14">
-    <cfRule type="expression" dxfId="133" priority="97">
+    <cfRule type="expression" dxfId="143" priority="110">
       <formula>AND(AG14="TRUE",AL14="TRUE",OR(AN14="TRUE",AT14="TRUE"),AX14="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W16">
-    <cfRule type="expression" dxfId="132" priority="96">
+    <cfRule type="expression" dxfId="142" priority="109">
       <formula>AND(T16="TRUE",U16="TRUE",W16="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB17">
-    <cfRule type="expression" dxfId="131" priority="95">
+    <cfRule type="expression" dxfId="141" priority="108">
       <formula>AND(S17="TRUE",U17="TRUE",AB17="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W18">
-    <cfRule type="expression" dxfId="130" priority="94">
-      <formula>AND(S18="TRUE",U18="TRUE",W18="TRUE",OR(Z18="TRUE",AI18="TRUE"))</formula>
+    <cfRule type="expression" dxfId="140" priority="107">
+      <formula>AND(S18="TRUE",U18="TRUE",W18="TRUE",OR(Z18="TRUE",AJ18="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z18">
-    <cfRule type="expression" dxfId="129" priority="93">
-      <formula>AND(S18="TRUE",U18="TRUE",W18="TRUE",OR(Z18="TRUE",AI18="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI18">
-    <cfRule type="expression" dxfId="128" priority="92">
-      <formula>AND(S18="TRUE",U18="TRUE",W18="TRUE",OR(Z18="TRUE",AI18="TRUE"))</formula>
+    <cfRule type="expression" dxfId="139" priority="106">
+      <formula>AND(S18="TRUE",U18="TRUE",W18="TRUE",OR(Z18="TRUE",AJ18="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W19">
-    <cfRule type="expression" dxfId="127" priority="91">
-      <formula>AND(R19="TRUE",U19="TRUE",W19="TRUE",AK19="TRUE")</formula>
+    <cfRule type="expression" dxfId="138" priority="104">
+      <formula>AND(R19="TRUE",U19="TRUE",W19="TRUE",AL19="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK19">
-    <cfRule type="expression" dxfId="126" priority="90">
+    <cfRule type="expression" dxfId="137" priority="103">
       <formula>AND(R19="TRUE",U19="TRUE",W19="TRUE",AK19="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R19">
-    <cfRule type="expression" dxfId="125" priority="89">
-      <formula>AND(R19="TRUE",U19="TRUE",W19="TRUE",AK19="TRUE")</formula>
+    <cfRule type="expression" dxfId="136" priority="102">
+      <formula>AND(R19="TRUE",U19="TRUE",W19="TRUE",AL19="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W20">
-    <cfRule type="expression" dxfId="124" priority="88">
-      <formula>AND(T20="TRUE",U20="TRUE",W20="TRUE",AK20="FALSE")</formula>
+    <cfRule type="expression" dxfId="135" priority="101">
+      <formula>AND(T20="TRUE",U20="TRUE",W20="TRUE",AL20="FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK20">
-    <cfRule type="expression" dxfId="123" priority="87">
+    <cfRule type="expression" dxfId="134" priority="100">
       <formula>AND(T20="TRUE",U20="TRUE",W20="TRUE",AK20="FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG21">
-    <cfRule type="expression" dxfId="122" priority="86">
+    <cfRule type="expression" dxfId="133" priority="99">
       <formula>(AG21="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG23">
-    <cfRule type="expression" dxfId="121" priority="85">
-      <formula>AND(OR(AND(AD23="TRUE",AG23="TRUE"),AN23="TRUE"),OR(AJ23="TRUE",AP23="TRUE"))</formula>
+    <cfRule type="expression" dxfId="132" priority="98">
+      <formula>AND(OR(AND(R23="TRUE",U23="TRUE"),AG23="TRUE"),OR(Z23="TRUE",AJ23="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z23">
-    <cfRule type="expression" dxfId="120" priority="84">
-      <formula>AND(OR(AND(W23="TRUE",Z23="TRUE"),AG23="TRUE"),OR(AC23="TRUE",AI23="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI23">
-    <cfRule type="expression" dxfId="119" priority="83">
-      <formula>AND(OR(AND(AF23="TRUE",AI23="TRUE"),AP23="TRUE"),OR(AL23="TRUE",AR23="TRUE"))</formula>
+    <cfRule type="expression" dxfId="131" priority="97">
+      <formula>AND(OR(AND(R23="TRUE",U23="TRUE"),AG23="TRUE"),OR(Z23="TRUE",AJ23="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7:O32">
-    <cfRule type="cellIs" dxfId="118" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="85" operator="equal">
       <formula>"攻撃可能"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="86" operator="equal">
       <formula>"攻撃困難"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7">
-    <cfRule type="expression" dxfId="116" priority="68">
+    <cfRule type="expression" dxfId="128" priority="81">
       <formula>AND(OR(AND(R7="TRUE",U7="TRUE"),AG7="TRUE"),OR(Y7="TRUE",AH7="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U7">
-    <cfRule type="expression" dxfId="115" priority="67">
+    <cfRule type="expression" dxfId="127" priority="80">
       <formula>AND(OR(AND(R7="TRUE",U7="TRUE"),AG7="TRUE"),OR(Y7="TRUE",AH7="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y7">
-    <cfRule type="expression" dxfId="114" priority="66">
+    <cfRule type="expression" dxfId="126" priority="79">
       <formula>AND(OR(AND(R7="TRUE",U7="TRUE"),AG7="TRUE"),OR(Y7="TRUE",AH7="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG7">
-    <cfRule type="expression" dxfId="113" priority="65">
+    <cfRule type="expression" dxfId="125" priority="78">
       <formula>AND(OR(AND(R7="TRUE",U7="TRUE"),AG7="TRUE"),OR(Y7="TRUE",AH7="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH7">
-    <cfRule type="expression" dxfId="112" priority="64">
+    <cfRule type="expression" dxfId="124" priority="77">
       <formula>AND(OR(AND(R7="TRUE",U7="TRUE"),AG7="TRUE"),OR(Y7="TRUE",AH7="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8">
-    <cfRule type="expression" dxfId="111" priority="63">
-      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
+    <cfRule type="expression" dxfId="123" priority="76">
+      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AJ8="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U8">
-    <cfRule type="expression" dxfId="110" priority="62">
-      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
+    <cfRule type="expression" dxfId="122" priority="75">
+      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AJ8="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8">
-    <cfRule type="expression" dxfId="109" priority="61">
-      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
+    <cfRule type="expression" dxfId="121" priority="74">
+      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AJ8="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE8">
-    <cfRule type="expression" dxfId="108" priority="60">
+    <cfRule type="expression" dxfId="120" priority="73">
       <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AE8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG8">
-    <cfRule type="expression" dxfId="107" priority="59">
-      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI8">
-    <cfRule type="expression" dxfId="106" priority="58">
-      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
+    <cfRule type="expression" dxfId="119" priority="72">
+      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AJ8="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9">
-    <cfRule type="expression" dxfId="105" priority="57">
-      <formula>AND(Q9="TRUE",U9="TRUE",AL9="TRUE")</formula>
+    <cfRule type="expression" dxfId="118" priority="70">
+      <formula>AND(Q9="TRUE",U9="TRUE",AM9="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9">
-    <cfRule type="expression" dxfId="104" priority="56">
-      <formula>AND(Q9="TRUE",U9="TRUE",AL9="TRUE")</formula>
+    <cfRule type="expression" dxfId="117" priority="69">
+      <formula>AND(Q9="TRUE",U9="TRUE",AM9="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL9">
-    <cfRule type="expression" dxfId="103" priority="55">
+    <cfRule type="expression" dxfId="116" priority="68">
       <formula>AND(Q9="TRUE",U9="TRUE",AL9="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10">
-    <cfRule type="expression" dxfId="102" priority="54">
-      <formula>AND(OR(AND(Q10="TRUE",U10="TRUE"),AG10="TRUE"),AM10="TRUE")</formula>
+    <cfRule type="expression" dxfId="115" priority="67">
+      <formula>AND(OR(AND(Q10="TRUE",U10="TRUE"),AG10="TRUE"),AN10="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10">
-    <cfRule type="expression" dxfId="101" priority="53">
-      <formula>AND(OR(AND(Q10="TRUE",U10="TRUE"),AG10="TRUE"),AM10="TRUE")</formula>
+    <cfRule type="expression" dxfId="114" priority="66">
+      <formula>AND(OR(AND(Q10="TRUE",U10="TRUE"),AG10="TRUE"),AN10="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG10">
-    <cfRule type="expression" dxfId="100" priority="52">
-      <formula>AND(OR(AND(Q10="TRUE",U10="TRUE"),AG10="TRUE"),AM10="TRUE")</formula>
+    <cfRule type="expression" dxfId="113" priority="65">
+      <formula>AND(OR(AND(Q10="TRUE",U10="TRUE"),AG10="TRUE"),AN10="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM10">
-    <cfRule type="expression" dxfId="99" priority="51">
+    <cfRule type="expression" dxfId="112" priority="64">
       <formula>AND(OR(AND(Q10="TRUE",U10="TRUE"),AG10="TRUE"),AM10="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12">
-    <cfRule type="expression" dxfId="98" priority="50">
+    <cfRule type="expression" dxfId="111" priority="63">
       <formula>AND(P12="TRUE",OR(AND(R12="TRUE",U12="TRUE"),AG12="TRUE"),OR(Y12="TRUE",AH12="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S25">
-    <cfRule type="expression" dxfId="97" priority="48">
-      <formula>AND(S25="TRUE",U25="TRUE",W25="TRUE",OR(X25="TRUE",AA25="TRUE",AJ25="TRUE"))</formula>
+    <cfRule type="expression" dxfId="110" priority="61">
+      <formula>AND(S25="TRUE",U25="TRUE",W25="TRUE",OR(X25="TRUE",AA25="TRUE",AK25="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U25">
-    <cfRule type="expression" dxfId="96" priority="47">
-      <formula>AND(S25="TRUE",U25="TRUE",W25="TRUE",OR(X25="TRUE",AA25="TRUE",AJ25="TRUE"))</formula>
+    <cfRule type="expression" dxfId="109" priority="60">
+      <formula>AND(S25="TRUE",U25="TRUE",W25="TRUE",OR(X25="TRUE",AA25="TRUE",AK25="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W25">
-    <cfRule type="expression" dxfId="95" priority="46">
-      <formula>AND(S25="TRUE",U25="TRUE",W25="TRUE",OR(X25="TRUE",AA25="TRUE",AJ25="TRUE"))</formula>
+    <cfRule type="expression" dxfId="108" priority="59">
+      <formula>AND(S25="TRUE",U25="TRUE",W25="TRUE",OR(X25="TRUE",AA25="TRUE",AK25="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X25">
-    <cfRule type="expression" dxfId="94" priority="45">
-      <formula>AND(S25="TRUE",U25="TRUE",W25="TRUE",OR(X25="TRUE",AA25="TRUE",AJ25="TRUE"))</formula>
+    <cfRule type="expression" dxfId="107" priority="58">
+      <formula>AND(S25="TRUE",U25="TRUE",W25="TRUE",OR(X25="TRUE",AA25="TRUE",AK25="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA25">
-    <cfRule type="expression" dxfId="93" priority="44">
-      <formula>AND(S25="TRUE",U25="TRUE",W25="TRUE",OR(X25="TRUE",AA25="TRUE",AJ25="TRUE"))</formula>
+    <cfRule type="expression" dxfId="106" priority="57">
+      <formula>AND(S25="TRUE",U25="TRUE",W25="TRUE",OR(X25="TRUE",AA25="TRUE",AK25="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ25">
-    <cfRule type="expression" dxfId="92" priority="43">
+    <cfRule type="expression" dxfId="105" priority="56">
       <formula>AND(S25="TRUE",U25="TRUE",W25="TRUE",OR(X25="TRUE",AA25="TRUE",AJ25="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T26">
-    <cfRule type="expression" dxfId="91" priority="42">
+    <cfRule type="expression" dxfId="104" priority="55">
       <formula>AND(T26="TRUE",V26="TRUE",OR(W26="TRUE",Y26="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V26">
-    <cfRule type="expression" dxfId="90" priority="41">
+    <cfRule type="expression" dxfId="103" priority="54">
       <formula>AND(T26="TRUE",V26="TRUE",OR(W26="TRUE",Y26="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W26">
-    <cfRule type="expression" dxfId="89" priority="40">
+    <cfRule type="expression" dxfId="102" priority="53">
       <formula>AND(T26="TRUE",V26="TRUE",OR(W26="TRUE",Y26="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y26">
-    <cfRule type="expression" dxfId="88" priority="39">
+    <cfRule type="expression" dxfId="101" priority="52">
       <formula>AND(T26="TRUE",V26="TRUE",OR(W26="TRUE",Y26="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27">
-    <cfRule type="expression" dxfId="87" priority="38">
-      <formula>AND(Q27="TRUE",V27="TRUE",AL27="TRUE",OR(W27="TRUE",Y27="TRUE"))</formula>
+    <cfRule type="expression" dxfId="100" priority="51">
+      <formula>AND(Q27="TRUE",V27="TRUE",AM27="TRUE",OR(W27="TRUE",Y27="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V27">
-    <cfRule type="expression" dxfId="86" priority="37">
-      <formula>AND(Q27="TRUE",V27="TRUE",AL27="TRUE",OR(W27="TRUE",Y27="TRUE"))</formula>
+    <cfRule type="expression" dxfId="99" priority="50">
+      <formula>AND(Q27="TRUE",V27="TRUE",AM27="TRUE",OR(W27="TRUE",Y27="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W27">
-    <cfRule type="expression" dxfId="85" priority="36">
-      <formula>AND(Q27="TRUE",V27="TRUE",AL27="TRUE",OR(W27="TRUE",Y27="TRUE"))</formula>
+    <cfRule type="expression" dxfId="98" priority="49">
+      <formula>AND(Q27="TRUE",V27="TRUE",AM27="TRUE",OR(W27="TRUE",Y27="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y27">
-    <cfRule type="expression" dxfId="84" priority="35">
-      <formula>AND(Q27="TRUE",V27="TRUE",AL27="TRUE",OR(W27="TRUE",Y27="TRUE"))</formula>
+    <cfRule type="expression" dxfId="97" priority="48">
+      <formula>AND(Q27="TRUE",V27="TRUE",AM27="TRUE",OR(W27="TRUE",Y27="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL27">
-    <cfRule type="expression" dxfId="83" priority="34">
+    <cfRule type="expression" dxfId="96" priority="47">
       <formula>AND(Q27="TRUE",V27="TRUE",AL27="TRUE",OR(W27="TRUE",Y27="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q28">
-    <cfRule type="expression" dxfId="82" priority="33">
+    <cfRule type="expression" dxfId="95" priority="46">
       <formula>AND(Q28="TRUE",U28="TRUE",AC28="TRUE",OR(W28="TRUE",Y28="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U28">
-    <cfRule type="expression" dxfId="81" priority="32">
+    <cfRule type="expression" dxfId="94" priority="45">
       <formula>AND(Q28="TRUE",U28="TRUE",AC28="TRUE",OR(W28="TRUE",Y28="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W28">
-    <cfRule type="expression" dxfId="80" priority="31">
+    <cfRule type="expression" dxfId="93" priority="44">
       <formula>AND(Q28="TRUE",U28="TRUE",AC28="TRUE",OR(W28="TRUE",Y28="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y28">
-    <cfRule type="expression" dxfId="79" priority="30">
+    <cfRule type="expression" dxfId="92" priority="43">
       <formula>AND(Q28="TRUE",U28="TRUE",AC28="TRUE",OR(W28="TRUE",Y28="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC28">
-    <cfRule type="expression" dxfId="78" priority="29">
+    <cfRule type="expression" dxfId="91" priority="42">
       <formula>AND(Q28="TRUE",U28="TRUE",AC28="TRUE",OR(W28="TRUE",Y28="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R29">
-    <cfRule type="expression" dxfId="77" priority="28">
+    <cfRule type="expression" dxfId="90" priority="41">
       <formula>AND(R29="TRUE",V29="TRUE",OR(W29="TRUE",Y29="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V29">
-    <cfRule type="expression" dxfId="76" priority="27">
+    <cfRule type="expression" dxfId="89" priority="40">
       <formula>AND(R29="TRUE",V29="TRUE",OR(W29="TRUE",Y29="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W29">
-    <cfRule type="expression" dxfId="75" priority="26">
+    <cfRule type="expression" dxfId="88" priority="39">
       <formula>AND(R29="TRUE",V29="TRUE",OR(W29="TRUE",Y29="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y29">
-    <cfRule type="expression" dxfId="74" priority="25">
+    <cfRule type="expression" dxfId="87" priority="38">
       <formula>AND(R29="TRUE",V29="TRUE",OR(W29="TRUE",Y29="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q30">
-    <cfRule type="expression" dxfId="73" priority="24">
-      <formula>AND(Q30="TRUE",U30="TRUE",OR(W30="TRUE",Y30="TRUE"),AF30="TRUE",AJ30="TRUE")</formula>
+    <cfRule type="expression" dxfId="86" priority="37">
+      <formula>AND(Q30="TRUE",U30="TRUE",OR(W30="TRUE",Y30="TRUE"),AE30="TRUE",AK30="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U30">
-    <cfRule type="expression" dxfId="72" priority="23">
-      <formula>AND(Q30="TRUE",U30="TRUE",OR(W30="TRUE",Y30="TRUE"),AF30="TRUE",AJ30="TRUE")</formula>
+    <cfRule type="expression" dxfId="85" priority="36">
+      <formula>AND(Q30="TRUE",U30="TRUE",OR(W30="TRUE",Y30="TRUE"),AE30="TRUE",AK30="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W30">
-    <cfRule type="expression" dxfId="71" priority="22">
-      <formula>AND(Q30="TRUE",U30="TRUE",OR(W30="TRUE",Y30="TRUE"),AF30="TRUE",AJ30="TRUE")</formula>
+    <cfRule type="expression" dxfId="84" priority="35">
+      <formula>AND(Q30="TRUE",U30="TRUE",OR(W30="TRUE",Y30="TRUE"),AE30="TRUE",AK30="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y30">
-    <cfRule type="expression" dxfId="70" priority="21">
-      <formula>AND(Q30="TRUE",U30="TRUE",OR(W30="TRUE",Y30="TRUE"),AF30="TRUE",AJ30="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF30">
-    <cfRule type="expression" dxfId="69" priority="20">
-      <formula>AND(Q30="TRUE",U30="TRUE",OR(W30="TRUE",Y30="TRUE"),AF30="TRUE",AJ30="TRUE")</formula>
+    <cfRule type="expression" dxfId="83" priority="34">
+      <formula>AND(Q30="TRUE",U30="TRUE",OR(W30="TRUE",Y30="TRUE"),AE30="TRUE",AK30="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ30">
-    <cfRule type="expression" dxfId="68" priority="19">
-      <formula>AND(Q30="TRUE",U30="TRUE",OR(W30="TRUE",Y30="TRUE"),AF30="TRUE",AJ30="TRUE")</formula>
+    <cfRule type="expression" dxfId="82" priority="32">
+      <formula>AND(Q30="TRUE",U30="TRUE",OR(W30="TRUE",Y30="TRUE"),AE30="TRUE",AJ30="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q31">
-    <cfRule type="expression" dxfId="67" priority="18">
-      <formula>AND(Q31="TRUE",U31="TRUE",OR(W31="TRUE",Y31="TRUE"),AC31="TRUE",AF31="TRUE")</formula>
+    <cfRule type="expression" dxfId="81" priority="31">
+      <formula>AND(Q31="TRUE",U31="TRUE",OR(W31="TRUE",Y31="TRUE"),AC31="TRUE",AI31="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U31">
-    <cfRule type="expression" dxfId="66" priority="17">
-      <formula>AND(Q31="TRUE",U31="TRUE",OR(W31="TRUE",Y31="TRUE"),AC31="TRUE",AF31="TRUE")</formula>
+    <cfRule type="expression" dxfId="80" priority="30">
+      <formula>AND(Q31="TRUE",U31="TRUE",OR(W31="TRUE",Y31="TRUE"),AC31="TRUE",AI31="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31">
-    <cfRule type="expression" dxfId="65" priority="16">
-      <formula>AND(Q31="TRUE",U31="TRUE",OR(W31="TRUE",Y31="TRUE"),AC31="TRUE",AF31="TRUE")</formula>
+    <cfRule type="expression" dxfId="79" priority="29">
+      <formula>AND(Q31="TRUE",U31="TRUE",OR(W31="TRUE",Y31="TRUE"),AC31="TRUE",AI31="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y31">
-    <cfRule type="expression" dxfId="64" priority="15">
-      <formula>AND(Q31="TRUE",U31="TRUE",OR(W31="TRUE",Y31="TRUE"),AC31="TRUE",AF31="TRUE")</formula>
+    <cfRule type="expression" dxfId="78" priority="28">
+      <formula>AND(Q31="TRUE",U31="TRUE",OR(W31="TRUE",Y31="TRUE"),AC31="TRUE",AI31="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC31">
-    <cfRule type="expression" dxfId="63" priority="14">
-      <formula>AND(Q31="TRUE",U31="TRUE",OR(W31="TRUE",Y31="TRUE"),AC31="TRUE",AF31="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF31">
-    <cfRule type="expression" dxfId="62" priority="13">
-      <formula>AND(Q31="TRUE",U31="TRUE",OR(W31="TRUE",Y31="TRUE"),AC31="TRUE",AF31="TRUE")</formula>
+    <cfRule type="expression" dxfId="77" priority="27">
+      <formula>AND(Q31="TRUE",U31="TRUE",OR(W31="TRUE",Y31="TRUE"),AC31="TRUE",AI31="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB32">
-    <cfRule type="expression" dxfId="61" priority="12">
+    <cfRule type="expression" dxfId="76" priority="25">
       <formula>(AB32="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="60" priority="6">
+    <cfRule type="expression" dxfId="75" priority="19">
       <formula>$C$4="攻撃困難"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="11">
+    <cfRule type="expression" dxfId="74" priority="24">
       <formula>$C$4="攻撃可能"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="58" priority="5">
+    <cfRule type="expression" dxfId="73" priority="18">
       <formula>$D$4="攻撃困難"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="8">
+    <cfRule type="expression" dxfId="72" priority="21">
       <formula>$D$4="攻撃可能"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="56" priority="4">
+    <cfRule type="expression" dxfId="71" priority="17">
       <formula>$E$4="攻撃可能"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="9">
+    <cfRule type="expression" dxfId="70" priority="22">
       <formula>$E$4="攻撃困難"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="54" priority="3">
+    <cfRule type="expression" dxfId="69" priority="16">
       <formula>$F$4="攻撃可能"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="7">
+    <cfRule type="expression" dxfId="68" priority="20">
       <formula>$F$4="攻撃困難"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="52" priority="2">
+    <cfRule type="expression" dxfId="67" priority="15">
       <formula>$G$4="攻撃困難"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="10">
+    <cfRule type="expression" dxfId="66" priority="23">
       <formula>$G$4="攻撃可能"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF8">
-    <cfRule type="expression" dxfId="50" priority="1">
-      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
+    <cfRule type="expression" dxfId="65" priority="14">
+      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AJ8="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE30">
+    <cfRule type="expression" dxfId="64" priority="13">
+      <formula>AND(Q30="TRUE",U30="TRUE",OR(W30="TRUE",Y30="TRUE"),AE30="TRUE",AK30="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM14">
+    <cfRule type="expression" dxfId="63" priority="12">
+      <formula>AND(P14="TRUE",U14="TRUE",OR(Y14="TRUE",AH14="TRUE"),AM14="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ18">
+    <cfRule type="expression" dxfId="62" priority="11">
+      <formula>AND(S18="TRUE",U18="TRUE",W18="TRUE",OR(Z18="TRUE",AJ18="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL19">
+    <cfRule type="expression" dxfId="61" priority="10">
+      <formula>AND(R19="TRUE",U19="TRUE",W19="TRUE",AL19="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL20">
+    <cfRule type="expression" dxfId="60" priority="9">
+      <formula>AND(T20="TRUE",U20="TRUE",W20="TRUE",AL20="FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ23">
+    <cfRule type="expression" dxfId="59" priority="8">
+      <formula>AND(OR(AND(R23="TRUE",U23="TRUE"),AG23="TRUE"),OR(Z23="TRUE",AJ23="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ8">
+    <cfRule type="expression" dxfId="58" priority="7">
+      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AJ8="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM9">
+    <cfRule type="expression" dxfId="57" priority="6">
+      <formula>AND(Q9="TRUE",U9="TRUE",AM9="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN10">
+    <cfRule type="expression" dxfId="56" priority="5">
+      <formula>AND(OR(AND(Q10="TRUE",U10="TRUE"),AG10="TRUE"),AN10="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK25">
+    <cfRule type="expression" dxfId="55" priority="4">
+      <formula>AND(S25="TRUE",U25="TRUE",W25="TRUE",OR(X25="TRUE",AA25="TRUE",AK25="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM27">
+    <cfRule type="expression" dxfId="54" priority="3">
+      <formula>AND(Q27="TRUE",V27="TRUE",AM27="TRUE",OR(W27="TRUE",Y27="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK30">
+    <cfRule type="expression" dxfId="53" priority="2">
+      <formula>AND(Q30="TRUE",U30="TRUE",OR(W30="TRUE",Y30="TRUE"),AE30="TRUE",AK30="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI31">
+    <cfRule type="expression" dxfId="52" priority="1">
+      <formula>AND(Q31="TRUE",U31="TRUE",OR(W31="TRUE",Y31="TRUE"),AC31="TRUE",AI31="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34145,10 +34398,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549CB97E-C943-4CCC-9544-07840BB3F0B3}">
-  <dimension ref="A4:F57"/>
+  <dimension ref="A4:F58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -34168,19 +34421,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" s="75" t="s">
         <v>262</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="D7" s="49" t="s">
         <v>263</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="E7" t="s">
         <v>264</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>265</v>
-      </c>
-      <c r="F7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -34188,14 +34441,14 @@
         <v>43</v>
       </c>
       <c r="C8" s="110" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D8" s="133" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE43="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F8" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D4="YES", "YES", "NO")</f>
@@ -34207,7 +34460,7 @@
       <c r="C9" s="112"/>
       <c r="D9" s="134"/>
       <c r="E9" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F9" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D5="YES", "YES", "NO")</f>
@@ -34216,10 +34469,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
+        <v>269</v>
+      </c>
+      <c r="C10" s="75" t="s">
         <v>270</v>
-      </c>
-      <c r="C10" s="75" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -34227,14 +34480,14 @@
         <v>49</v>
       </c>
       <c r="C11" s="135" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D11" s="133" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE44="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F11" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D8="YES", "YES", "NO")</f>
@@ -34246,7 +34499,7 @@
       <c r="C12" s="136"/>
       <c r="D12" s="134"/>
       <c r="E12" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D14="YES", "YES", "NO")</f>
@@ -34258,14 +34511,14 @@
         <v>51</v>
       </c>
       <c r="C13" s="135" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D13" s="133" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE45="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F13" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D9="YES", "YES", "NO")</f>
@@ -34277,7 +34530,7 @@
       <c r="C14" s="136"/>
       <c r="D14" s="134"/>
       <c r="E14" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F14" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D15="YES", "YES", "NO")</f>
@@ -34289,14 +34542,14 @@
         <v>53</v>
       </c>
       <c r="C15" s="135" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D15" s="133" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE46="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F15" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D10="YES", "YES", "NO")</f>
@@ -34308,7 +34561,7 @@
       <c r="C16" s="136"/>
       <c r="D16" s="134"/>
       <c r="E16" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F16" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D16="YES", "YES", "NO")</f>
@@ -34320,14 +34573,14 @@
         <v>55</v>
       </c>
       <c r="C17" s="135" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D17" s="133" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE47="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F17" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D11="YES", "YES", "NO")</f>
@@ -34339,7 +34592,7 @@
       <c r="C18" s="136"/>
       <c r="D18" s="134"/>
       <c r="E18" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F18" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D17="YES", "YES", "NO")</f>
@@ -34348,10 +34601,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
+        <v>283</v>
+      </c>
+      <c r="C20" s="75" t="s">
         <v>284</v>
-      </c>
-      <c r="C20" s="75" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -34359,14 +34612,14 @@
         <v>66</v>
       </c>
       <c r="C21" s="110" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D21" s="133" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE48="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F21" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D20="YES", "YES", "NO")</f>
@@ -34378,7 +34631,7 @@
       <c r="C22" s="112"/>
       <c r="D22" s="134"/>
       <c r="E22" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F22" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D21="YES", "YES", "NO")</f>
@@ -34390,14 +34643,14 @@
         <v>70</v>
       </c>
       <c r="C23" s="74" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D23" s="79" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE49="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F23" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D21="YES", "YES", "NO")</f>
@@ -34406,10 +34659,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
+        <v>289</v>
+      </c>
+      <c r="C25" s="75" t="s">
         <v>290</v>
-      </c>
-      <c r="C25" s="75" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
@@ -34417,14 +34670,14 @@
         <v>75</v>
       </c>
       <c r="C26" s="74" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D26" s="79" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE50="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F26" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D24="YES", "YES", "NO")</f>
@@ -34436,14 +34689,14 @@
         <v>79</v>
       </c>
       <c r="C27" s="74" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D27" s="79" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE51="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F27" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D25="YES", "YES", "NO")</f>
@@ -34455,14 +34708,14 @@
         <v>81</v>
       </c>
       <c r="C28" s="74" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D28" s="79" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE52="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F28" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D26="YES", "YES", "NO")</f>
@@ -34474,14 +34727,14 @@
         <v>83</v>
       </c>
       <c r="C29" s="74" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D29" s="79" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE53="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F29" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D27="YES", "YES", "NO")</f>
@@ -34493,14 +34746,14 @@
         <v>85</v>
       </c>
       <c r="C30" s="74" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D30" s="79" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE54="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F30" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D28="YES", "YES", "NO")</f>
@@ -34512,14 +34765,14 @@
         <v>87</v>
       </c>
       <c r="C31" s="74" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D31" s="79" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE55="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F31" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D29="YES", "YES", "NO")</f>
@@ -34531,14 +34784,14 @@
         <v>90</v>
       </c>
       <c r="C32" s="74" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D32" s="79" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE56="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F32" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D30="YES", "YES", "NO")</f>
@@ -34547,10 +34800,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
+        <v>303</v>
+      </c>
+      <c r="C34" s="75" t="s">
         <v>304</v>
-      </c>
-      <c r="C34" s="75" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
@@ -34558,14 +34811,14 @@
         <v>94</v>
       </c>
       <c r="C35" s="74" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D35" s="79" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE57="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F35" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D33="YES", "YES", "NO")</f>
@@ -34574,10 +34827,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
+        <v>307</v>
+      </c>
+      <c r="C37" s="75" t="s">
         <v>308</v>
-      </c>
-      <c r="C37" s="75" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
@@ -34585,14 +34838,14 @@
         <v>99</v>
       </c>
       <c r="C38" s="74" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D38" s="79" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE58="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F38" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D36="YES", "YES", "NO")</f>
@@ -34604,14 +34857,14 @@
         <v>102</v>
       </c>
       <c r="C39" s="74" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D39" s="79" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE59="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F39" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D37="YES", "YES", "NO")</f>
@@ -34623,14 +34876,14 @@
         <v>105</v>
       </c>
       <c r="C40" s="74" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D40" s="79" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE60="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F40" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D38="YES", "YES", "NO")</f>
@@ -34639,10 +34892,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
+        <v>315</v>
+      </c>
+      <c r="C42" s="75" t="s">
         <v>316</v>
-      </c>
-      <c r="C42" s="75" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
@@ -34650,14 +34903,14 @@
         <v>109</v>
       </c>
       <c r="C43" s="74" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D43" s="79" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE61="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F43" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D41="YES", "YES", "NO")</f>
@@ -34668,15 +34921,15 @@
       <c r="B44" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="C44" s="74" t="s">
-        <v>318</v>
+      <c r="C44" s="106" t="s">
+        <v>317</v>
       </c>
       <c r="D44" s="79" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE62="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F44" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D42="YES", "YES", "NO")</f>
@@ -34685,61 +34938,80 @@
     </row>
     <row r="45" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B45" s="66" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C45" s="74" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D45" s="79" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE63="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F45" s="3" t="str">
         <f>IF('Ⅱ. 質問'!D43="YES", "YES", "NO")</f>
         <v>NO</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>322</v>
-      </c>
-      <c r="C47" s="75" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B48" s="66" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48" s="74" t="s">
-        <v>324</v>
-      </c>
-      <c r="D48" s="79" t="str">
+    <row r="46" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B46" s="66" t="s">
+        <v>503</v>
+      </c>
+      <c r="C46" s="74" t="s">
+        <v>317</v>
+      </c>
+      <c r="D46" s="79" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE64="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="F48" s="3" t="str">
-        <f>IF('Ⅱ. 質問'!D46="YES", "YES", "NO")</f>
+      <c r="E46" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="F46" s="3" t="str">
+        <f>IF('Ⅱ. 質問'!D44="YES", "YES", "NO")</f>
         <v>NO</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A56"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="53"/>
-    </row>
-    <row r="57" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>321</v>
+      </c>
+      <c r="C48" s="75" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B49" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="74" t="s">
+        <v>323</v>
+      </c>
+      <c r="D49" s="79" t="str">
+        <f>IF('Ⅳ. 総合判定結果'!AE65="TRUE", "該当", "非該当")</f>
+        <v>非該当</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="F49" s="3" t="str">
+        <f>IF('Ⅱ. 質問'!D47="YES", "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A57"/>
       <c r="B57" s="53"/>
       <c r="C57" s="49"/>
       <c r="D57" s="53"/>
+    </row>
+    <row r="58" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A58"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -34764,253 +35036,263 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B8:D9">
-    <cfRule type="expression" dxfId="49" priority="55">
+    <cfRule type="expression" dxfId="51" priority="57">
       <formula>$D$8="該当"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:D14">
-    <cfRule type="expression" dxfId="48" priority="57">
+    <cfRule type="expression" dxfId="50" priority="59">
       <formula>$D$13="該当"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:D12">
-    <cfRule type="expression" dxfId="47" priority="56">
+    <cfRule type="expression" dxfId="49" priority="58">
       <formula>$D$11="該当"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:D16">
-    <cfRule type="expression" dxfId="46" priority="54">
+    <cfRule type="expression" dxfId="48" priority="56">
       <formula>$D$15="該当"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:D18">
-    <cfRule type="expression" dxfId="45" priority="53">
+    <cfRule type="expression" dxfId="47" priority="55">
       <formula>$D$17="該当"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:D23">
-    <cfRule type="expression" dxfId="44" priority="51">
+    <cfRule type="expression" dxfId="46" priority="53">
       <formula>$D$23="該当"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:D26">
-    <cfRule type="expression" dxfId="43" priority="50">
+    <cfRule type="expression" dxfId="45" priority="52">
       <formula>$D$26="該当"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:D27">
-    <cfRule type="expression" dxfId="42" priority="49">
+    <cfRule type="expression" dxfId="44" priority="51">
       <formula>$D$27="該当"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:D28">
-    <cfRule type="expression" dxfId="41" priority="48">
+    <cfRule type="expression" dxfId="43" priority="50">
       <formula>$D$28="該当"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:D29">
-    <cfRule type="expression" dxfId="40" priority="47">
+    <cfRule type="expression" dxfId="42" priority="49">
       <formula>$D$29="該当"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:D30">
-    <cfRule type="expression" dxfId="39" priority="46">
+    <cfRule type="expression" dxfId="41" priority="48">
       <formula>$D$30="該当"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:D31">
-    <cfRule type="expression" dxfId="38" priority="45">
+    <cfRule type="expression" dxfId="40" priority="47">
       <formula>$D$31="該当"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:D32">
-    <cfRule type="expression" dxfId="37" priority="44">
+    <cfRule type="expression" dxfId="39" priority="46">
       <formula>$D$32="該当"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:D35">
-    <cfRule type="expression" dxfId="36" priority="43">
+    <cfRule type="expression" dxfId="38" priority="45">
       <formula>$D$35="該当"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:D38">
-    <cfRule type="expression" dxfId="35" priority="41">
+    <cfRule type="expression" dxfId="37" priority="43">
       <formula>$D$38="該当"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39:D39">
-    <cfRule type="expression" dxfId="34" priority="40">
+    <cfRule type="expression" dxfId="36" priority="42">
       <formula>$D$39="該当"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40:D40">
-    <cfRule type="expression" dxfId="33" priority="39">
+    <cfRule type="expression" dxfId="35" priority="41">
       <formula>$D$40="該当"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:D43">
-    <cfRule type="expression" dxfId="32" priority="38">
+    <cfRule type="expression" dxfId="34" priority="40">
       <formula>$D$43="該当"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44:D44">
-    <cfRule type="expression" dxfId="31" priority="37">
-      <formula>$D$44="該当"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B45:D45">
-    <cfRule type="expression" dxfId="30" priority="36">
+    <cfRule type="expression" dxfId="33" priority="39">
       <formula>$D$45="該当"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B48:D48">
-    <cfRule type="expression" dxfId="29" priority="35">
-      <formula>$D$48="該当"</formula>
+  <conditionalFormatting sqref="B46:D46">
+    <cfRule type="expression" dxfId="32" priority="38">
+      <formula>$D$46="該当"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49:D49">
+    <cfRule type="expression" dxfId="31" priority="37">
+      <formula>$D$49="該当"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:F8">
-    <cfRule type="expression" dxfId="28" priority="34">
+    <cfRule type="expression" dxfId="30" priority="36">
       <formula>$F$8="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:F9">
-    <cfRule type="expression" dxfId="27" priority="33">
+    <cfRule type="expression" dxfId="29" priority="35">
       <formula>$F$9="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:F11">
-    <cfRule type="expression" dxfId="26" priority="32">
+    <cfRule type="expression" dxfId="28" priority="34">
       <formula>$F$11="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:F12">
-    <cfRule type="expression" dxfId="25" priority="31">
+    <cfRule type="expression" dxfId="27" priority="33">
       <formula>$F$12="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:F13">
-    <cfRule type="expression" dxfId="24" priority="30">
+    <cfRule type="expression" dxfId="26" priority="32">
       <formula>$F$13="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:F14">
-    <cfRule type="expression" dxfId="23" priority="29">
+    <cfRule type="expression" dxfId="25" priority="31">
       <formula>$F$14="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:F15">
-    <cfRule type="expression" dxfId="22" priority="28">
+    <cfRule type="expression" dxfId="24" priority="30">
       <formula>$F$15="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:F16">
-    <cfRule type="expression" dxfId="21" priority="27">
+    <cfRule type="expression" dxfId="23" priority="29">
       <formula>$F$16="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:F17">
-    <cfRule type="expression" dxfId="20" priority="26">
+    <cfRule type="expression" dxfId="22" priority="28">
       <formula>$F$17="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:F18">
-    <cfRule type="expression" dxfId="19" priority="25">
+    <cfRule type="expression" dxfId="21" priority="27">
       <formula>$F$18="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:F22">
-    <cfRule type="expression" dxfId="18" priority="24">
+    <cfRule type="expression" dxfId="20" priority="26">
       <formula>$F$22="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:F23">
-    <cfRule type="expression" dxfId="17" priority="23">
+    <cfRule type="expression" dxfId="19" priority="25">
       <formula>$F$23="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:F26">
-    <cfRule type="expression" dxfId="16" priority="22">
+    <cfRule type="expression" dxfId="18" priority="24">
       <formula>$F$26="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="expression" dxfId="15" priority="21">
+    <cfRule type="expression" dxfId="17" priority="23">
       <formula>$F$27="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="expression" dxfId="14" priority="20">
+    <cfRule type="expression" dxfId="16" priority="22">
       <formula>$F$28="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="expression" dxfId="13" priority="19">
+    <cfRule type="expression" dxfId="15" priority="21">
       <formula>$F$29="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:F30">
-    <cfRule type="expression" dxfId="12" priority="18">
+    <cfRule type="expression" dxfId="14" priority="20">
       <formula>$F$30="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:F31">
-    <cfRule type="expression" dxfId="11" priority="17">
+    <cfRule type="expression" dxfId="13" priority="19">
       <formula>$F$31="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32:F32">
-    <cfRule type="expression" dxfId="10" priority="16">
+    <cfRule type="expression" dxfId="12" priority="18">
       <formula>$F$32="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:F35">
-    <cfRule type="expression" dxfId="9" priority="15">
+    <cfRule type="expression" dxfId="11" priority="17">
       <formula>$F$35="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38:F38">
-    <cfRule type="expression" dxfId="8" priority="14">
+    <cfRule type="expression" dxfId="10" priority="16">
       <formula>$F$38="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:F39">
-    <cfRule type="expression" dxfId="7" priority="13">
+    <cfRule type="expression" dxfId="9" priority="15">
       <formula>$F$39="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:F40">
-    <cfRule type="expression" dxfId="6" priority="12">
+    <cfRule type="expression" dxfId="8" priority="14">
       <formula>$F$40="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:F43">
-    <cfRule type="expression" dxfId="5" priority="11">
+    <cfRule type="expression" dxfId="7" priority="13">
       <formula>$F$43="YES"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44:F44">
-    <cfRule type="expression" dxfId="4" priority="10">
-      <formula>$F$44="YES"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E45:F45">
-    <cfRule type="expression" dxfId="3" priority="9">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>$F$45="YES"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E48:F48">
-    <cfRule type="expression" dxfId="2" priority="8">
-      <formula>$F$48="YES"</formula>
+  <conditionalFormatting sqref="E46:F46">
+    <cfRule type="expression" dxfId="5" priority="11">
+      <formula>$F$46="YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49:F49">
+    <cfRule type="expression" dxfId="4" priority="10">
+      <formula>$F$49="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:D21">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$D$21="該当"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:F21">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$F$21="YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:D44">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$D$44="該当"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44:F44">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$F$21="YES"</formula>
+      <formula>$F$44="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35024,7 +35306,7 @@
   <dimension ref="B1:T84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -35039,16 +35321,16 @@
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1" t="s">
         <v>326</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>327</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>328</v>
-      </c>
-      <c r="E1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.4">
@@ -35071,10 +35353,10 @@
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.4">
       <c r="O3" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
@@ -35086,7 +35368,7 @@
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F4" s="132" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G4" s="132"/>
       <c r="H4" s="132" t="str">
@@ -35095,10 +35377,10 @@
       </c>
       <c r="I4" s="1"/>
       <c r="O4" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S4" s="7"/>
       <c r="T4" s="15" t="str">
@@ -35115,7 +35397,7 @@
         <v>51</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S5" s="7"/>
       <c r="T5" s="15" t="str">
@@ -35131,7 +35413,7 @@
         <v>53</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S6" s="7"/>
       <c r="T6" s="15" t="str">
@@ -35147,7 +35429,7 @@
         <v>55</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S7" s="7"/>
       <c r="T7" s="15" t="str">
@@ -35160,7 +35442,7 @@
         <v>66</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S8" s="7"/>
       <c r="T8" s="15" t="str">
@@ -35176,7 +35458,7 @@
         <v>70</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S9" s="7"/>
       <c r="T9" s="15" t="str">
@@ -35197,7 +35479,7 @@
         <v>75</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S10" s="7"/>
       <c r="T10" s="15" t="str">
@@ -35207,14 +35489,14 @@
     </row>
     <row r="11" spans="2:20" ht="93.75" x14ac:dyDescent="0.4">
       <c r="D11" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E11" s="3" t="str">
         <f>IF(OR(D16="TRUE",G16="TRUE"),"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K11" s="3" t="str">
         <f>IF(OR(J16="TRUE",M16="TRUE"),"TRUE","FALSE")</f>
@@ -35224,7 +35506,7 @@
         <v>79</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="S11" s="7"/>
       <c r="T11" s="15" t="str">
@@ -35241,7 +35523,7 @@
         <v>81</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="S12" s="7"/>
       <c r="T12" s="15" t="str">
@@ -35258,7 +35540,7 @@
         <v>83</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="S13" s="7"/>
       <c r="T13" s="15" t="str">
@@ -35277,7 +35559,7 @@
         <v>85</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="S14" s="7"/>
       <c r="T14" s="15" t="str">
@@ -35300,7 +35582,7 @@
         <v>87</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S15" s="7"/>
       <c r="T15" s="15" t="str">
@@ -35310,28 +35592,28 @@
     </row>
     <row r="16" spans="2:20" ht="93.75" x14ac:dyDescent="0.4">
       <c r="C16" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D16" s="3" t="str">
         <f>IF(AND(C22="TRUE",F22="TRUE"),"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G16" s="3" t="str">
         <f>T20</f>
         <v>FALSE</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J16" s="3" t="str">
         <f>T12</f>
         <v>FALSE</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M16" s="3" t="str">
         <f>T21</f>
@@ -35341,7 +35623,7 @@
         <v>90</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="S16" s="7"/>
       <c r="T16" s="15" t="str">
@@ -35353,10 +35635,10 @@
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="O17" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S17" s="7"/>
       <c r="T17" s="15" t="str">
@@ -35369,7 +35651,7 @@
         <v>99</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="S18" s="7"/>
       <c r="T18" s="15" t="str">
@@ -35384,7 +35666,7 @@
         <v>102</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S19" s="7"/>
       <c r="T19" s="15" t="str">
@@ -35404,7 +35686,7 @@
         <v>105</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S20" s="7"/>
       <c r="T20" s="15" t="str">
@@ -35421,7 +35703,7 @@
         <v>109</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="15" t="str">
@@ -35431,14 +35713,14 @@
     </row>
     <row r="22" spans="2:20" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C22" s="3" t="str">
         <f>T5</f>
         <v>FALSE</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F22" s="3" t="str">
         <f>T8</f>
@@ -35448,7 +35730,7 @@
         <v>111</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>259</v>
+        <v>504</v>
       </c>
       <c r="S22" s="7"/>
       <c r="T22" s="15" t="str">
@@ -35458,10 +35740,10 @@
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.4">
       <c r="O23" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="S23" s="7"/>
       <c r="T23" s="15" t="str">
@@ -35470,23 +35752,36 @@
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="O24" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="P24" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="16" t="str">
+      <c r="O24" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="S24" s="7"/>
+      <c r="T24" s="15" t="str">
         <f>'Ⅳ. 総合判定結果'!AE64</f>
         <v>FALSE</v>
       </c>
     </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="O25" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="P25" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="16" t="str">
+        <f>'Ⅳ. 総合判定結果'!AE65</f>
+        <v>FALSE</v>
+      </c>
+    </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F26" s="137" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G26" s="138"/>
       <c r="H26" s="141" t="str">
@@ -35528,14 +35823,14 @@
     </row>
     <row r="33" spans="2:15" ht="112.5" x14ac:dyDescent="0.4">
       <c r="C33" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D33" s="3" t="str">
         <f>IF(OR(C38="TRUE",F38="TRUE"),"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J33" s="3" t="str">
         <f>IF(OR(I38="TRUE",L38="TRUE",O38="TRUE"),"TRUE","FALSE")</f>
@@ -35580,38 +35875,38 @@
     </row>
     <row r="38" spans="2:15" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B38" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C38" s="3" t="str">
         <f>IF(AND(C45="TRUE",F45="TRUE"),"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F38" s="3" t="str">
         <f>T20</f>
         <v>FALSE</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I38" s="3" t="str">
         <f>T19</f>
         <v>FALSE</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L38" s="3" t="str">
         <f>T13</f>
         <v>FALSE</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>345</v>
+        <v>506</v>
       </c>
       <c r="O38" s="3" t="str">
-        <f>T22</f>
+        <f>T23</f>
         <v>FALSE</v>
       </c>
     </row>
@@ -35644,14 +35939,14 @@
     </row>
     <row r="45" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B45" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C45" s="3" t="str">
         <f>T4</f>
         <v>FALSE</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F45" s="3" t="str">
         <f>T8</f>
@@ -35660,7 +35955,7 @@
     </row>
     <row r="49" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F49" s="137" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G49" s="138"/>
       <c r="H49" s="141" t="str">
@@ -35709,21 +36004,21 @@
     </row>
     <row r="57" spans="2:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B57" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C57" s="3" t="str">
         <f>T4</f>
         <v>FALSE</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F57" s="3" t="str">
         <f>T8</f>
         <v>FALSE</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I57" s="3" t="str">
         <f>IF('Ⅳ. 総合判定結果'!E4="攻撃可能","TRUE","FALSE")</f>
@@ -35732,7 +36027,7 @@
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.4">
       <c r="F61" s="137" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G61" s="138"/>
       <c r="H61" s="141" t="str">
@@ -35778,14 +36073,14 @@
     </row>
     <row r="69" spans="2:9" ht="75" x14ac:dyDescent="0.4">
       <c r="C69" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D69" s="3" t="str">
         <f>IF(OR(C74="TRUE",F74="TRUE"),"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I69" s="3" t="str">
         <f>IF('Ⅳ. 総合判定結果'!D4="攻撃可能","TRUE","FALSE")</f>
@@ -35814,14 +36109,14 @@
     </row>
     <row r="74" spans="2:9" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B74" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C74" s="3" t="str">
         <f>IF(AND(C80="TRUE",F80="TRUE"),"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F74" s="3" t="str">
         <f>T20</f>
@@ -35853,14 +36148,14 @@
     </row>
     <row r="80" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B80" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C80" s="3" t="str">
         <f>T4</f>
         <v>FALSE</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F80" s="3" t="str">
         <f>T8</f>
@@ -35891,7 +36186,7 @@
   <dimension ref="A1:Y48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -35906,13 +36201,13 @@
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D1" t="s">
         <v>353</v>
-      </c>
-      <c r="C1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D1" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.4">
@@ -35931,10 +36226,10 @@
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.4">
       <c r="O3" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
@@ -35946,7 +36241,7 @@
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F4" s="132" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G4" s="132"/>
       <c r="H4" s="132" t="str">
@@ -35955,10 +36250,10 @@
       </c>
       <c r="I4" s="1"/>
       <c r="O4" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S4" s="7"/>
       <c r="T4" s="15" t="str">
@@ -35975,7 +36270,7 @@
         <v>51</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S5" s="7"/>
       <c r="T5" s="15" t="str">
@@ -35991,7 +36286,7 @@
         <v>53</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S6" s="7"/>
       <c r="T6" s="15" t="str">
@@ -36007,7 +36302,7 @@
         <v>55</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S7" s="7"/>
       <c r="T7" s="15" t="str">
@@ -36020,7 +36315,7 @@
         <v>66</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S8" s="7"/>
       <c r="T8" s="15" t="str">
@@ -36036,7 +36331,7 @@
         <v>70</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S9" s="7"/>
       <c r="T9" s="15" t="str">
@@ -36059,7 +36354,7 @@
         <v>75</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S10" s="7"/>
       <c r="T10" s="15" t="str">
@@ -36069,21 +36364,21 @@
     </row>
     <row r="11" spans="2:20" ht="75" x14ac:dyDescent="0.4">
       <c r="C11" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D11" s="3" t="str">
         <f>IF(OR(C16="TRUE",F16="TRUE"),"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H11" s="3" t="str">
         <f>T3</f>
         <v>FALSE</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="L11" s="3" t="str">
         <f>IF(OR(J16="TRUE",M16="TRUE"),"TRUE","FALSE")</f>
@@ -36093,7 +36388,7 @@
         <v>79</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="S11" s="7"/>
       <c r="T11" s="15" t="str">
@@ -36110,7 +36405,7 @@
         <v>81</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="S12" s="7"/>
       <c r="T12" s="15" t="str">
@@ -36129,7 +36424,7 @@
         <v>83</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="S13" s="7"/>
       <c r="T13" s="15" t="str">
@@ -36147,7 +36442,7 @@
         <v>85</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="S14" s="7"/>
       <c r="T14" s="15" t="str">
@@ -36169,7 +36464,7 @@
         <v>87</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S15" s="7"/>
       <c r="T15" s="15" t="str">
@@ -36179,7 +36474,7 @@
     </row>
     <row r="16" spans="2:20" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C16" s="3" t="str">
         <f>IF(AND(B22="TRUE",E22="TRUE"),"TRUE","FALSE")</f>
@@ -36187,21 +36482,21 @@
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F16" s="3" t="str">
         <f>T20</f>
         <v>FALSE</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J16" s="3" t="str">
         <f>T12</f>
         <v>FALSE</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M16" s="3" t="str">
         <f>T21</f>
@@ -36211,7 +36506,7 @@
         <v>90</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="S16" s="7"/>
       <c r="T16" s="15" t="str">
@@ -36223,10 +36518,10 @@
       <c r="B17" s="6"/>
       <c r="C17" s="5"/>
       <c r="O17" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S17" s="7"/>
       <c r="T17" s="15" t="str">
@@ -36241,7 +36536,7 @@
         <v>99</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="S18" s="7"/>
       <c r="T18" s="15" t="str">
@@ -36257,7 +36552,7 @@
         <v>102</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S19" s="7"/>
       <c r="T19" s="15" t="str">
@@ -36272,7 +36567,7 @@
         <v>105</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S20" s="7"/>
       <c r="T20" s="15" t="str">
@@ -36291,7 +36586,7 @@
         <v>109</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="15" t="str">
@@ -36301,14 +36596,14 @@
     </row>
     <row r="22" spans="1:20" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B22" s="3" t="str">
         <f>T5</f>
         <v>FALSE</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E22" s="3" t="str">
         <f>T8</f>
@@ -36320,7 +36615,7 @@
         <v>111</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>259</v>
+        <v>504</v>
       </c>
       <c r="S22" s="7"/>
       <c r="T22" s="15" t="str">
@@ -36330,10 +36625,10 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.4">
       <c r="O23" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="S23" s="7"/>
       <c r="T23" s="15" t="str">
@@ -36342,16 +36637,14 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="O24" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="P24" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="16" t="str">
+      <c r="O24" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="S24" s="7"/>
+      <c r="T24" s="15" t="str">
         <f>'Ⅳ. 総合判定結果'!AE64</f>
         <v>FALSE</v>
       </c>
@@ -36360,10 +36653,23 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="K25" s="1"/>
+      <c r="O25" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="P25" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="16" t="str">
+        <f>'Ⅳ. 総合判定結果'!AE65</f>
+        <v>FALSE</v>
+      </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.4">
       <c r="F26" s="137" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G26" s="138"/>
       <c r="H26" s="141" t="str">
@@ -36387,7 +36693,7 @@
     </row>
     <row r="30" spans="1:20" ht="37.5" x14ac:dyDescent="0.4">
       <c r="G30" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H30" s="3" t="str">
         <f>T17</f>
@@ -36396,7 +36702,7 @@
     </row>
     <row r="34" spans="2:25" x14ac:dyDescent="0.4">
       <c r="F34" s="132" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G34" s="132"/>
       <c r="H34" s="132" t="str">
@@ -36456,28 +36762,28 @@
     </row>
     <row r="42" spans="2:25" ht="75" x14ac:dyDescent="0.4">
       <c r="B42" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C42" s="3" t="str">
         <f>T3</f>
         <v>FALSE</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F42" s="3" t="str">
         <f>T8</f>
         <v>FALSE</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I42" s="3" t="str">
         <f>IF(OR(G48="TRUE",J48="TRUE"),"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="L42" s="3" t="str">
         <f>IF('Ⅳ. 総合判定結果'!E4="攻撃可能","TRUE","FALSE")</f>
@@ -36511,14 +36817,14 @@
     </row>
     <row r="48" spans="2:25" ht="37.5" x14ac:dyDescent="0.4">
       <c r="F48" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G48" s="3" t="str">
         <f>T12</f>
         <v>FALSE</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J48" s="3" t="str">
         <f>T21</f>
@@ -36545,8 +36851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DEB450-202E-475D-B9AB-32831B2A9699}">
   <dimension ref="B1:T79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="L72" sqref="L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -36562,22 +36868,22 @@
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1" t="s">
         <v>365</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>366</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>367</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>368</v>
-      </c>
-      <c r="F1" t="s">
-        <v>369</v>
-      </c>
-      <c r="G1" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.4">
@@ -36608,10 +36914,10 @@
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.4">
       <c r="O3" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
@@ -36623,7 +36929,7 @@
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F4" s="132" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G4" s="132"/>
       <c r="H4" s="132" t="str">
@@ -36632,10 +36938,10 @@
       </c>
       <c r="I4" s="1"/>
       <c r="O4" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S4" s="7"/>
       <c r="T4" s="15" t="str">
@@ -36652,7 +36958,7 @@
         <v>51</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S5" s="7"/>
       <c r="T5" s="15" t="str">
@@ -36668,7 +36974,7 @@
         <v>53</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S6" s="7"/>
       <c r="T6" s="15" t="str">
@@ -36684,7 +36990,7 @@
         <v>55</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S7" s="7"/>
       <c r="T7" s="15" t="str">
@@ -36697,7 +37003,7 @@
         <v>66</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S8" s="7"/>
       <c r="T8" s="15" t="str">
@@ -36712,7 +37018,7 @@
         <v>70</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S9" s="7"/>
       <c r="T9" s="15" t="str">
@@ -36733,7 +37039,7 @@
         <v>75</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S10" s="7"/>
       <c r="T10" s="15" t="str">
@@ -36752,7 +37058,7 @@
         <v>79</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="S11" s="7"/>
       <c r="T11" s="15" t="str">
@@ -36762,21 +37068,21 @@
     </row>
     <row r="12" spans="2:20" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C12" s="3" t="str">
         <f>T7</f>
         <v>FALSE</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>T8</f>
         <v>FALSE</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I12" s="3" t="str">
         <f>T10</f>
@@ -36786,7 +37092,7 @@
         <v>81</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="S12" s="7"/>
       <c r="T12" s="15" t="str">
@@ -36799,7 +37105,7 @@
         <v>83</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="S13" s="7"/>
       <c r="T13" s="15" t="str">
@@ -36812,7 +37118,7 @@
         <v>85</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="S14" s="7"/>
       <c r="T14" s="15" t="str">
@@ -36825,7 +37131,7 @@
         <v>87</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S15" s="7"/>
       <c r="T15" s="15" t="str">
@@ -36835,7 +37141,7 @@
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F16" s="132" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G16" s="132"/>
       <c r="H16" s="132" t="str">
@@ -36847,7 +37153,7 @@
         <v>90</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="S16" s="7"/>
       <c r="T16" s="15" t="str">
@@ -36861,10 +37167,10 @@
       <c r="H17" s="132"/>
       <c r="I17" s="1"/>
       <c r="O17" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S17" s="7"/>
       <c r="T17" s="15" t="str">
@@ -36880,7 +37186,7 @@
         <v>99</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="S18" s="7"/>
       <c r="T18" s="15" t="str">
@@ -36896,7 +37202,7 @@
         <v>102</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S19" s="7"/>
       <c r="T19" s="15" t="str">
@@ -36909,7 +37215,7 @@
         <v>105</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S20" s="7"/>
       <c r="T20" s="15" t="str">
@@ -36924,7 +37230,7 @@
         <v>109</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="15" t="str">
@@ -36945,7 +37251,7 @@
         <v>111</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>259</v>
+        <v>504</v>
       </c>
       <c r="S22" s="7"/>
       <c r="T22" s="15" t="str">
@@ -36961,10 +37267,10 @@
       <c r="H23" s="11"/>
       <c r="I23" s="12"/>
       <c r="O23" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="S23" s="7"/>
       <c r="T23" s="15" t="str">
@@ -36974,43 +37280,56 @@
     </row>
     <row r="24" spans="2:20" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B24" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C24" s="3" t="str">
         <f>T6</f>
         <v>FALSE</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F24" s="3" t="str">
         <f>T8</f>
         <v>FALSE</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I24" s="3" t="str">
         <f>T15</f>
         <v>FALSE</v>
       </c>
-      <c r="O24" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="P24" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="16" t="str">
+      <c r="O24" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="S24" s="7"/>
+      <c r="T24" s="15" t="str">
         <f>'Ⅳ. 総合判定結果'!AE64</f>
         <v>FALSE</v>
       </c>
     </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="O25" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="P25" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="16" t="str">
+        <f>'Ⅳ. 総合判定結果'!AE65</f>
+        <v>FALSE</v>
+      </c>
+    </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F28" s="132" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G28" s="132"/>
       <c r="H28" s="132" t="str">
@@ -37067,28 +37386,28 @@
     </row>
     <row r="36" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B36" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C36" s="3" t="str">
         <f>T6</f>
         <v>FALSE</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F36" s="3" t="str">
         <f>T8</f>
         <v>FALSE</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I36" s="3" t="str">
         <f>T10</f>
         <v>FALSE</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L36" s="3" t="str">
         <f>IF(OR(J42="TRUE",M42="TRUE"),"TRUE","FALSE")</f>
@@ -37120,23 +37439,23 @@
     </row>
     <row r="42" spans="2:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="I42" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J42" s="3" t="str">
         <f>T13</f>
         <v>FALSE</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>345</v>
+        <v>506</v>
       </c>
       <c r="M42" s="3" t="str">
-        <f>T22</f>
+        <f>T23</f>
         <v>FALSE</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.4">
       <c r="F46" s="132" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G46" s="132"/>
       <c r="H46" s="132" t="str">
@@ -37193,37 +37512,37 @@
     </row>
     <row r="54" spans="2:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B54" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C54" s="3" t="str">
         <f>T5</f>
         <v>FALSE</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F54" s="3" t="str">
         <f>T8</f>
         <v>FALSE</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I54" s="3" t="str">
         <f>T10</f>
         <v>FALSE</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L54" s="3" t="str">
-        <f>T24</f>
+        <f>T25</f>
         <v>FALSE</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.4">
       <c r="F58" s="132" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G58" s="132"/>
       <c r="H58" s="132" t="str">
@@ -37280,28 +37599,28 @@
     </row>
     <row r="66" spans="2:12" ht="75" x14ac:dyDescent="0.4">
       <c r="B66" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C66" s="3" t="str">
         <f>T7</f>
         <v>FALSE</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F66" s="3" t="str">
         <f>T8</f>
         <v>FALSE</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I66" s="3" t="str">
         <f>T10</f>
         <v>FALSE</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L66" s="3" t="str">
         <f>IF(L71="TRUE","FALSE","TRUE")</f>
@@ -37326,16 +37645,16 @@
     </row>
     <row r="71" spans="2:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="K71" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L71" s="3" t="str">
-        <f>T24</f>
+        <f>T25</f>
         <v>FALSE</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.4">
       <c r="F75" s="137" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G75" s="138"/>
       <c r="H75" s="141" t="str">
@@ -37359,7 +37678,7 @@
     </row>
     <row r="79" spans="2:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="G79" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H79" s="3" t="str">
         <f>T20</f>
@@ -37390,10 +37709,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6DCE6F-8109-4042-A2B4-32B5E16C0F25}">
-  <dimension ref="B1:T24"/>
+  <dimension ref="B1:T25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -37408,7 +37727,7 @@
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.4">
@@ -37419,10 +37738,10 @@
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.4">
       <c r="O3" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
@@ -37434,7 +37753,7 @@
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F4" s="132" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G4" s="132"/>
       <c r="H4" s="132" t="str">
@@ -37443,10 +37762,10 @@
       </c>
       <c r="I4" s="1"/>
       <c r="O4" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S4" s="7"/>
       <c r="T4" s="15" t="str">
@@ -37463,7 +37782,7 @@
         <v>51</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S5" s="7"/>
       <c r="T5" s="15" t="str">
@@ -37479,7 +37798,7 @@
         <v>53</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S6" s="7"/>
       <c r="T6" s="15" t="str">
@@ -37495,7 +37814,7 @@
         <v>55</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S7" s="7"/>
       <c r="T7" s="15" t="str">
@@ -37508,7 +37827,7 @@
         <v>66</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S8" s="7"/>
       <c r="T8" s="15" t="str">
@@ -37524,7 +37843,7 @@
         <v>70</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S9" s="7"/>
       <c r="T9" s="15" t="str">
@@ -37546,7 +37865,7 @@
         <v>75</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S10" s="7"/>
       <c r="T10" s="15" t="str">
@@ -37556,14 +37875,14 @@
     </row>
     <row r="11" spans="2:20" ht="93.75" x14ac:dyDescent="0.4">
       <c r="C11" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D11" s="3" t="str">
         <f>IF(OR(C17="TRUE",F17="TRUE"),"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K11" s="3" t="str">
         <f>IF(OR(I17="TRUE",L17="TRUE"),"TRUE","FALSE")</f>
@@ -37573,7 +37892,7 @@
         <v>79</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="S11" s="7"/>
       <c r="T11" s="15" t="str">
@@ -37590,7 +37909,7 @@
         <v>81</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="S12" s="7"/>
       <c r="T12" s="15" t="str">
@@ -37607,7 +37926,7 @@
         <v>83</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="S13" s="7"/>
       <c r="T13" s="15" t="str">
@@ -37625,7 +37944,7 @@
         <v>85</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="S14" s="7"/>
       <c r="T14" s="15" t="str">
@@ -37644,7 +37963,7 @@
         <v>87</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S15" s="7"/>
       <c r="T15" s="15" t="str">
@@ -37667,7 +37986,7 @@
         <v>90</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="S16" s="7"/>
       <c r="T16" s="15" t="str">
@@ -37677,21 +37996,21 @@
     </row>
     <row r="17" spans="2:20" ht="75" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C17" s="3" t="str">
         <f>IF(AND(C23="TRUE",F23="TRUE"),"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F17" s="3" t="str">
         <f>T20</f>
         <v>FALSE</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I17" s="3" t="str">
         <f>T13</f>
@@ -37699,17 +38018,17 @@
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="2" t="s">
-        <v>345</v>
+        <v>506</v>
       </c>
       <c r="L17" s="3" t="str">
-        <f>T22</f>
+        <f>T23</f>
         <v>FALSE</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S17" s="7"/>
       <c r="T17" s="15" t="str">
@@ -37727,7 +38046,7 @@
         <v>99</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="S18" s="7"/>
       <c r="T18" s="15" t="str">
@@ -37744,7 +38063,7 @@
         <v>102</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S19" s="7"/>
       <c r="T19" s="15" t="str">
@@ -37762,7 +38081,7 @@
         <v>105</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S20" s="7"/>
       <c r="T20" s="15" t="str">
@@ -37779,7 +38098,7 @@
         <v>109</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="15" t="str">
@@ -37797,7 +38116,7 @@
         <v>111</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>259</v>
+        <v>504</v>
       </c>
       <c r="S22" s="7"/>
       <c r="T22" s="15" t="str">
@@ -37807,24 +38126,24 @@
     </row>
     <row r="23" spans="2:20" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B23" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C23" s="3" t="str">
         <f>T5</f>
         <v>FALSE</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F23" s="3" t="str">
         <f>T8</f>
         <v>FALSE</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="S23" s="7"/>
       <c r="T23" s="15" t="str">
@@ -37833,17 +38152,30 @@
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="O24" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="P24" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="16" t="str">
+      <c r="O24" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="S24" s="7"/>
+      <c r="T24" s="15" t="str">
         <f>'Ⅳ. 総合判定結果'!AE64</f>
+        <v>FALSE</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="O25" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="P25" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="16" t="str">
+        <f>'Ⅳ. 総合判定結果'!AE65</f>
         <v>FALSE</v>
       </c>
     </row>
